--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_720.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_720.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32596-d609553-Reviews-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>168</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>179</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Orange-County-Hotels-Staybridge-Suites-Lake-Forest.h1453525.Hotel-Information?chkin=6%2F24%2F2018&amp;chkout=6%2F25%2F2018&amp;rm1=a2&amp;hwrqCacheKey=2c0c174b-c091-4c83-b554-828cafb92ffaHWRQ1529208062718&amp;cancellable=false&amp;regionId=11987&amp;vip=false&amp;c=617e8ac7-34c1-475b-9532-8d53db137797&amp;mctc=9&amp;exp_dp=189&amp;exp_ts=1529208063130&amp;exp_curr=USD&amp;swpToggleOn=false&amp;exp_pg=HSR</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_720.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_720.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="713">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,2061 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/10/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r564841338-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>32596</t>
+  </si>
+  <si>
+    <t>609553</t>
+  </si>
+  <si>
+    <t>564841338</t>
+  </si>
+  <si>
+    <t>03/06/2018</t>
+  </si>
+  <si>
+    <t>Great hotel</t>
+  </si>
+  <si>
+    <t>My husband and I stayed for a week in February. He was in Lake Forest on business.We stayed in a wheelchair accessible room.I believe all rooms are suites in this hotel. Our room was huge with a separate bedroom with king bed, fully equipped kitchen, living room area and huge bathroom.Free parking, full buffet breakfast (free) and 4 evenings a week (Monday to Thursday) there is a small meal (fajitas, hot dogs, wings, etc).The location was great for my husband, only a few minutes to his office each day. Lots of shopping and restaurants nearby.The lovely courtyard has a basketball court, pool, seating area with fountain and BBQ's.No complaints about this hotel at all, the staff were very friendly as well.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>My husband and I stayed for a week in February. He was in Lake Forest on business.We stayed in a wheelchair accessible room.I believe all rooms are suites in this hotel. Our room was huge with a separate bedroom with king bed, fully equipped kitchen, living room area and huge bathroom.Free parking, full buffet breakfast (free) and 4 evenings a week (Monday to Thursday) there is a small meal (fajitas, hot dogs, wings, etc).The location was great for my husband, only a few minutes to his office each day. Lots of shopping and restaurants nearby.The lovely courtyard has a basketball court, pool, seating area with fountain and BBQ's.No complaints about this hotel at all, the staff were very friendly as well.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r559070026-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>559070026</t>
+  </si>
+  <si>
+    <t>02/07/2018</t>
+  </si>
+  <si>
+    <t>Unique</t>
+  </si>
+  <si>
+    <t>I have one of my best experiences, staff was so friendly and helpful, when I arrived Bobby welcome me with such professionalism, Claudia assisted me in all my request and Jimmy was so helpful, same a Natalie, all staff was great. Accomodations were superb, room clean and neat, food was great. I definitely a place to stay, I will be back in June</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r552763804-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>552763804</t>
+  </si>
+  <si>
+    <t>01/09/2018</t>
+  </si>
+  <si>
+    <t>Wonderful visit!</t>
+  </si>
+  <si>
+    <t>We stayed in a two-bedroom suite and loved it! The space was perfect; the room was fresh and clean. Breakfast was more than adequate with choices for everyone. We would definitely recommend for families and stay again!</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r547024500-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>547024500</t>
+  </si>
+  <si>
+    <t>12/13/2017</t>
+  </si>
+  <si>
+    <t>Beautiful suite and exceptional service provided by Mimi</t>
+  </si>
+  <si>
+    <t>Beautiful three-room suite with separate large bathroom, bedroom, and combined living room/kitchen.  Mimi checked us in with professionalism and overall kindness.  Free dinner with lasagna, breadsticks, salad bar, and beer/wine.  Breakfast buffet has selection of eggs, meat, fresh fruit, yogurt, and pastries.  Very nice facility.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r543696544-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>543696544</t>
+  </si>
+  <si>
+    <t>11/27/2017</t>
+  </si>
+  <si>
+    <t>A place full of the "Small things".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Location was perfect for my needs.  Room location was good. I've been in countless hotel rooms and to be honest have become a bit jaded. The bathroom! Huge! Curved glass barn door style. It was enough to be out on #1 value for price hotel in Lake Forest. </t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r537944252-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>537944252</t>
+  </si>
+  <si>
+    <t>11/02/2017</t>
+  </si>
+  <si>
+    <t>charming hotel, very large room, great snacks</t>
+  </si>
+  <si>
+    <t>The room is realy big and has a small kitchen.breakfest  is nice. Greate swimming pool and jacuzzi.WIFI is strong, there is a desk which is comfortable.The hotel is minutes close to business in lake forest.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r524249031-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>524249031</t>
+  </si>
+  <si>
+    <t>09/13/2017</t>
+  </si>
+  <si>
+    <t>Wonderful stay at Staybridge</t>
+  </si>
+  <si>
+    <t>I stayed in Staybridge for around 14 days in August 2017. I had stayed at this hotel around 5 yrs back. The hotel is newly renovated however the hospitality is the same, "Excellent". The rooms are large, clean and well maintained. The room also has small  a cooking area for preparing the  food along with the dishwasher. The housekeeping department takes care of cleaning the room daily. The hotel has a well equipped gym and swimming pool with Jacuzzi. The hotel has a laundry room with washer and dryer machines which can be used by the guest. There is Walmart, Target mall and many restaurants nearby the hotel to make it a good option for stay. Overall I enjoyed my stay at staybridge and would love to come here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>I stayed in Staybridge for around 14 days in August 2017. I had stayed at this hotel around 5 yrs back. The hotel is newly renovated however the hospitality is the same, "Excellent". The rooms are large, clean and well maintained. The room also has small  a cooking area for preparing the  food along with the dishwasher. The housekeeping department takes care of cleaning the room daily. The hotel has a well equipped gym and swimming pool with Jacuzzi. The hotel has a laundry room with washer and dryer machines which can be used by the guest. There is Walmart, Target mall and many restaurants nearby the hotel to make it a good option for stay. Overall I enjoyed my stay at staybridge and would love to come here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r505934294-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>505934294</t>
+  </si>
+  <si>
+    <t>07/26/2017</t>
+  </si>
+  <si>
+    <t>Great hotel!</t>
+  </si>
+  <si>
+    <t>Our water polo team stayed here and had an amazing experience!!! The staff is wonderful!  Beds are really comfortable.  They give you free breakfast and dinner (during the week).  Seriously great staff and we could not have been happier with the hotel!</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r501024033-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>501024033</t>
+  </si>
+  <si>
+    <t>07/11/2017</t>
+  </si>
+  <si>
+    <t>Three Years Later...Still Excellent</t>
+  </si>
+  <si>
+    <t>We stayed here three years ago and were very impressed. So, for this recent visit, we didn't even look at the competition. The hotel lived up to its reputation in our mind, so we highly recommend Staybridge. No negatives at all.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r495203814-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>495203814</t>
+  </si>
+  <si>
+    <t>06/22/2017</t>
+  </si>
+  <si>
+    <t>Beautiful, big room</t>
+  </si>
+  <si>
+    <t>We only stayed one night, but I wanted to move in! The rooms are huge! The beds are very, very comfortable. The windows open. The suite had 2 TVs. It was very clean. And, it looked great for someone needing a longer-term stay. They have social hours and a buffet breakfast. The only issue we encountered was that the chemicals in the jacuzzi were off, but the staff leapt into action as soon as I informed them of the problem.</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r494311082-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>494311082</t>
+  </si>
+  <si>
+    <t>06/19/2017</t>
+  </si>
+  <si>
+    <t>Nice place but A/C was loud</t>
+  </si>
+  <si>
+    <t>in area for soccer tournament, so had a group stay here. Nice facility with nearby restaurants, stores, etc and price was reasonable. did not get back to hotel until late due to games and found room to be hot so kicked the air conditioner on.  A/C in our room was extremely loud to the extent that it would wake us up every time it kicked on.  Checked with others that stayed in hotel and got input that this was an isolated problem. didn't call front desk as was late and we were exhausted.  breakfast bar was perfect for group of kids off for full day of soccer.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r493089343-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>493089343</t>
+  </si>
+  <si>
+    <t>06/14/2017</t>
+  </si>
+  <si>
+    <t>Wonderful stay</t>
+  </si>
+  <si>
+    <t>The room was spacious, separate bedroom, kitchen. Everyone was helpful. located about a mile from a shopping center,they had about anything that you would need. Monday thru Thursday evening meals served. Wine and beer also served. Great value for the money.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r475398205-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>475398205</t>
+  </si>
+  <si>
+    <t>04/13/2017</t>
+  </si>
+  <si>
+    <t>Great place to stay</t>
+  </si>
+  <si>
+    <t>Stayed here on a long term business trip. The staff are genuine, courteous and helpfull in there dealings with customers. They will go beyond need in making your stay comfortable.  The rooms are clean and spacious and include a fridge, microwave and two ring hob.  The swimming pool and hot tub are recently refurbished and there is no shortage of fresh towels. The hotel runs a shuttle within a five mile radius which is a major bonus.  Would have no problem in recommending or staying here again.</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r471475317-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>471475317</t>
+  </si>
+  <si>
+    <t>03/30/2017</t>
+  </si>
+  <si>
+    <t>I stayed there twice in a month - good hotel while expensive</t>
+  </si>
+  <si>
+    <t>Good hotel with free diner (including beer and wine) if you want to spend you evening there. Breakfast is included.The WIFI is slow when the hotel is busy (which happened on my first stay).The rooms have kitchen with micro-wave and fridge.</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r467666509-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>467666509</t>
+  </si>
+  <si>
+    <t>03/15/2017</t>
+  </si>
+  <si>
+    <t>Publisher</t>
+  </si>
+  <si>
+    <t>This hotel is sumptuous and very California friendly. Pray Mimi or Bobby are working at the front desk. They transported us to a restaurant when they got off work! I never encountered such kindness in all the 53 years I have been in business. Great place, great people, you will not be disappointed!TJE</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r437850752-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>437850752</t>
+  </si>
+  <si>
+    <t>11/16/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Start of Honeymoon </t>
+  </si>
+  <si>
+    <t xml:space="preserve">We stayed a night right after our wedding. They had complimentary water and popcorn.  Great experience.  We were so tired but we loved how clean the room and bathroom was.  The breakfast the next morning was good. A lot of variety, and tasty.  Highly recommend the stay.  </t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r429010574-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>429010574</t>
+  </si>
+  <si>
+    <t>10/17/2016</t>
+  </si>
+  <si>
+    <t>Very nice hotel</t>
+  </si>
+  <si>
+    <t>Stayed here a night due to flight issues out of SNA and was very impressed with this hotel. Very clean, spacious, modern, quiet rooms. And helpful staff! My room included a full kitchen with complimentary coffee, tea and pop corn. Good size flat screen TV and comfortable bed. I definitely recommend this hotel.</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r424558985-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>424558985</t>
+  </si>
+  <si>
+    <t>10/02/2016</t>
+  </si>
+  <si>
+    <t>Clean Rooms! Excellent Service! Amazing Breakfast!</t>
+  </si>
+  <si>
+    <t>Checked in on 10/1 for a 1 night stay with the family.  I appreciated the free upgrade to a 1 bedroom (2 queen) from a studio for being IHG Spire Elite Members.Rooms are very clean / spacious.  Loved the breakfast and the front desk service by Alana and Mimi.  We will definitely be coming back here on our next visit.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r397659857-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>397659857</t>
+  </si>
+  <si>
+    <t>07/26/2016</t>
+  </si>
+  <si>
+    <t>Sweet Hotel!</t>
+  </si>
+  <si>
+    <t>My wife and I elected to stay here with our 1 year old because they suites that have a separate living area and can be closed off. The staff here were really nice and the suites have things that you dont think about and BAM! Its there. The location is okay. Kind of in a area where it takes it bit to go places but it suited us. Def would stay here again.</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r396230070-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>396230070</t>
+  </si>
+  <si>
+    <t>07/24/2016</t>
+  </si>
+  <si>
+    <t>Really great value</t>
+  </si>
+  <si>
+    <t>Spent a week here with family, and we were all impressed. Clean, spacious suite, courteous staff, and pretty decent free breakfast. Property was recently remodeled. We rented a 2-bedroom suite (2 queens in one room and 1 in the other). Each bedroom had a private bath, and there were separate climate controls - one for the living area and smaller bedroom, and the other for the larger bedroom. Living area was spacious, with sofa-bed (we didn't pull it out), dining table, and kitchenette that included full-size refrigerator, 2-burner cooktop, microwave, toaster over, dishwasher, dishes/glasses, and a few pots and pans. Property includes a small fitness center and a guest laundry (free - supply your own soap). Wifi was free, and worked really well. Checkout was at noon. No online checkout available, but process took less than a minute at the front desk.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>Spent a week here with family, and we were all impressed. Clean, spacious suite, courteous staff, and pretty decent free breakfast. Property was recently remodeled. We rented a 2-bedroom suite (2 queens in one room and 1 in the other). Each bedroom had a private bath, and there were separate climate controls - one for the living area and smaller bedroom, and the other for the larger bedroom. Living area was spacious, with sofa-bed (we didn't pull it out), dining table, and kitchenette that included full-size refrigerator, 2-burner cooktop, microwave, toaster over, dishwasher, dishes/glasses, and a few pots and pans. Property includes a small fitness center and a guest laundry (free - supply your own soap). Wifi was free, and worked really well. Checkout was at noon. No online checkout available, but process took less than a minute at the front desk.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r393523501-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>393523501</t>
+  </si>
+  <si>
+    <t>07/17/2016</t>
+  </si>
+  <si>
+    <t>Perfect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I stayed here for 2 weeks. Staff is cheerful and know there job. Breakfast was better than any staybridge i have ever been to: lots of fresh fruit choices, rice and tofu, always scrambled eggs cooked perfectly and meats and sometimes potato (hashbrowns or homefries) Coffee alwas hot and fresh. They also do weekday social. They could call it dinner, because its exctly that. Some staybridge locatios you can get finger food and snacks. Not here, here is meat, starch and veggie. Plus the beer and wine. In addition to the great food there was a beautiful pool, basketball court and grills. This is my favorite staybridge. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r374986367-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>374986367</t>
+  </si>
+  <si>
+    <t>05/20/2016</t>
+  </si>
+  <si>
+    <t>Good location, quiet, clean and friendly</t>
+  </si>
+  <si>
+    <t>Stayed in a recently updated one bedroom suite.  Nice room.  Staff was friendly.  We had issues with the wi-fi, and the manager came up to fix it.  Seems a frequent problem but they were able to address it.Breakfast buffet was good, well maintained and had ample seating.</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r373938596-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>373938596</t>
+  </si>
+  <si>
+    <t>05/17/2016</t>
+  </si>
+  <si>
+    <t>Great Facilities AND Service</t>
+  </si>
+  <si>
+    <t>This was our second family trip to Lake Forest and this Staybridge Inn.  We originally ordered two separate rooms for us and my 95 year old father; we requested that the two rooms be near to each other.The next day, we received a call from the manager offering us the option of a two bedroom suite.  We are glad we took it and so was my father.  There was enough privacy and each bedroom had its own full bathroom; there was a kitchen and TVs in each bedroom as well as the shared living room.  We give an 11 out of 10 for service and facilities!The breakfast buffet was great too!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>This was our second family trip to Lake Forest and this Staybridge Inn.  We originally ordered two separate rooms for us and my 95 year old father; we requested that the two rooms be near to each other.The next day, we received a call from the manager offering us the option of a two bedroom suite.  We are glad we took it and so was my father.  There was enough privacy and each bedroom had its own full bathroom; there was a kitchen and TVs in each bedroom as well as the shared living room.  We give an 11 out of 10 for service and facilities!The breakfast buffet was great too!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r372247840-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>372247840</t>
+  </si>
+  <si>
+    <t>05/11/2016</t>
+  </si>
+  <si>
+    <t>Friendly and professional staff</t>
+  </si>
+  <si>
+    <t>I have been staying at this hotel regularly for six years and the staff at the hotel has become like a second family. They are the friendliest and most welcoming people I have ever encountered in a hotel, and that was from day one. They treat all their customers the same, the long timers and the ones there for one night. I cannot list all the times the staff has gone above and beyond the call of duty, but it is a frequent occurrence. The hotel has been remodeled in 2016, and the furnishings were already in good shape, so they re-invest in the property. I highly recommend anyone looking for a pleasant experience while traveling to stay here. And I didn't even mention the happy hour dinner and hot breakfast!MoreShow less</t>
+  </si>
+  <si>
+    <t>I have been staying at this hotel regularly for six years and the staff at the hotel has become like a second family. They are the friendliest and most welcoming people I have ever encountered in a hotel, and that was from day one. They treat all their customers the same, the long timers and the ones there for one night. I cannot list all the times the staff has gone above and beyond the call of duty, but it is a frequent occurrence. The hotel has been remodeled in 2016, and the furnishings were already in good shape, so they re-invest in the property. I highly recommend anyone looking for a pleasant experience while traveling to stay here. And I didn't even mention the happy hour dinner and hot breakfast!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r357457049-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>357457049</t>
+  </si>
+  <si>
+    <t>03/21/2016</t>
+  </si>
+  <si>
+    <t>Incredible Management and Awesome Place</t>
+  </si>
+  <si>
+    <t>This Staybridge is the best one I've stayed at, ever. Hands down the nicest staff in the world. They make you feel at home. The property is very well appointed and comfortable. It is always clean and the social room is always filled with nice guests from all over the world.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r353701617-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>353701617</t>
+  </si>
+  <si>
+    <t>03/07/2016</t>
+  </si>
+  <si>
+    <t>Amazing!</t>
+  </si>
+  <si>
+    <t>This hotel is wonderful. The staff were friendly and helpful, and did everything they could to make our stay pleasant. They keep a supply of games &amp; books to borrow &amp; have an area set aside to use.The room was very well laid out &amp; clean. There is a full size refrigerator, stove, microwave &amp; dishwasher.</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r340968117-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>340968117</t>
+  </si>
+  <si>
+    <t>01/18/2016</t>
+  </si>
+  <si>
+    <t>Convenient for visiting family</t>
+  </si>
+  <si>
+    <t>This is where we stay whenever we visit family in CA.  The location is convenient, the rooms are spacious and we love having a kitchen to store leftovers from family dinners.  The complimentary breakfast gives us a good start on the day as well.</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r331096378-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>331096378</t>
+  </si>
+  <si>
+    <t>12/06/2015</t>
+  </si>
+  <si>
+    <t>Our favorite getaway place BUT now......</t>
+  </si>
+  <si>
+    <t>First let me say we still love this place.I completely understand that the need for renovation and what it takes to accomplish that. Reason for the 2 stars ------The back door is left open for an electrical extension cord that nobody is using because it is "off hours/night time". THIS is a safety issue for all occupant especially when card is required off hours to get into the place but yet here is an "open door". Daytime one can hear very loud music from the back where the work area is, all the way to the front end rooms. Very loud because you can hear it with the room window closed.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>Gloria W, General Manager at Staybridge Suites Irvine Spectrum/Lake Forest, responded to this reviewResponded December 21, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 21, 2015</t>
+  </si>
+  <si>
+    <t>First let me say we still love this place.I completely understand that the need for renovation and what it takes to accomplish that. Reason for the 2 stars ------The back door is left open for an electrical extension cord that nobody is using because it is "off hours/night time". THIS is a safety issue for all occupant especially when card is required off hours to get into the place but yet here is an "open door". Daytime one can hear very loud music from the back where the work area is, all the way to the front end rooms. Very loud because you can hear it with the room window closed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r327394596-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>327394596</t>
+  </si>
+  <si>
+    <t>11/17/2015</t>
+  </si>
+  <si>
+    <t>Susan from SC</t>
+  </si>
+  <si>
+    <t>I can't say enough good things about the Staybridge Suites in Lake Forest CA. My husband and I are leaving today after spending 8 nights here.  The hotel is beautiful, emmaculatly clean and in a nice upscale section of town with near by stores and conveniences. The staff,front desk, house cleaning and kitchen has been most accommodating, the hot full breakfast each morning has been delicious plus they serve dinner on week nights free of charge as well.This location was an easy drive to the spectacular views of the Pacific Ocean plus we drove up Hy 74 to check out the majestic mountains seen from the hotel.If you are here on Sat or Sunday I  recommend that you worship at Saddleback Church located 2 miles from hotel. GREAT JOB EVERYONE!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>I can't say enough good things about the Staybridge Suites in Lake Forest CA. My husband and I are leaving today after spending 8 nights here.  The hotel is beautiful, emmaculatly clean and in a nice upscale section of town with near by stores and conveniences. The staff,front desk, house cleaning and kitchen has been most accommodating, the hot full breakfast each morning has been delicious plus they serve dinner on week nights free of charge as well.This location was an easy drive to the spectacular views of the Pacific Ocean plus we drove up Hy 74 to check out the majestic mountains seen from the hotel.If you are here on Sat or Sunday I  recommend that you worship at Saddleback Church located 2 miles from hotel. GREAT JOB EVERYONE!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r326395537-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>326395537</t>
+  </si>
+  <si>
+    <t>11/12/2015</t>
+  </si>
+  <si>
+    <t>Not quite as good as before</t>
+  </si>
+  <si>
+    <t>I've stayed here several times over the last 4 years &amp; this last visit was not as good. I agree with others that the rooms are not as clean or well-kept as earlier visits. Front desk staff is still pleasant &amp; helpful.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Staybridge Suites Irvine Spectrum/Lake Forest, responded to this reviewResponded November 27, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 27, 2015</t>
+  </si>
+  <si>
+    <t>I've stayed here several times over the last 4 years &amp; this last visit was not as good. I agree with others that the rooms are not as clean or well-kept as earlier visits. Front desk staff is still pleasant &amp; helpful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r319029993-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>319029993</t>
+  </si>
+  <si>
+    <t>10/15/2015</t>
+  </si>
+  <si>
+    <t>Hotel needs better housekeeping and maintenence</t>
+  </si>
+  <si>
+    <t>I stay at this location on business several times in the year, over the past few years. The hotel has all the usual amenities useful to the business traveler - comfortable bed, coffee pot in the room, fridge and microwave in the room, free wi fi, hot breakfast, and snacks and drinks in the weekdays, barring Fridays. These positives are unfortunately diminished by the downsides - it has increasingly become poorly maintained, with poor housekeeping. The hotel management should pay attention to these seemingly small details that greatly increase traveler satisfaction. Rooms should be sanitized sufficiently before occupancy (was not in my case), supplies should be replenished in the room, trash should be taken out, common areas such as hallways, elevators, kitchen areas should be kept clean and sanitary. A perfunctory cleanup will not cut it.MoreShow less</t>
+  </si>
+  <si>
+    <t>Gloria W, General Manager at Staybridge Suites Irvine Spectrum/Lake Forest, responded to this reviewResponded October 20, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 20, 2015</t>
+  </si>
+  <si>
+    <t>I stay at this location on business several times in the year, over the past few years. The hotel has all the usual amenities useful to the business traveler - comfortable bed, coffee pot in the room, fridge and microwave in the room, free wi fi, hot breakfast, and snacks and drinks in the weekdays, barring Fridays. These positives are unfortunately diminished by the downsides - it has increasingly become poorly maintained, with poor housekeeping. The hotel management should pay attention to these seemingly small details that greatly increase traveler satisfaction. Rooms should be sanitized sufficiently before occupancy (was not in my case), supplies should be replenished in the room, trash should be taken out, common areas such as hallways, elevators, kitchen areas should be kept clean and sanitary. A perfunctory cleanup will not cut it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r318125999-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>318125999</t>
+  </si>
+  <si>
+    <t>10/12/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A hotel like home </t>
+  </si>
+  <si>
+    <t>I love the free breakfast that you can make your own waffle! Front desk Bobby is kind and helpful. My room has been upgraded to a suite with kitchen and sitting room its sad that I don't have time to cook this time. The bath tub is new and it's very clean. There are many TV channels that keep you enjoy for whole night, including a Japanese TV channel showing English subtitled Japanese movies! The hotel is nearby Target and the Home Depot in 10min walk. I would love to stay in this hotel again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r309952450-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>309952450</t>
+  </si>
+  <si>
+    <t>09/13/2015</t>
+  </si>
+  <si>
+    <t>Amazing place for extended stay.</t>
+  </si>
+  <si>
+    <t>This is my fourth continuous month with Staybridge Suites Irvine Spectrum/Lake Forest as I am writing this review and let me tell you first hand that the experience was amazing. The Manager that I had to deal with, Cloe was extremely helpful when there was a problem with my booking and I had to extend my stay. 
+Staff at the front Desk (ask for Bobby or Claudia) were also very helpful for almost all of my requests, be it enrolling for their rewards program or holding a package for longer time. 
+The cleaning crew was amazing too. They did some times knock when I was not quite ready for them but then again, they wouldn't know because I didn't have my DND sign up. But they did tidy up the place every day and performed a full clean once a week. No complaints there. I had a problem with ants one day, and I called the front desk in the afternoon to report it, but as it turned out one of the cleaning crew had already found and reported the issue and it was taken care of by the time I got back from work. Flawless.
+Now I know that almost all hotels provide these services, but this is my first time staying for so long in one, and they did a very good job of not making me feel like I was in a hotel by adding a personalized...This is my fourth continuous month with Staybridge Suites Irvine Spectrum/Lake Forest as I am writing this review and let me tell you first hand that the experience was amazing. The Manager that I had to deal with, Cloe was extremely helpful when there was a problem with my booking and I had to extend my stay. Staff at the front Desk (ask for Bobby or Claudia) were also very helpful for almost all of my requests, be it enrolling for their rewards program or holding a package for longer time. The cleaning crew was amazing too. They did some times knock when I was not quite ready for them but then again, they wouldn't know because I didn't have my DND sign up. But they did tidy up the place every day and performed a full clean once a week. No complaints there. I had a problem with ants one day, and I called the front desk in the afternoon to report it, but as it turned out one of the cleaning crew had already found and reported the issue and it was taken care of by the time I got back from work. Flawless.Now I know that almost all hotels provide these services, but this is my first time staying for so long in one, and they did a very good job of not making me feel like I was in a hotel by adding a personalized touch to the experience.Definitely looking forward to staying here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>This is my fourth continuous month with Staybridge Suites Irvine Spectrum/Lake Forest as I am writing this review and let me tell you first hand that the experience was amazing. The Manager that I had to deal with, Cloe was extremely helpful when there was a problem with my booking and I had to extend my stay. 
+Staff at the front Desk (ask for Bobby or Claudia) were also very helpful for almost all of my requests, be it enrolling for their rewards program or holding a package for longer time. 
+The cleaning crew was amazing too. They did some times knock when I was not quite ready for them but then again, they wouldn't know because I didn't have my DND sign up. But they did tidy up the place every day and performed a full clean once a week. No complaints there. I had a problem with ants one day, and I called the front desk in the afternoon to report it, but as it turned out one of the cleaning crew had already found and reported the issue and it was taken care of by the time I got back from work. Flawless.
+Now I know that almost all hotels provide these services, but this is my first time staying for so long in one, and they did a very good job of not making me feel like I was in a hotel by adding a personalized...This is my fourth continuous month with Staybridge Suites Irvine Spectrum/Lake Forest as I am writing this review and let me tell you first hand that the experience was amazing. The Manager that I had to deal with, Cloe was extremely helpful when there was a problem with my booking and I had to extend my stay. Staff at the front Desk (ask for Bobby or Claudia) were also very helpful for almost all of my requests, be it enrolling for their rewards program or holding a package for longer time. The cleaning crew was amazing too. They did some times knock when I was not quite ready for them but then again, they wouldn't know because I didn't have my DND sign up. But they did tidy up the place every day and performed a full clean once a week. No complaints there. I had a problem with ants one day, and I called the front desk in the afternoon to report it, but as it turned out one of the cleaning crew had already found and reported the issue and it was taken care of by the time I got back from work. Flawless.Now I know that almost all hotels provide these services, but this is my first time staying for so long in one, and they did a very good job of not making me feel like I was in a hotel by adding a personalized touch to the experience.Definitely looking forward to staying here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r296536822-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>296536822</t>
+  </si>
+  <si>
+    <t>08/07/2015</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>The location was great, and the rooms were clean. A good value for the money, and with the kitchen we saved as well. The kitchen had a large fridge, 2 burners, a microwave and a dishwasher, the morning free breakfast was very good.Enjoyed beer every day. Ample Parking</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r295468738-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>295468738</t>
+  </si>
+  <si>
+    <t>08/03/2015</t>
+  </si>
+  <si>
+    <t>Convenient location, great value</t>
+  </si>
+  <si>
+    <t>I stayed at this property for two nights for business in Irvine. The hotel is located in a residential area in the hills about a 10 minute drive from the Irvine Spectrum.  The room was $150/night for a 1 king bedroom suite. They must have run out of rooms because I was given a sweet two bedroom suite. It was very spacious, clean, cool and comfortable. The staff was very helpful with recommending  nearby restaurants. I overheard one guest complaining about the traffic noise from Bake Parkway. The bedroom I slept in faced that road.  Other than the occasional loud motorcycle, traffic noise was not an issue.The hotel is comparable to a Hilton Hampton Inn: bedroom suites, common lounge area and free breakfast and evening happy hour food.  I enjoy an evening walk to wind down. There is a well manicured, immaculate, large community park just up the hill from the hotel. The park has a paved walking path around  the perimeter and a lovely view of Irvine and Orange County. There is also a shopping center with restaurants and a Walmart across the other road, Rancho Parkway, about a 10 minute walk at a leisurely pace.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>I stayed at this property for two nights for business in Irvine. The hotel is located in a residential area in the hills about a 10 minute drive from the Irvine Spectrum.  The room was $150/night for a 1 king bedroom suite. They must have run out of rooms because I was given a sweet two bedroom suite. It was very spacious, clean, cool and comfortable. The staff was very helpful with recommending  nearby restaurants. I overheard one guest complaining about the traffic noise from Bake Parkway. The bedroom I slept in faced that road.  Other than the occasional loud motorcycle, traffic noise was not an issue.The hotel is comparable to a Hilton Hampton Inn: bedroom suites, common lounge area and free breakfast and evening happy hour food.  I enjoy an evening walk to wind down. There is a well manicured, immaculate, large community park just up the hill from the hotel. The park has a paved walking path around  the perimeter and a lovely view of Irvine and Orange County. There is also a shopping center with restaurants and a Walmart across the other road, Rancho Parkway, about a 10 minute walk at a leisurely pace.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r295155960-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>295155960</t>
+  </si>
+  <si>
+    <t>08/02/2015</t>
+  </si>
+  <si>
+    <t>The location was great, and the rooms were clean, a little date though. The staff is helpful, kind and most of all calm. A good value for the money, and with the kitchen we saved as well. We were able to have 6 people in our room and everyone was comfortable for the 6 nights we were there.</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r291617815-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>291617815</t>
+  </si>
+  <si>
+    <t>07/22/2015</t>
+  </si>
+  <si>
+    <t>Value for Money?</t>
+  </si>
+  <si>
+    <t>Checked in tonight. Rooms feel outdated. A hole in the bedsheets. Stains on the sofa. Doorstop next to the bed. Loud AC outside of window. Room smells of Febrerze. For $210 plus tax overpriced. Asked to be moved, but they are sold out. My first review ever. I do travel a lot for business.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Staybridge Suites Irvine Spectrum/Lake Forest, responded to this reviewResponded August 10, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 10, 2015</t>
+  </si>
+  <si>
+    <t>Checked in tonight. Rooms feel outdated. A hole in the bedsheets. Stains on the sofa. Doorstop next to the bed. Loud AC outside of window. Room smells of Febrerze. For $210 plus tax overpriced. Asked to be moved, but they are sold out. My first review ever. I do travel a lot for business.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r290253426-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>290253426</t>
+  </si>
+  <si>
+    <t>07/18/2015</t>
+  </si>
+  <si>
+    <t>Excellent property, amazing staff and all the amenities you need!</t>
+  </si>
+  <si>
+    <t>I had just moved my family (fiancee + one month old) to California and we needed a place to stay until we found a suitable apartment. Staybridge was perfect! The one bedroom suite had a living room with sofa and an almost full kitchen with dishwasher! Three of the other key amenities were the free onsite laundry, complimentary breakfast buffet (daily) and complimentary dinner (Mon - Thur). This made our lives so much easier when caring for a newborn. It made it so we didn't need to meal plan very much. The grounds were pretty amazing. There was a nice pool area, a shaded grilling area, outdoor seating and rosemary plants around the water fountain!
+The location of the property was excellent. It's within minutes of restaurants, grocery stores, Target, movie theater, etc. What really made this property shine was the staff. They were helpful, cheerful, personable and made you feel like family. This was apparent the moment we checked in. We would like to single out Bobby and Claudia for all of their help! They made is possible for us to borrow a toaster oven for our stay (an oven was the only thing missing from the kitchen), were able to confirm that their shuttle had LATCH for our baby's car seat, were able to recommend stores in the area and handled every one of our requests (we had a newborn, so there were quite a few). 
+If there...I had just moved my family (fiancee + one month old) to California and we needed a place to stay until we found a suitable apartment. Staybridge was perfect! The one bedroom suite had a living room with sofa and an almost full kitchen with dishwasher! Three of the other key amenities were the free onsite laundry, complimentary breakfast buffet (daily) and complimentary dinner (Mon - Thur). This made our lives so much easier when caring for a newborn. It made it so we didn't need to meal plan very much. The grounds were pretty amazing. There was a nice pool area, a shaded grilling area, outdoor seating and rosemary plants around the water fountain!The location of the property was excellent. It's within minutes of restaurants, grocery stores, Target, movie theater, etc. What really made this property shine was the staff. They were helpful, cheerful, personable and made you feel like family. This was apparent the moment we checked in. We would like to single out Bobby and Claudia for all of their help! They made is possible for us to borrow a toaster oven for our stay (an oven was the only thing missing from the kitchen), were able to confirm that their shuttle had LATCH for our baby's car seat, were able to recommend stores in the area and handled every one of our requests (we had a newborn, so there were quite a few). If there were anything this property could improve upon, and there isn't much, it would be more vegetarian options for the dinner buffet.All in all, this is one of the best experience my family has ever had at any hotel and would definitely recommend this hotel to business travelers, families and anyone looking for a nice, safe and comfortable environment. Now that we've found an apartment nearby, we will be sending visiting family and friends here!MoreShow less</t>
+  </si>
+  <si>
+    <t>I had just moved my family (fiancee + one month old) to California and we needed a place to stay until we found a suitable apartment. Staybridge was perfect! The one bedroom suite had a living room with sofa and an almost full kitchen with dishwasher! Three of the other key amenities were the free onsite laundry, complimentary breakfast buffet (daily) and complimentary dinner (Mon - Thur). This made our lives so much easier when caring for a newborn. It made it so we didn't need to meal plan very much. The grounds were pretty amazing. There was a nice pool area, a shaded grilling area, outdoor seating and rosemary plants around the water fountain!
+The location of the property was excellent. It's within minutes of restaurants, grocery stores, Target, movie theater, etc. What really made this property shine was the staff. They were helpful, cheerful, personable and made you feel like family. This was apparent the moment we checked in. We would like to single out Bobby and Claudia for all of their help! They made is possible for us to borrow a toaster oven for our stay (an oven was the only thing missing from the kitchen), were able to confirm that their shuttle had LATCH for our baby's car seat, were able to recommend stores in the area and handled every one of our requests (we had a newborn, so there were quite a few). 
+If there...I had just moved my family (fiancee + one month old) to California and we needed a place to stay until we found a suitable apartment. Staybridge was perfect! The one bedroom suite had a living room with sofa and an almost full kitchen with dishwasher! Three of the other key amenities were the free onsite laundry, complimentary breakfast buffet (daily) and complimentary dinner (Mon - Thur). This made our lives so much easier when caring for a newborn. It made it so we didn't need to meal plan very much. The grounds were pretty amazing. There was a nice pool area, a shaded grilling area, outdoor seating and rosemary plants around the water fountain!The location of the property was excellent. It's within minutes of restaurants, grocery stores, Target, movie theater, etc. What really made this property shine was the staff. They were helpful, cheerful, personable and made you feel like family. This was apparent the moment we checked in. We would like to single out Bobby and Claudia for all of their help! They made is possible for us to borrow a toaster oven for our stay (an oven was the only thing missing from the kitchen), were able to confirm that their shuttle had LATCH for our baby's car seat, were able to recommend stores in the area and handled every one of our requests (we had a newborn, so there were quite a few). If there were anything this property could improve upon, and there isn't much, it would be more vegetarian options for the dinner buffet.All in all, this is one of the best experience my family has ever had at any hotel and would definitely recommend this hotel to business travelers, families and anyone looking for a nice, safe and comfortable environment. Now that we've found an apartment nearby, we will be sending visiting family and friends here!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r290171325-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>290171325</t>
+  </si>
+  <si>
+    <t>LOVED IT!</t>
+  </si>
+  <si>
+    <t>We've been so lucky this year with our hotel choices - most exceed the brand's standards, and Staybridge Lake Forest is no exception.  Check-in was a breeze and we were made to feel like welcomed guests … Bobby and I can't remember her name, (and everyone else) were just too friendly. We were greeted each and every time we entered or exited the hotel.Everywhere we turned there were beautiful fresh flowers, even in the rest rooms!  Awesome touches and attention to detail.  Our rooms were super clean and we slept so well on the comfortable beds!  The kitchen was very-well appointed, didn't need a thing!We spent each evening and morning out on their patio enjoying their beautiful and relaxing courtyard.  I can't believe how wonderfully quiet it was!  It was very well maintained with beautiful trees and flowers.  Their socials and breakfasts were chock-full of amazing and fresh fruits and veggies - a vegan's paradise, for sure!  They even had miso soup and rice on their breakfast buffet!  Since I can't have miso soup, I brewed some green tea, added a bit of nama shoyu and some lemon and made a tea soup for the rice!  YUM!This is a very well-maintained property with an AWESOME staff!  Thank you for a GREAT stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>We've been so lucky this year with our hotel choices - most exceed the brand's standards, and Staybridge Lake Forest is no exception.  Check-in was a breeze and we were made to feel like welcomed guests … Bobby and I can't remember her name, (and everyone else) were just too friendly. We were greeted each and every time we entered or exited the hotel.Everywhere we turned there were beautiful fresh flowers, even in the rest rooms!  Awesome touches and attention to detail.  Our rooms were super clean and we slept so well on the comfortable beds!  The kitchen was very-well appointed, didn't need a thing!We spent each evening and morning out on their patio enjoying their beautiful and relaxing courtyard.  I can't believe how wonderfully quiet it was!  It was very well maintained with beautiful trees and flowers.  Their socials and breakfasts were chock-full of amazing and fresh fruits and veggies - a vegan's paradise, for sure!  They even had miso soup and rice on their breakfast buffet!  Since I can't have miso soup, I brewed some green tea, added a bit of nama shoyu and some lemon and made a tea soup for the rice!  YUM!This is a very well-maintained property with an AWESOME staff!  Thank you for a GREAT stay!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r285666923-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>285666923</t>
+  </si>
+  <si>
+    <t>07/04/2015</t>
+  </si>
+  <si>
+    <t>Travel Agent Review</t>
+  </si>
+  <si>
+    <t>This is a fantastic property!  I have been coming here for years when I come to town. As a travel agent/owner of CruiseOne - Erik Fischer &amp; Associates I am always watching and reviewing all hotels I stay at as well as places I visit, restaurants, etc. The GM here is named Cleo and she is wonderful to work with. Should you have an issue (which I doubt) she will take care of it. The staff is professional, the property is comfortable and I consider this home away from home. I stay at all kinds of properties when I travel from 5 star resorts to 1 star mom and pop properties. I can't speak high enough of this property. If they are ever sold out I stay at the Hampton Inn not far but as soon as there is an opening I will move back to this property. They have a great breakfast every morning with a good variety and dinner every Monday through Thursday which is very good as well. You can't go wrong. There is also a very nice gym and laundry is free. All you need is your own detergent. You can't go wrong with staying here. Yes, there are other choices but for this area this would be the best choice!MoreShow less</t>
+  </si>
+  <si>
+    <t>This is a fantastic property!  I have been coming here for years when I come to town. As a travel agent/owner of CruiseOne - Erik Fischer &amp; Associates I am always watching and reviewing all hotels I stay at as well as places I visit, restaurants, etc. The GM here is named Cleo and she is wonderful to work with. Should you have an issue (which I doubt) she will take care of it. The staff is professional, the property is comfortable and I consider this home away from home. I stay at all kinds of properties when I travel from 5 star resorts to 1 star mom and pop properties. I can't speak high enough of this property. If they are ever sold out I stay at the Hampton Inn not far but as soon as there is an opening I will move back to this property. They have a great breakfast every morning with a good variety and dinner every Monday through Thursday which is very good as well. You can't go wrong. There is also a very nice gym and laundry is free. All you need is your own detergent. You can't go wrong with staying here. Yes, there are other choices but for this area this would be the best choice!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r285534724-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>285534724</t>
+  </si>
+  <si>
+    <t>Good as always</t>
+  </si>
+  <si>
+    <t>Have stayed here the past three years around this time for nearby swim meet. Staff are friendly and helpful each time. The furnishings have not changed, and could use some TLC i.e. torn seam under arm cover of couch.  The bed was comfy and bathroom linens adequate. Bonus to staying here is the free bkfst each day, and free dinners a few nights a week.  Having free w/d for guest use (buy your own soap) is a plus too. Keep in mind this is an extended stay kind of place, so "lite housekeeping" for less than 7 day stay means your bed gets made and your towels are refreshed if needed. No sweeping/vaccuming each day, wash your own dishes in dishwasher with soap provided. I assume bed sheets would get changed after 7 days?**honorable mention: Cleo called to say i'd left something in the room, so kudos to her and the cleaning staff for being honest and attentive in that regard!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Have stayed here the past three years around this time for nearby swim meet. Staff are friendly and helpful each time. The furnishings have not changed, and could use some TLC i.e. torn seam under arm cover of couch.  The bed was comfy and bathroom linens adequate. Bonus to staying here is the free bkfst each day, and free dinners a few nights a week.  Having free w/d for guest use (buy your own soap) is a plus too. Keep in mind this is an extended stay kind of place, so "lite housekeeping" for less than 7 day stay means your bed gets made and your towels are refreshed if needed. No sweeping/vaccuming each day, wash your own dishes in dishwasher with soap provided. I assume bed sheets would get changed after 7 days?**honorable mention: Cleo called to say i'd left something in the room, so kudos to her and the cleaning staff for being honest and attentive in that regard!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r284413699-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>284413699</t>
+  </si>
+  <si>
+    <t>06/30/2015</t>
+  </si>
+  <si>
+    <t>We love this hotel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is our go-to hotel when we're in the area from now on. Fantastic staff, clean rooms, great FREE meals...amazing. While checking in they noticed we were a family of 4 (husband, wife, child and mother in law) with a reservation for a 2 queen suite (we were trying to save money). They upgraded us immediately just for our own comfort! And it made a world of difference. Thank you so much, Staybridge! </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r274777568-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>274777568</t>
+  </si>
+  <si>
+    <t>05/26/2015</t>
+  </si>
+  <si>
+    <t>Home Away From Home</t>
+  </si>
+  <si>
+    <t>This place was amazing! The grounds are beautiful, it is literally like being at home! The suite was perfect, and exceptionally clean. There is a kitchen with a full fridge and ice maker (turn it on right away if you want ice). A nice desk, couch, t.v., comfy bed and fluffy pillows, roomy bathroom, great windows that give plenty of light. The pool and Jacuzzi were perfect and surrounded by beautiful trees and flowers. There are a few bbq’s and benches nearby … and right next to the pool and bbq’s there is even a basketball court! We had a great time!!! In the morning you get a GREAT breakfast! They even had miso soup which was delicious. You can tell the owners put pride into their establishment (thank you!). We stayed here to go to the Irvine Improv and Uber’d it there. GREAT location, nice getaway and very relaxing. Will definitely be staying at Staybridges again, thanks to the great impression from this one! =)MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>This place was amazing! The grounds are beautiful, it is literally like being at home! The suite was perfect, and exceptionally clean. There is a kitchen with a full fridge and ice maker (turn it on right away if you want ice). A nice desk, couch, t.v., comfy bed and fluffy pillows, roomy bathroom, great windows that give plenty of light. The pool and Jacuzzi were perfect and surrounded by beautiful trees and flowers. There are a few bbq’s and benches nearby … and right next to the pool and bbq’s there is even a basketball court! We had a great time!!! In the morning you get a GREAT breakfast! They even had miso soup which was delicious. You can tell the owners put pride into their establishment (thank you!). We stayed here to go to the Irvine Improv and Uber’d it there. GREAT location, nice getaway and very relaxing. Will definitely be staying at Staybridges again, thanks to the great impression from this one! =)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r273751637-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>273751637</t>
+  </si>
+  <si>
+    <t>05/22/2015</t>
+  </si>
+  <si>
+    <t>Good solution at reasonable price</t>
+  </si>
+  <si>
+    <t>I've been here a couple of times basically because its closed to my company and the price is reasonable. Basically they offer a sort of mini appartment with kitchen that i find very nice for long stay. Super breakfast according California standard.</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r265975143-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>265975143</t>
+  </si>
+  <si>
+    <t>04/15/2015</t>
+  </si>
+  <si>
+    <t>We stayed here last week for 5 nights and had a wonderful stay, rooms are great, food is great, near local restaurants and target etc. Also close to laguna beach. Can't fault in anyway. All the Staff here are very good! Bobby at the front desk is wonderful, he is so friendly and welcoming and is a credit to the hotel, first class service Bobby!!!Hope to see you next year.</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r258114554-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>258114554</t>
+  </si>
+  <si>
+    <t>03/06/2015</t>
+  </si>
+  <si>
+    <t>Nice hotel</t>
+  </si>
+  <si>
+    <t>We stayed here last night, and for the most part, we really liked it.  Check in was easy.  We did not take advantage of the evening light meal that was served, however, the menu posted on the fridge looked good.  The room was clean and comfortable.The pool, which was right by our room, closes at 9.  After 9, there were still noisy people at the pool, but a call to the front desk resolved that quickly.There were two things that we didn't like.  First, the information sheet for the hotel says they have "grab and go" breakfasts, and there were none.  The second thing is that the hair dryer in room 145 did not work.We stay near Tustin almost every Thursday during the school year, and with those two exceptions, liked it enough that if it was closer, we would probably stay here every week.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed here last night, and for the most part, we really liked it.  Check in was easy.  We did not take advantage of the evening light meal that was served, however, the menu posted on the fridge looked good.  The room was clean and comfortable.The pool, which was right by our room, closes at 9.  After 9, there were still noisy people at the pool, but a call to the front desk resolved that quickly.There were two things that we didn't like.  First, the information sheet for the hotel says they have "grab and go" breakfasts, and there were none.  The second thing is that the hair dryer in room 145 did not work.We stay near Tustin almost every Thursday during the school year, and with those two exceptions, liked it enough that if it was closer, we would probably stay here every week.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r257969601-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>257969601</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>Brilliant time at the Stay bridge Suites in Lake Forest. The rooms are mini apartments with a bedroom bathroom kitchen and lounge in each. Very clean and attentive staff, I'd stay there again without a doubt if I was in Lake Forest again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r257643778-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>257643778</t>
+  </si>
+  <si>
+    <t>03/04/2015</t>
+  </si>
+  <si>
+    <t>Excellent property, helpful and happy staff, and great rooms</t>
+  </si>
+  <si>
+    <t>By far the best hotel property I have lived in so far in all my travels. And I have traveled a lot. This has been a warm, wonderful experience. The reception staff is always perky, peppy and helpful at all times. They are wonderful to speak to and they ensure that I had all I needed. I would definitely recommend this property any time you are in the Lake Forest area. I thoroughly enjoyed my time here and I would come back right here anytime I am in the area. Bobby, Erica, Jericho ...they go a long way to make the guest feel right at home. Especially guests that are away from home for extended times. A lot of hotel properties really have to learn a lot from these guys. Thank you. It has been a pleasure.Note: They have a manager's reception in the evening with complimentary food, beer, and soda in case you want to have a good snack before you head out shopping or doing some activity.MoreShow less</t>
+  </si>
+  <si>
+    <t>By far the best hotel property I have lived in so far in all my travels. And I have traveled a lot. This has been a warm, wonderful experience. The reception staff is always perky, peppy and helpful at all times. They are wonderful to speak to and they ensure that I had all I needed. I would definitely recommend this property any time you are in the Lake Forest area. I thoroughly enjoyed my time here and I would come back right here anytime I am in the area. Bobby, Erica, Jericho ...they go a long way to make the guest feel right at home. Especially guests that are away from home for extended times. A lot of hotel properties really have to learn a lot from these guys. Thank you. It has been a pleasure.Note: They have a manager's reception in the evening with complimentary food, beer, and soda in case you want to have a good snack before you head out shopping or doing some activity.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r251018456-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>251018456</t>
+  </si>
+  <si>
+    <t>01/25/2015</t>
+  </si>
+  <si>
+    <t>Nice hotel stay</t>
+  </si>
+  <si>
+    <t>My husband has been staying at this Staybridge Suites for a few days every other week or so the past few months on business. I finally had the opportunity to go with him last week and I saw why he always chose this hotel.It is comfortable, well-kept, quiet and friendly. The room was large, combination bedroom- living room-kitchen. Also has a nice big desk for work. The bathroom was nice and large too. Bed was comfortable and windows had the best curtains to keep the room dark when sleeping late. The location is great, near many restaurants and stores and has a beautiful view of mountains, which are a short drive away. The free breakfast was very good and they have a nice variety.  There is also a light dinner 4 days a week - tacos, hamburgers, chicken wings, salad and the like, a nice offering. The grounds are pretty with fountain and gazebo as well as a basketball court. Everyone we encountered was very friendly, especially at the front desk.  I hope I have the opportunity to visit again sometime.  I know my husband already plans to go back.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>My husband has been staying at this Staybridge Suites for a few days every other week or so the past few months on business. I finally had the opportunity to go with him last week and I saw why he always chose this hotel.It is comfortable, well-kept, quiet and friendly. The room was large, combination bedroom- living room-kitchen. Also has a nice big desk for work. The bathroom was nice and large too. Bed was comfortable and windows had the best curtains to keep the room dark when sleeping late. The location is great, near many restaurants and stores and has a beautiful view of mountains, which are a short drive away. The free breakfast was very good and they have a nice variety.  There is also a light dinner 4 days a week - tacos, hamburgers, chicken wings, salad and the like, a nice offering. The grounds are pretty with fountain and gazebo as well as a basketball court. Everyone we encountered was very friendly, especially at the front desk.  I hope I have the opportunity to visit again sometime.  I know my husband already plans to go back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r249690482-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>249690482</t>
+  </si>
+  <si>
+    <t>01/17/2015</t>
+  </si>
+  <si>
+    <t>Great visit</t>
+  </si>
+  <si>
+    <t>Clean, comfortable and great breakfast. Evenings had a reception with some light bites. Close to highway, stores and restaurants.  Staff was great. Really a pleasant visit. Not a destination hotel, but good business hotel or for a family travelling through.  I did not know was that they are part of holiday inn chain. MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Gloria W, General Manager at Staybridge Suites Irvine Spectrum/Lake Forest, responded to this reviewResponded January 20, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 20, 2015</t>
+  </si>
+  <si>
+    <t>Clean, comfortable and great breakfast. Evenings had a reception with some light bites. Close to highway, stores and restaurants.  Staff was great. Really a pleasant visit. Not a destination hotel, but good business hotel or for a family travelling through.  I did not know was that they are part of holiday inn chain. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r248628376-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>248628376</t>
+  </si>
+  <si>
+    <t>01/10/2015</t>
+  </si>
+  <si>
+    <t>Great hotel and staff</t>
+  </si>
+  <si>
+    <t>We spent two months at the hotel for corporate housing.  It was hard to believe, but not only did we get a great one bedroom suite, but we also had free breakfast and dinner included in our stay.  The staff was incredibly friendly and helpful.  We especially want to thank Bobby and Cleo at the lobby front desk.  Too bad that we were there during the winter, because the pool looked very inviting.  The courtyard is very relaxing, with a nice fountain and gazebo with barbecues available.  I would highly recommend this hotel to anyone looking for a hotel in the Irvine area.  Now we are spoiled from not having to cook and clean for two months.  Back to reality!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>We spent two months at the hotel for corporate housing.  It was hard to believe, but not only did we get a great one bedroom suite, but we also had free breakfast and dinner included in our stay.  The staff was incredibly friendly and helpful.  We especially want to thank Bobby and Cleo at the lobby front desk.  Too bad that we were there during the winter, because the pool looked very inviting.  The courtyard is very relaxing, with a nice fountain and gazebo with barbecues available.  I would highly recommend this hotel to anyone looking for a hotel in the Irvine area.  Now we are spoiled from not having to cook and clean for two months.  Back to reality!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r244902825-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>244902825</t>
+  </si>
+  <si>
+    <t>12/17/2014</t>
+  </si>
+  <si>
+    <t>Awesome Stay</t>
+  </si>
+  <si>
+    <t>I stayed there for almost a month for a business trip and it was fun staying there. Beautiful &amp; bg rooms. Complementary breakfast &amp; dinner. Ample of options for breakfast. Complementary wi-fi. Big parking space. Small gym. Swimming pool. Basketball court. Friendly staff. Close to shopping center. Awesome experience. I would definitely recommend this hotel to my fellow travelers.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>I stayed there for almost a month for a business trip and it was fun staying there. Beautiful &amp; bg rooms. Complementary breakfast &amp; dinner. Ample of options for breakfast. Complementary wi-fi. Big parking space. Small gym. Swimming pool. Basketball court. Friendly staff. Close to shopping center. Awesome experience. I would definitely recommend this hotel to my fellow travelers.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r240102040-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>240102040</t>
+  </si>
+  <si>
+    <t>11/16/2014</t>
+  </si>
+  <si>
+    <t>Good Stay Overall</t>
+  </si>
+  <si>
+    <t>After leaving another hotel, our stay here was adequate. The front desk was very friendly and we had no problems with our room. The bathroom was clean as well as the rest of our room and there was hardly any noise from any of the other guests. Overall, our stay was OK.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Staybridge Suites Irvine Spectrum/Lake Forest, responded to this reviewResponded December 1, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 1, 2014</t>
+  </si>
+  <si>
+    <t>After leaving another hotel, our stay here was adequate. The front desk was very friendly and we had no problems with our room. The bathroom was clean as well as the rest of our room and there was hardly any noise from any of the other guests. Overall, our stay was OK.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r237349683-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>237349683</t>
+  </si>
+  <si>
+    <t>10/31/2014</t>
+  </si>
+  <si>
+    <t>Great place to stay, highly recommended!!</t>
+  </si>
+  <si>
+    <t>Tidy clean rooms, attentive and friendly staff, quiet location, elegant decor, complementary food and drink, complementary internet, and dvds at reception. Good location not far from shops, smoking area, plenty of parking. I will definitely stay here again. Thank you Cleo, Bobby, Mimi, Reggie, Claudia and Co.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>Tidy clean rooms, attentive and friendly staff, quiet location, elegant decor, complementary food and drink, complementary internet, and dvds at reception. Good location not far from shops, smoking area, plenty of parking. I will definitely stay here again. Thank you Cleo, Bobby, Mimi, Reggie, Claudia and Co.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r235380189-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>235380189</t>
+  </si>
+  <si>
+    <t>10/20/2014</t>
+  </si>
+  <si>
+    <t>Should be a 4 star hotel!!</t>
+  </si>
+  <si>
+    <t>My fiance, daughter and I stayed for a night on the 18th(Saturday) until we checked out on Sunday and this is my honest review. The rooms were a nice size comparable to a studio apartment and it included a 42 inch flat screen tv with a nice queen bed which was very comfortable. The fold out couch was a nice addition but the cushions were worn a little and had 2 6 inch tears in them (not a big deal but should be replaced someday) the carpet was newer and the room smelled great. It had a on counter burner for cooking food. (No oven) Dishwasher, microwave, toaster. The bathroom was very large with a nice sized closet and a bathtub/Shower combo. Overall it was a pleasant experience and I would recommend this to other family's with 1-2 kids. The breakfast buffet was a nice addition and was well worth the 3 trips we took. Waffles,scrambled eggs, sausage,cereal,toast and much much more to choose from! I always love a hotel that throws in free breakfast but this place went above and beyond my expectations :) Anytime I plan to visit the area this is my go to for me and my family. No need to look elsewhere. We paid $104.99 for a Saturday night which is well worth what you get at Staybridge Suites. Ohh yeah the staff went out of there way for us and was kind and courteous...My fiance, daughter and I stayed for a night on the 18th(Saturday) until we checked out on Sunday and this is my honest review. The rooms were a nice size comparable to a studio apartment and it included a 42 inch flat screen tv with a nice queen bed which was very comfortable. The fold out couch was a nice addition but the cushions were worn a little and had 2 6 inch tears in them (not a big deal but should be replaced someday) the carpet was newer and the room smelled great. It had a on counter burner for cooking food. (No oven) Dishwasher, microwave, toaster. The bathroom was very large with a nice sized closet and a bathtub/Shower combo. Overall it was a pleasant experience and I would recommend this to other family's with 1-2 kids. The breakfast buffet was a nice addition and was well worth the 3 trips we took. Waffles,scrambled eggs, sausage,cereal,toast and much much more to choose from! I always love a hotel that throws in free breakfast but this place went above and beyond my expectations :) Anytime I plan to visit the area this is my go to for me and my family. No need to look elsewhere. We paid $104.99 for a Saturday night which is well worth what you get at Staybridge Suites. Ohh yeah the staff went out of there way for us and was kind and courteous and made my family feel right at home. We will be back in the near future. Thanks guys and I hope this helps other with deciding on a hotel to pick. MoreShow less</t>
+  </si>
+  <si>
+    <t>My fiance, daughter and I stayed for a night on the 18th(Saturday) until we checked out on Sunday and this is my honest review. The rooms were a nice size comparable to a studio apartment and it included a 42 inch flat screen tv with a nice queen bed which was very comfortable. The fold out couch was a nice addition but the cushions were worn a little and had 2 6 inch tears in them (not a big deal but should be replaced someday) the carpet was newer and the room smelled great. It had a on counter burner for cooking food. (No oven) Dishwasher, microwave, toaster. The bathroom was very large with a nice sized closet and a bathtub/Shower combo. Overall it was a pleasant experience and I would recommend this to other family's with 1-2 kids. The breakfast buffet was a nice addition and was well worth the 3 trips we took. Waffles,scrambled eggs, sausage,cereal,toast and much much more to choose from! I always love a hotel that throws in free breakfast but this place went above and beyond my expectations :) Anytime I plan to visit the area this is my go to for me and my family. No need to look elsewhere. We paid $104.99 for a Saturday night which is well worth what you get at Staybridge Suites. Ohh yeah the staff went out of there way for us and was kind and courteous...My fiance, daughter and I stayed for a night on the 18th(Saturday) until we checked out on Sunday and this is my honest review. The rooms were a nice size comparable to a studio apartment and it included a 42 inch flat screen tv with a nice queen bed which was very comfortable. The fold out couch was a nice addition but the cushions were worn a little and had 2 6 inch tears in them (not a big deal but should be replaced someday) the carpet was newer and the room smelled great. It had a on counter burner for cooking food. (No oven) Dishwasher, microwave, toaster. The bathroom was very large with a nice sized closet and a bathtub/Shower combo. Overall it was a pleasant experience and I would recommend this to other family's with 1-2 kids. The breakfast buffet was a nice addition and was well worth the 3 trips we took. Waffles,scrambled eggs, sausage,cereal,toast and much much more to choose from! I always love a hotel that throws in free breakfast but this place went above and beyond my expectations :) Anytime I plan to visit the area this is my go to for me and my family. No need to look elsewhere. We paid $104.99 for a Saturday night which is well worth what you get at Staybridge Suites. Ohh yeah the staff went out of there way for us and was kind and courteous and made my family feel right at home. We will be back in the near future. Thanks guys and I hope this helps other with deciding on a hotel to pick. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r235106275-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>235106275</t>
+  </si>
+  <si>
+    <t>10/18/2014</t>
+  </si>
+  <si>
+    <t>Excellence!</t>
+  </si>
+  <si>
+    <t>I stay at this location at least one week a month for the last year and have never been disappointed.  The staff is outstanding, rooms are clean and comfortable. Free breakfast and evening dinner are decent. Overall always an excellent experience.  BOBBY, CLEO, CLAUDIA and MIMI are the best!MoreShow less</t>
+  </si>
+  <si>
+    <t>I stay at this location at least one week a month for the last year and have never been disappointed.  The staff is outstanding, rooms are clean and comfortable. Free breakfast and evening dinner are decent. Overall always an excellent experience.  BOBBY, CLEO, CLAUDIA and MIMI are the best!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r233207512-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>233207512</t>
+  </si>
+  <si>
+    <t>10/07/2014</t>
+  </si>
+  <si>
+    <t>Old people's home feel, ok for a night or two if you must.</t>
+  </si>
+  <si>
+    <t>Have stayed here a number of times over the years on business trips. Staff are very friendly.The breakfast is acceptable, but the dinner that used to get served Mon-Thursday was barely palatable and boring.Decided to break rank and now stay in either Holiday Inn in spectrum or Laguna Beach.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Staybridge Suites Irvine Spectrum/Lake Forest, responded to this reviewResponded October 23, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 23, 2014</t>
+  </si>
+  <si>
+    <t>Have stayed here a number of times over the years on business trips. Staff are very friendly.The breakfast is acceptable, but the dinner that used to get served Mon-Thursday was barely palatable and boring.Decided to break rank and now stay in either Holiday Inn in spectrum or Laguna Beach.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r221070569-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>221070569</t>
+  </si>
+  <si>
+    <t>08/11/2014</t>
+  </si>
+  <si>
+    <t>Weekend getaway</t>
+  </si>
+  <si>
+    <t>STAY: 4nights/3days (first time)EVENT: Couple weekend get-awayROOM: Just as advertised, clean and you have what you need for the kitchen, bathroom and bedroomPLUS: 1. Free breakfast (you really have a variety to choose from, the meat varies daily, the servers are always checking for anything that need more, also i like having "real" plates, glass and utensils available)2. I was worried about cooking or heating up food because of the smell but suprisingly the vent did realllllly work.3. The place was NOT noisy nor unsafe, close to places that we planned on visiting.4. Staff was friendly and helpful. ( We called to have the top floor and end-of-hallway room and that what we got)WILL I GO BACK: YesMoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>STAY: 4nights/3days (first time)EVENT: Couple weekend get-awayROOM: Just as advertised, clean and you have what you need for the kitchen, bathroom and bedroomPLUS: 1. Free breakfast (you really have a variety to choose from, the meat varies daily, the servers are always checking for anything that need more, also i like having "real" plates, glass and utensils available)2. I was worried about cooking or heating up food because of the smell but suprisingly the vent did realllllly work.3. The place was NOT noisy nor unsafe, close to places that we planned on visiting.4. Staff was friendly and helpful. ( We called to have the top floor and end-of-hallway room and that what we got)WILL I GO BACK: YesMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r220056845-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>220056845</t>
+  </si>
+  <si>
+    <t>08/06/2014</t>
+  </si>
+  <si>
+    <t>Be sure to specify non-smoking room if you want one.</t>
+  </si>
+  <si>
+    <t>Disgusting smoking room assigned by mistake. Entire floor reeked! Room stuck of cloying air freshener attempting, but failing, to cover it up. Front desk attendant hesitated in moving us, taking 20 minutes to get approval from manager by phone. Once moved, the new room (on an entirely different wing of building) was more than adequate. MoreShow less</t>
+  </si>
+  <si>
+    <t>Gloria W, General Manager at Staybridge Suites Irvine Spectrum/Lake Forest, responded to this reviewResponded August 11, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 11, 2014</t>
+  </si>
+  <si>
+    <t>Disgusting smoking room assigned by mistake. Entire floor reeked! Room stuck of cloying air freshener attempting, but failing, to cover it up. Front desk attendant hesitated in moving us, taking 20 minutes to get approval from manager by phone. Once moved, the new room (on an entirely different wing of building) was more than adequate. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r218503359-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>218503359</t>
+  </si>
+  <si>
+    <t>07/30/2014</t>
+  </si>
+  <si>
+    <t>Good hotel in between San Diego and Los Angeles</t>
+  </si>
+  <si>
+    <t>Nice property in Lake Side. 5 minute drive to a major shopping center with restaurants and stores (Target, Walmart). We had a two room suite. We stayed four nights at this property. The hotel is clean and staff are friendly. Breakfast was decent with hot and cold choices. There is a pool, basketball court, and free laundry.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>Nice property in Lake Side. 5 minute drive to a major shopping center with restaurants and stores (Target, Walmart). We had a two room suite. We stayed four nights at this property. The hotel is clean and staff are friendly. Breakfast was decent with hot and cold choices. There is a pool, basketball court, and free laundry.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r208431661-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>208431661</t>
+  </si>
+  <si>
+    <t>06/01/2014</t>
+  </si>
+  <si>
+    <t>Very good value, rooms...  What else do you need.</t>
+  </si>
+  <si>
+    <t>Booked this hotel for both it's rate and general location.  You are near every possible restaurant and national store.  Breakfast is excellent and the hotel is very quiet.  Rooms are borderline huge.  I have stayed in other Staybridge and these rooms are probably 80 sq ft bigger.  Fellow guests at least during our stay seemed to be families, many of whom were headed out to church during our breakfast.  The courtyard area was open and nice with grills and a large pool and good sized hot tub.Staff were always helpful when we needed them and took care of any request immediately.  The exact location is not visible from the main road, I drove right by it originally.  That said a really good hotel at a really good price.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>Booked this hotel for both it's rate and general location.  You are near every possible restaurant and national store.  Breakfast is excellent and the hotel is very quiet.  Rooms are borderline huge.  I have stayed in other Staybridge and these rooms are probably 80 sq ft bigger.  Fellow guests at least during our stay seemed to be families, many of whom were headed out to church during our breakfast.  The courtyard area was open and nice with grills and a large pool and good sized hot tub.Staff were always helpful when we needed them and took care of any request immediately.  The exact location is not visible from the main road, I drove right by it originally.  That said a really good hotel at a really good price.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r207438185-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>207438185</t>
+  </si>
+  <si>
+    <t>05/27/2014</t>
+  </si>
+  <si>
+    <t>Fantastic!</t>
+  </si>
+  <si>
+    <t>I love this hotel! Breakfast and dinner is always awesome.  But the staff makes the place worth it.  Special thanks to Bobby he has been a great help to my entire stay, every hotel needs a guy like him!MoreShow less</t>
+  </si>
+  <si>
+    <t>Gloria W, Director of Sales at Staybridge Suites Irvine Spectrum/Lake Forest, responded to this reviewResponded August 11, 2014</t>
+  </si>
+  <si>
+    <t>I love this hotel! Breakfast and dinner is always awesome.  But the staff makes the place worth it.  Special thanks to Bobby he has been a great help to my entire stay, every hotel needs a guy like him!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r197845742-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>197845742</t>
+  </si>
+  <si>
+    <t>03/18/2014</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t>Loved everything about this hotel:  really comfortable beds, modern and clean suites, well-equipped kitchen, excellent food at the breakfast buffet and the one evening reception attended, quiet location off the main roads, very friendly and helpful staff (thanks especially to Bobby).  Perfect temperature control in the rooms.  Plenty of free parking was also a plus in this area.  I look forward to coming back.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>Loved everything about this hotel:  really comfortable beds, modern and clean suites, well-equipped kitchen, excellent food at the breakfast buffet and the one evening reception attended, quiet location off the main roads, very friendly and helpful staff (thanks especially to Bobby).  Perfect temperature control in the rooms.  Plenty of free parking was also a plus in this area.  I look forward to coming back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r193668604-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>193668604</t>
+  </si>
+  <si>
+    <t>02/10/2014</t>
+  </si>
+  <si>
+    <t>Good overall</t>
+  </si>
+  <si>
+    <t>My family stayed in a 2-bedroom suite for a week and enjoyed our stay overall.Pros: 1) Two full bathrooms in the suite.  2) Good daily breakfast. 3) Free laundry facilities. 4) Close to restaurants, grocery stores, and shopping.Cons: 1) The room was starting to show its age.  There was a crack in the shower, as if someone had punched the wall.  The bathroom floor was uneven.  2) The garbage bins are too small.  We often filled another bag and left it by the bin to be disposed of by Housekeeping.  3) Most of the staff was great, although we did encounter a couple employees in the breakfast area who ignored us when we pointed out the malfunctioning waffle batter contraption.  They did fix it, but didn't speak the entire time and acted like we were inconveniencing them.  4) Some of the long term guests were loud.  While in the parking lot, we heard a parent admonishing their children.  We would return if we find ourselves in the area again.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>Gloria W, General Manager at Staybridge Suites Irvine Spectrum/Lake Forest, responded to this reviewResponded August 6, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 6, 2014</t>
+  </si>
+  <si>
+    <t>My family stayed in a 2-bedroom suite for a week and enjoyed our stay overall.Pros: 1) Two full bathrooms in the suite.  2) Good daily breakfast. 3) Free laundry facilities. 4) Close to restaurants, grocery stores, and shopping.Cons: 1) The room was starting to show its age.  There was a crack in the shower, as if someone had punched the wall.  The bathroom floor was uneven.  2) The garbage bins are too small.  We often filled another bag and left it by the bin to be disposed of by Housekeeping.  3) Most of the staff was great, although we did encounter a couple employees in the breakfast area who ignored us when we pointed out the malfunctioning waffle batter contraption.  They did fix it, but didn't speak the entire time and acted like we were inconveniencing them.  4) Some of the long term guests were loud.  While in the parking lot, we heard a parent admonishing their children.  We would return if we find ourselves in the area again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r191748431-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>191748431</t>
+  </si>
+  <si>
+    <t>01/22/2014</t>
+  </si>
+  <si>
+    <t>Nice place to stay</t>
+  </si>
+  <si>
+    <t>I needed a place to stay on a Friday night as I was on my way north of Los Angeles from San Diego.  Rather than battle the LA traffic at 5:00 pm on a Friday night, I elected to stay here for the night and make my escape from LA early Saturday morning.Check in was quick and painless.  The room was a large and comfortable suite with kitchenette, couch, and queen size bed.The front desk was helpful when I asked about nearby restaurants.  They directed me to a large shopping center that had plenty of options for dinner.I checked out of the hotel early Saturday morning and was on my way.The room was pleasant, the price was right, and I had just what I needed ... a place to stay until I could make my escape through LA.MoreShow less</t>
+  </si>
+  <si>
+    <t>I needed a place to stay on a Friday night as I was on my way north of Los Angeles from San Diego.  Rather than battle the LA traffic at 5:00 pm on a Friday night, I elected to stay here for the night and make my escape from LA early Saturday morning.Check in was quick and painless.  The room was a large and comfortable suite with kitchenette, couch, and queen size bed.The front desk was helpful when I asked about nearby restaurants.  They directed me to a large shopping center that had plenty of options for dinner.I checked out of the hotel early Saturday morning and was on my way.The room was pleasant, the price was right, and I had just what I needed ... a place to stay until I could make my escape through LA.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r184146987-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>184146987</t>
+  </si>
+  <si>
+    <t>11/09/2013</t>
+  </si>
+  <si>
+    <t>A great place to stay if you are in the area</t>
+  </si>
+  <si>
+    <t>This is a modern hotel with a variety of amenities, from basketball courts to a great swimming pool, to even the presence of barbeques in a garden-like setting. Breakfast was nice and totally satisfying. We were a bit disconcerted at first when we realized the hotel was in the middle of a seemingly deserted area, but were quickly put at ease when we learned that, a scant two blocks away, there was a commercial area with stores, supermarkets, and restaurants. We would certainly recommend this hotel if someone has business to transact in the surrounding area.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>Gloria W, General Manager at Staybridge Suites Irvine Spectrum/Lake Forest, responded to this reviewResponded December 3, 2013</t>
+  </si>
+  <si>
+    <t>Responded December 3, 2013</t>
+  </si>
+  <si>
+    <t>This is a modern hotel with a variety of amenities, from basketball courts to a great swimming pool, to even the presence of barbeques in a garden-like setting. Breakfast was nice and totally satisfying. We were a bit disconcerted at first when we realized the hotel was in the middle of a seemingly deserted area, but were quickly put at ease when we learned that, a scant two blocks away, there was a commercial area with stores, supermarkets, and restaurants. We would certainly recommend this hotel if someone has business to transact in the surrounding area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r177736398-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>177736398</t>
+  </si>
+  <si>
+    <t>09/18/2013</t>
+  </si>
+  <si>
+    <t>Thank you Staybridge staff for providing me with such a great stay! Highly recommended!</t>
+  </si>
+  <si>
+    <t>Today is my last night here and I am so pleased with my stay that I would like to pass along this great experience. I am attending a training from Omnex that was happening at this hotel so staying here was the obvious choice. Anyhow, I was not disappointed at all with the place, the rooms are big, clean, comfortable, have a mini kitchen, large flat screen, and free-fast wireless! In addition, a great breakfast and dinner buffet were included on my stay. I travel at lot for business and leisure and this was the FIRST time that I had no consumption at a hotel, I haven't spent a penny more than what I prepaid for the room. Parking was also complementary and the gym has a excellent Treadmill! The only small downside is that the AC is kind of loud, but still I would give them a 95% approval. Thank you Staybridge staff for providing me with such a great stay! MoreShow less</t>
+  </si>
+  <si>
+    <t>Today is my last night here and I am so pleased with my stay that I would like to pass along this great experience. I am attending a training from Omnex that was happening at this hotel so staying here was the obvious choice. Anyhow, I was not disappointed at all with the place, the rooms are big, clean, comfortable, have a mini kitchen, large flat screen, and free-fast wireless! In addition, a great breakfast and dinner buffet were included on my stay. I travel at lot for business and leisure and this was the FIRST time that I had no consumption at a hotel, I haven't spent a penny more than what I prepaid for the room. Parking was also complementary and the gym has a excellent Treadmill! The only small downside is that the AC is kind of loud, but still I would give them a 95% approval. Thank you Staybridge staff for providing me with such a great stay! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r175925648-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>175925648</t>
+  </si>
+  <si>
+    <t>09/05/2013</t>
+  </si>
+  <si>
+    <t>BEST hotel EVER!</t>
+  </si>
+  <si>
+    <t>I had to stay here for business and was BEYOND amazed!  The rooms are so comfy, so roomy and don't feel like a hotel at all.  They are equipped with a kitchenette, cookware, serveware and utentsils and a full-sized refrigerator.  The beds are very comfortable and come with plenty of pillows.  Rooms come with a DVD player in the room, so you can bring your own DVDs to watch or rent some from the front desk.  The bathrooms are great!  Big beautiful bathrooms with a nice, large closet, full-sized shower and bathtub.  The best part is they serve the best breakfast every morning and all-you-can-eat dinner.  The breakfast is not cheap continental breakfast either.  Oatmeal, eggs, bacon, sausage, fresh fruit and coffee, tea, milk and plenty of juice choices.  With dinner, FREE wine and beer on tap!  It was so convenient to have that meal option, since I did not know my way around the area.  Book your stay as soon as possible because this hotel is ALWAYS booked.  That's how awesome it is!!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>I had to stay here for business and was BEYOND amazed!  The rooms are so comfy, so roomy and don't feel like a hotel at all.  They are equipped with a kitchenette, cookware, serveware and utentsils and a full-sized refrigerator.  The beds are very comfortable and come with plenty of pillows.  Rooms come with a DVD player in the room, so you can bring your own DVDs to watch or rent some from the front desk.  The bathrooms are great!  Big beautiful bathrooms with a nice, large closet, full-sized shower and bathtub.  The best part is they serve the best breakfast every morning and all-you-can-eat dinner.  The breakfast is not cheap continental breakfast either.  Oatmeal, eggs, bacon, sausage, fresh fruit and coffee, tea, milk and plenty of juice choices.  With dinner, FREE wine and beer on tap!  It was so convenient to have that meal option, since I did not know my way around the area.  Book your stay as soon as possible because this hotel is ALWAYS booked.  That's how awesome it is!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r171781913-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>171781913</t>
+  </si>
+  <si>
+    <t>08/11/2013</t>
+  </si>
+  <si>
+    <t>Comfortable Stay</t>
+  </si>
+  <si>
+    <t>My family and I stayed here for 3 nights in June for a vacation. I am a Priority Club Platinum member.
+Location: The hotel is located in a quiet business park in Lake Forest. It's close to the 241 (tollway) and only a few miles from the I-5. It appears the hotel caters primarily to business guests who have work in the area. There is not much going on in the immediate vicinity as it's mostly office buildings along Bake Parkway. There are some restaurants just north of the 241. As long as you have a car, you can find pretty much anything within a 10 minute drive. 
+Check-In: We arrived around 9pm on a Friday night and it was quiet. Check-in was fast. The front desk staff was pretty helpful and we received some snack bags for the kids.
+Property/Room: The property looks relatively new and in excellent condition. We booked a 1 bedroom suite with 2 queen beds and received the same. The 1 bedroom suite is nice because you get a lot of room to spread out. The full kitchen is useful for preparing food for the kids. 
+Amenities: The hotel offers a free hot breakfast, which has a good variety of your standard breakfast items (meat, eggs, potatoes, waffle-maker, etc.) There is also an outdoor pool, gym, basketball hoop, laundry facilities, and bbq grill if you want to cook your own food.
+Service: Everyone was friendly....My family and I stayed here for 3 nights in June for a vacation. I am a Priority Club Platinum member.Location: The hotel is located in a quiet business park in Lake Forest. It's close to the 241 (tollway) and only a few miles from the I-5. It appears the hotel caters primarily to business guests who have work in the area. There is not much going on in the immediate vicinity as it's mostly office buildings along Bake Parkway. There are some restaurants just north of the 241. As long as you have a car, you can find pretty much anything within a 10 minute drive. Check-In: We arrived around 9pm on a Friday night and it was quiet. Check-in was fast. The front desk staff was pretty helpful and we received some snack bags for the kids.Property/Room: The property looks relatively new and in excellent condition. We booked a 1 bedroom suite with 2 queen beds and received the same. The 1 bedroom suite is nice because you get a lot of room to spread out. The full kitchen is useful for preparing food for the kids. Amenities: The hotel offers a free hot breakfast, which has a good variety of your standard breakfast items (meat, eggs, potatoes, waffle-maker, etc.) There is also an outdoor pool, gym, basketball hoop, laundry facilities, and bbq grill if you want to cook your own food.Service: Everyone was friendly. We did not expect housekeeping services, as this is classified as an extended-stay property with limited service. However, we did get basic service like new towels and trash removal.Overall we enjoyed our stay. It was comfortable for everyone. It is a little off the beaten path for tourists visiting the LA area, but it's nice not having to deal with the crowds.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>My family and I stayed here for 3 nights in June for a vacation. I am a Priority Club Platinum member.
+Location: The hotel is located in a quiet business park in Lake Forest. It's close to the 241 (tollway) and only a few miles from the I-5. It appears the hotel caters primarily to business guests who have work in the area. There is not much going on in the immediate vicinity as it's mostly office buildings along Bake Parkway. There are some restaurants just north of the 241. As long as you have a car, you can find pretty much anything within a 10 minute drive. 
+Check-In: We arrived around 9pm on a Friday night and it was quiet. Check-in was fast. The front desk staff was pretty helpful and we received some snack bags for the kids.
+Property/Room: The property looks relatively new and in excellent condition. We booked a 1 bedroom suite with 2 queen beds and received the same. The 1 bedroom suite is nice because you get a lot of room to spread out. The full kitchen is useful for preparing food for the kids. 
+Amenities: The hotel offers a free hot breakfast, which has a good variety of your standard breakfast items (meat, eggs, potatoes, waffle-maker, etc.) There is also an outdoor pool, gym, basketball hoop, laundry facilities, and bbq grill if you want to cook your own food.
+Service: Everyone was friendly....My family and I stayed here for 3 nights in June for a vacation. I am a Priority Club Platinum member.Location: The hotel is located in a quiet business park in Lake Forest. It's close to the 241 (tollway) and only a few miles from the I-5. It appears the hotel caters primarily to business guests who have work in the area. There is not much going on in the immediate vicinity as it's mostly office buildings along Bake Parkway. There are some restaurants just north of the 241. As long as you have a car, you can find pretty much anything within a 10 minute drive. Check-In: We arrived around 9pm on a Friday night and it was quiet. Check-in was fast. The front desk staff was pretty helpful and we received some snack bags for the kids.Property/Room: The property looks relatively new and in excellent condition. We booked a 1 bedroom suite with 2 queen beds and received the same. The 1 bedroom suite is nice because you get a lot of room to spread out. The full kitchen is useful for preparing food for the kids. Amenities: The hotel offers a free hot breakfast, which has a good variety of your standard breakfast items (meat, eggs, potatoes, waffle-maker, etc.) There is also an outdoor pool, gym, basketball hoop, laundry facilities, and bbq grill if you want to cook your own food.Service: Everyone was friendly. We did not expect housekeeping services, as this is classified as an extended-stay property with limited service. However, we did get basic service like new towels and trash removal.Overall we enjoyed our stay. It was comfortable for everyone. It is a little off the beaten path for tourists visiting the LA area, but it's nice not having to deal with the crowds.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r170956124-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>170956124</t>
+  </si>
+  <si>
+    <t>08/05/2013</t>
+  </si>
+  <si>
+    <t>Excellent customer support</t>
+  </si>
+  <si>
+    <t>I was staying in the stay bridge suites in lake forest CA due to a business trip and received the upmost customer care. I was left carless due to unfortunate circumstances and was instructed by the front desk where the local target store was located. I walked the 1 mile and ran into one of the front desk specialist who happened to be off from work. Claudia was the young lady's name gave me a ride back to the hotel even though she was technically not on the clock.  That there is awesome customer service to the finest. Thank you to Claudia and the staff of Staybridge in lake forest CAMoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>I was staying in the stay bridge suites in lake forest CA due to a business trip and received the upmost customer care. I was left carless due to unfortunate circumstances and was instructed by the front desk where the local target store was located. I walked the 1 mile and ran into one of the front desk specialist who happened to be off from work. Claudia was the young lady's name gave me a ride back to the hotel even though she was technically not on the clock.  That there is awesome customer service to the finest. Thank you to Claudia and the staff of Staybridge in lake forest CAMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r170380501-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>170380501</t>
+  </si>
+  <si>
+    <t>08/01/2013</t>
+  </si>
+  <si>
+    <t>Nice place - but Internet is very bad</t>
+  </si>
+  <si>
+    <t>This is a good clean place to stay. The staff was nice, and the breakfast was OK. The rooms are very comfortable. But they have a major lack of internet bandwidth and it is extremely slow. I discussed with the front desk and they said they knew about the problem and were sorry they couldn't do anything about it. The wireless is actually very strong, but the internet line the hotel has just can't handle the capacity. I would recommend this place, unless you need to use the internet during your stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Staybridge Suites Irvine Spectrum/Lake Forest, responded to this reviewResponded August 16, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 16, 2013</t>
+  </si>
+  <si>
+    <t>This is a good clean place to stay. The staff was nice, and the breakfast was OK. The rooms are very comfortable. But they have a major lack of internet bandwidth and it is extremely slow. I discussed with the front desk and they said they knew about the problem and were sorry they couldn't do anything about it. The wireless is actually very strong, but the internet line the hotel has just can't handle the capacity. I would recommend this place, unless you need to use the internet during your stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r164056966-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>164056966</t>
+  </si>
+  <si>
+    <t>06/15/2013</t>
+  </si>
+  <si>
+    <t>A good place for a longer stay</t>
+  </si>
+  <si>
+    <t>It's perfect for business travelers who need to stay several days. With almost direct access to your room straight from the parking lot, you don't bother other travelers. The main room is the place where all get together for complimentary breakfast and diner. There's an open air pool and gym as well Rooms offer kitchen and two large TV screens. Wifi is complimentary. A place to recommend!MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Staybridge Suites Irvine Spectrum/Lake Forest, responded to this reviewResponded July 2, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 2, 2013</t>
+  </si>
+  <si>
+    <t>It's perfect for business travelers who need to stay several days. With almost direct access to your room straight from the parking lot, you don't bother other travelers. The main room is the place where all get together for complimentary breakfast and diner. There's an open air pool and gym as well Rooms offer kitchen and two large TV screens. Wifi is complimentary. A place to recommend!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r159470647-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>159470647</t>
+  </si>
+  <si>
+    <t>05/02/2013</t>
+  </si>
+  <si>
+    <t>Top Notch!</t>
+  </si>
+  <si>
+    <t>We stayed here for 1 night when we had some work done on our house.  We were extremely satisfied!  We enjoyed the "happy hour" (hot dogs, chili, chips, salsa, drinks, and much more) and the breakfast buffet.  The attention to detail is amazing!  In addition, our suite was great (it was more like an apartment - 1 bedroom with a full kitchen).  If the need arises, I will not hesitate to book a stay here in the future!MoreShow less</t>
+  </si>
+  <si>
+    <t>Gloria W, General Manager at Staybridge Suites Irvine Spectrum/Lake Forest, responded to this reviewResponded May 27, 2013</t>
+  </si>
+  <si>
+    <t>Responded May 27, 2013</t>
+  </si>
+  <si>
+    <t>We stayed here for 1 night when we had some work done on our house.  We were extremely satisfied!  We enjoyed the "happy hour" (hot dogs, chili, chips, salsa, drinks, and much more) and the breakfast buffet.  The attention to detail is amazing!  In addition, our suite was great (it was more like an apartment - 1 bedroom with a full kitchen).  If the need arises, I will not hesitate to book a stay here in the future!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r158704080-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>158704080</t>
+  </si>
+  <si>
+    <t>04/24/2013</t>
+  </si>
+  <si>
+    <t>Above and beyond helpful staff</t>
+  </si>
+  <si>
+    <t>My daughter stayed with her basketball team for 2 nights.  They loved the suites they stayed in and really enjoyed the entire set up of the property!!  They stated it was beautiful and fancy!!When the team got on the road heading back to Utah my daughter realized she left her homework, calculator and text books in a drawer in the room.  We called when she got home and the staff called me back after they had located the lost items.  They were very professional and thorough with the mailing of my daughters items!!  They were also careful to try to locate the least expensive way to ship the items to us and to let me know the amount that was charged to my credit card!  Thank you so very much for going the extra mile and for the remainder of your staff being honest by turning in the items!!We will definately stay there again!!!Brenda JonesMoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>My daughter stayed with her basketball team for 2 nights.  They loved the suites they stayed in and really enjoyed the entire set up of the property!!  They stated it was beautiful and fancy!!When the team got on the road heading back to Utah my daughter realized she left her homework, calculator and text books in a drawer in the room.  We called when she got home and the staff called me back after they had located the lost items.  They were very professional and thorough with the mailing of my daughters items!!  They were also careful to try to locate the least expensive way to ship the items to us and to let me know the amount that was charged to my credit card!  Thank you so very much for going the extra mile and for the remainder of your staff being honest by turning in the items!!We will definately stay there again!!!Brenda JonesMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r158697344-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>158697344</t>
+  </si>
+  <si>
+    <t>Clean hotel and great value for families.</t>
+  </si>
+  <si>
+    <t>I would recommend this hotel to anyone.  Easy choice.   I came here on vacation with my wife and baby and were so happy with the full kitchen that was in our suite.  It is very helpful to have a full size fridge for my son's milk and baby food.  We also were able to cook for lunch and dinner a couple of times too.  The rooms were very clean and modern with a flat screen TV.  There is free breakfast every day of the week and free dinner on the M-Th.  They change the menu daily which is great.The staff were super friendly and very helpful with helping us find things to do around the area and with directions.  They have lots of free amenities like WIFI and laundry machines.  Overall I was really happy with our stay here and so was my wife, who is a very picky customer.MoreShow less</t>
+  </si>
+  <si>
+    <t>I would recommend this hotel to anyone.  Easy choice.   I came here on vacation with my wife and baby and were so happy with the full kitchen that was in our suite.  It is very helpful to have a full size fridge for my son's milk and baby food.  We also were able to cook for lunch and dinner a couple of times too.  The rooms were very clean and modern with a flat screen TV.  There is free breakfast every day of the week and free dinner on the M-Th.  They change the menu daily which is great.The staff were super friendly and very helpful with helping us find things to do around the area and with directions.  They have lots of free amenities like WIFI and laundry machines.  Overall I was really happy with our stay here and so was my wife, who is a very picky customer.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r155524076-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>155524076</t>
+  </si>
+  <si>
+    <t>03/24/2013</t>
+  </si>
+  <si>
+    <t>A great family gathering place for a near-by wedding</t>
+  </si>
+  <si>
+    <t>About 36 family and friends stayed here over a weekend for a wedding at the near-by Rancho Las Lomas.  We had a total of about 22 rooms, some studio, some 1 BR  suites.  Our room, a studio suite was large, clean and comfortable, with a K bed and sleeper sofa/sitting area, as well as a well-equipped kitchenette (everything but a stove).  We arrived early and enjoyed the evening social reception, served M - Th only.  Draft beer, wine, salad bar, chips, cookies, fruit, and varying entrees.  The two we saw were hamburgers and fries one night, and meatball sandwiches and fries the second night.  Breakfast, served every day, was varied and plentiful - eggs, meat, potatoes or biscuits, waffles, muffins, toast, bagels and english muffins, fruit, hot and cold cereal, rice and miso and juice.  Coffee and tea are available 24/7 along with some fresh whole fruit. 
+The hotel has some nice areas for groups to gather, such as the library off the dining area, the sitting area in front of a fireplace, the trellissed courtyard, or at the pool/ hot tub.  We used them all throughout the weekend. The large pool and spa were clean and well-heated and towels were plentiful near-by.  The kids enjoyed them both.
+For weekend guests, be aware that there is no on-site restaurant or bar, nor one next door, across the street, etc., so without a car you would have to walk along a...About 36 family and friends stayed here over a weekend for a wedding at the near-by Rancho Las Lomas.  We had a total of about 22 rooms, some studio, some 1 BR  suites.  Our room, a studio suite was large, clean and comfortable, with a K bed and sleeper sofa/sitting area, as well as a well-equipped kitchenette (everything but a stove).  We arrived early and enjoyed the evening social reception, served M - Th only.  Draft beer, wine, salad bar, chips, cookies, fruit, and varying entrees.  The two we saw were hamburgers and fries one night, and meatball sandwiches and fries the second night.  Breakfast, served every day, was varied and plentiful - eggs, meat, potatoes or biscuits, waffles, muffins, toast, bagels and english muffins, fruit, hot and cold cereal, rice and miso and juice.  Coffee and tea are available 24/7 along with some fresh whole fruit. The hotel has some nice areas for groups to gather, such as the library off the dining area, the sitting area in front of a fireplace, the trellissed courtyard, or at the pool/ hot tub.  We used them all throughout the weekend. The large pool and spa were clean and well-heated and towels were plentiful near-by.  The kids enjoyed them both.For weekend guests, be aware that there is no on-site restaurant or bar, nor one next door, across the street, etc., so without a car you would have to walk along a deserted busness park area about 1/2 mile or more to a large shopping center with plenty of food choices. The only other alternative for lunch or dinner Fri - Sun is pizza delivery or packaged food for sale from the hotel pantry.  In retrospect, I would have purchased some cold cuts or hamburgers/hot dogs for my weekend guests to barbeque in the courtyard area.The hotel staff were very friendly and accomodating to our large group, whether getting and printing directions to the rehearsal dinner and wedding venue or providing a cooler with ice for our family gatherings by the pool or in the courtyard.  They also provided the shuttle service to and from the wedding venue, as part of the hotel room block.  The drivers were courteous and the vans were clean.Thank you staff at the Staybridge Suites, Lake Forest!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>Gloria W, General Manager at Staybridge Suites Irvine Spectrum/Lake Forest, responded to this reviewResponded April 23, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 23, 2013</t>
+  </si>
+  <si>
+    <t>About 36 family and friends stayed here over a weekend for a wedding at the near-by Rancho Las Lomas.  We had a total of about 22 rooms, some studio, some 1 BR  suites.  Our room, a studio suite was large, clean and comfortable, with a K bed and sleeper sofa/sitting area, as well as a well-equipped kitchenette (everything but a stove).  We arrived early and enjoyed the evening social reception, served M - Th only.  Draft beer, wine, salad bar, chips, cookies, fruit, and varying entrees.  The two we saw were hamburgers and fries one night, and meatball sandwiches and fries the second night.  Breakfast, served every day, was varied and plentiful - eggs, meat, potatoes or biscuits, waffles, muffins, toast, bagels and english muffins, fruit, hot and cold cereal, rice and miso and juice.  Coffee and tea are available 24/7 along with some fresh whole fruit. 
+The hotel has some nice areas for groups to gather, such as the library off the dining area, the sitting area in front of a fireplace, the trellissed courtyard, or at the pool/ hot tub.  We used them all throughout the weekend. The large pool and spa were clean and well-heated and towels were plentiful near-by.  The kids enjoyed them both.
+For weekend guests, be aware that there is no on-site restaurant or bar, nor one next door, across the street, etc., so without a car you would have to walk along a...About 36 family and friends stayed here over a weekend for a wedding at the near-by Rancho Las Lomas.  We had a total of about 22 rooms, some studio, some 1 BR  suites.  Our room, a studio suite was large, clean and comfortable, with a K bed and sleeper sofa/sitting area, as well as a well-equipped kitchenette (everything but a stove).  We arrived early and enjoyed the evening social reception, served M - Th only.  Draft beer, wine, salad bar, chips, cookies, fruit, and varying entrees.  The two we saw were hamburgers and fries one night, and meatball sandwiches and fries the second night.  Breakfast, served every day, was varied and plentiful - eggs, meat, potatoes or biscuits, waffles, muffins, toast, bagels and english muffins, fruit, hot and cold cereal, rice and miso and juice.  Coffee and tea are available 24/7 along with some fresh whole fruit. The hotel has some nice areas for groups to gather, such as the library off the dining area, the sitting area in front of a fireplace, the trellissed courtyard, or at the pool/ hot tub.  We used them all throughout the weekend. The large pool and spa were clean and well-heated and towels were plentiful near-by.  The kids enjoyed them both.For weekend guests, be aware that there is no on-site restaurant or bar, nor one next door, across the street, etc., so without a car you would have to walk along a deserted busness park area about 1/2 mile or more to a large shopping center with plenty of food choices. The only other alternative for lunch or dinner Fri - Sun is pizza delivery or packaged food for sale from the hotel pantry.  In retrospect, I would have purchased some cold cuts or hamburgers/hot dogs for my weekend guests to barbeque in the courtyard area.The hotel staff were very friendly and accomodating to our large group, whether getting and printing directions to the rehearsal dinner and wedding venue or providing a cooler with ice for our family gatherings by the pool or in the courtyard.  They also provided the shuttle service to and from the wedding venue, as part of the hotel room block.  The drivers were courteous and the vans were clean.Thank you staff at the Staybridge Suites, Lake Forest!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r154595270-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>154595270</t>
+  </si>
+  <si>
+    <t>03/14/2013</t>
+  </si>
+  <si>
+    <t>Arguably the best hotel in the area</t>
+  </si>
+  <si>
+    <t>Is it the best hotel? No. But the best hotel in the area?  Likely.  I do my research.  Parking is free, breakfast is free, wifi free, rooms are unusually large, and the kitchen, although never got used; is convenient.  We booked a 2-bedroom with another couple, and my husband and I hardly realized we have friends in the hotel room.  The common area is fairly spacious.  We have several friends who stayed over in the various parts of the hotel, so we got a good read of the entire grounds.  I'd ask for the higher floor.    My husband used the gym, and the pool area is so-so.  I'm not too crazy about the hotels with superlong hallways, but the nicely laid-out exit/entry points help. Tip: to avoid the toll roads, exit on the 5 freeway, and take Bake Parkway East all the way.  It's only a few miles from there.    Staff is friendly.  Do not expect bell hops and such.  It's a Staybridge, after all.  It's a no-fuss, no muss clean and roomy hotel for the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>Is it the best hotel? No. But the best hotel in the area?  Likely.  I do my research.  Parking is free, breakfast is free, wifi free, rooms are unusually large, and the kitchen, although never got used; is convenient.  We booked a 2-bedroom with another couple, and my husband and I hardly realized we have friends in the hotel room.  The common area is fairly spacious.  We have several friends who stayed over in the various parts of the hotel, so we got a good read of the entire grounds.  I'd ask for the higher floor.    My husband used the gym, and the pool area is so-so.  I'm not too crazy about the hotels with superlong hallways, but the nicely laid-out exit/entry points help. Tip: to avoid the toll roads, exit on the 5 freeway, and take Bake Parkway East all the way.  It's only a few miles from there.    Staff is friendly.  Do not expect bell hops and such.  It's a Staybridge, after all.  It's a no-fuss, no muss clean and roomy hotel for the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r151851222-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>151851222</t>
+  </si>
+  <si>
+    <t>02/10/2013</t>
+  </si>
+  <si>
+    <t>a warm place to call "Home" while i'm on my buissness trips</t>
+  </si>
+  <si>
+    <t>a very nice and warm hospitality from the hotel personal, i'm here for the third time and i'm very happy to come back again,the only thing that bothers me is the pillows and they are considered to be good ones, might be my issue with many half sized pillows around my head,you can connect your Laptop to the TV easily, the room is quite big and comfortable.the stuff is remarkable. and the breakfast is pretty rich.Enjoy.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>a very nice and warm hospitality from the hotel personal, i'm here for the third time and i'm very happy to come back again,the only thing that bothers me is the pillows and they are considered to be good ones, might be my issue with many half sized pillows around my head,you can connect your Laptop to the TV easily, the room is quite big and comfortable.the stuff is remarkable. and the breakfast is pretty rich.Enjoy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r147489444-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>147489444</t>
+  </si>
+  <si>
+    <t>12/15/2012</t>
+  </si>
+  <si>
+    <t>Best Hotel in the Area</t>
+  </si>
+  <si>
+    <t>I have worked with the Staybridge Suites Irvine/Lake Forest for a couple of years now. Friendly staff, great rooms, meeting rooms available. Love the BBQ area &amp; pool.When working on Group travel and meetings the Managers Gloria &amp; Cleo are the most helpful I have found so far. Always ready to assist when needed and eager to make our business trip painless. I strongly recommend this Hotel if you are staying in this area. HOT &amp; FREE breakfast buffet is a plus (you do not get that from other local hotels in Lake Forest). They also have a mini van that can take you and pick you up from a couple of miles around the hotel, so in case you have no rental car or are sharing one... they can take you to local restaurants, grocery store, bank, movie theaters, etc.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>I have worked with the Staybridge Suites Irvine/Lake Forest for a couple of years now. Friendly staff, great rooms, meeting rooms available. Love the BBQ area &amp; pool.When working on Group travel and meetings the Managers Gloria &amp; Cleo are the most helpful I have found so far. Always ready to assist when needed and eager to make our business trip painless. I strongly recommend this Hotel if you are staying in this area. HOT &amp; FREE breakfast buffet is a plus (you do not get that from other local hotels in Lake Forest). They also have a mini van that can take you and pick you up from a couple of miles around the hotel, so in case you have no rental car or are sharing one... they can take you to local restaurants, grocery store, bank, movie theaters, etc.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r145406333-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>145406333</t>
+  </si>
+  <si>
+    <t>11/14/2012</t>
+  </si>
+  <si>
+    <t>Staybridge Fan</t>
+  </si>
+  <si>
+    <t>Staff was super friendly and on top of everything! Breakfast &amp; week night meals we're fresh and accomidating. Hotel, its grounds &amp; rooms we're clean and well equipped. The only downfall was the bed we had (room #234) was very hard; painful for those above 40...haha. We had to place the comforter under the sheets/mattress cover for extra cushion and it actually worked great for nights 3 &amp; 4.Last Staybridge we stayed at in Vancouver, WA., the beds we're worthy of purchase in our own home. I truly hope they view this as a possible improvement and not considered "just another complainer". There was absolutely nothing else I would improve...meals we're far better here than the Vancouver stay if that helps with healing :)MoreShow less</t>
+  </si>
+  <si>
+    <t>Staff was super friendly and on top of everything! Breakfast &amp; week night meals we're fresh and accomidating. Hotel, its grounds &amp; rooms we're clean and well equipped. The only downfall was the bed we had (room #234) was very hard; painful for those above 40...haha. We had to place the comforter under the sheets/mattress cover for extra cushion and it actually worked great for nights 3 &amp; 4.Last Staybridge we stayed at in Vancouver, WA., the beds we're worthy of purchase in our own home. I truly hope they view this as a possible improvement and not considered "just another complainer". There was absolutely nothing else I would improve...meals we're far better here than the Vancouver stay if that helps with healing :)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r144201521-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>144201521</t>
+  </si>
+  <si>
+    <t>10/31/2012</t>
+  </si>
+  <si>
+    <t>Very accomodating staff. Excellent hotel equipments. Would stay here again.</t>
+  </si>
+  <si>
+    <t>The staffe were so accomodating especially their manager cleo, hotel is very well equiped. Feels like home. They also have very good breakast with wide variety, plus wolfgang pucks coffee are complimentary in the breakfast area and on your room.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>The staffe were so accomodating especially their manager cleo, hotel is very well equiped. Feels like home. They also have very good breakast with wide variety, plus wolfgang pucks coffee are complimentary in the breakfast area and on your room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r133047267-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>133047267</t>
+  </si>
+  <si>
+    <t>06/29/2012</t>
+  </si>
+  <si>
+    <t>Staybridge Suites_Lake Forest...a home away from home</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r131055365-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>131055365</t>
+  </si>
+  <si>
+    <t>05/31/2012</t>
+  </si>
+  <si>
+    <t>We loved it!</t>
+  </si>
+  <si>
+    <t>My family just finished a two night stay in this hotel and we had an outstanding experience.  The staff was especially friendly and helpful, going out of their way to make sure we were treated well.  I was pleasantly surprised by the excellent service at all levels, from the front desk to housekeeping, but Mimi was especially helpful to us.  We enjoyed the breakfast and the evening reception very much. We liked the food and were impressed with the variety of choices we were offered.The room accommodations were perfect for our family—we especially appreciated being able to have a separate bedroom so that the kids could go to sleep while we stayed up and watched a movie (NOTE: We had the one bedroom suite, not just the basic studio suite. The basic suite does not have a separate room.)  The DVD player was a nice touch since our daughter could watch her usual videos.  Having the kitchen area made preparing a picnic lunch easy and we found all the items we needed.  My wife appreciated being able to wash some of the kids clothes before we left so that she didn’t have as much dirty laundry to take home.  Of course, my daughter loved the pool area but we thought the basketball court and the landscaping in the courtyard all made for a beautiful area to relax.  We would highly recommend it to anyone!MoreShow less</t>
+  </si>
+  <si>
+    <t>My family just finished a two night stay in this hotel and we had an outstanding experience.  The staff was especially friendly and helpful, going out of their way to make sure we were treated well.  I was pleasantly surprised by the excellent service at all levels, from the front desk to housekeeping, but Mimi was especially helpful to us.  We enjoyed the breakfast and the evening reception very much. We liked the food and were impressed with the variety of choices we were offered.The room accommodations were perfect for our family—we especially appreciated being able to have a separate bedroom so that the kids could go to sleep while we stayed up and watched a movie (NOTE: We had the one bedroom suite, not just the basic studio suite. The basic suite does not have a separate room.)  The DVD player was a nice touch since our daughter could watch her usual videos.  Having the kitchen area made preparing a picnic lunch easy and we found all the items we needed.  My wife appreciated being able to wash some of the kids clothes before we left so that she didn’t have as much dirty laundry to take home.  Of course, my daughter loved the pool area but we thought the basketball court and the landscaping in the courtyard all made for a beautiful area to relax.  We would highly recommend it to anyone!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r130037897-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>130037897</t>
+  </si>
+  <si>
+    <t>05/16/2012</t>
+  </si>
+  <si>
+    <t>Almost Perfedct Stay</t>
+  </si>
+  <si>
+    <t>I took myself and two young daughters to stay Mother's Day Weekend. This is not my first time staying at a Staybridge Suites. The room was perfect. Everything neat, clean and a great shower! Staff very polite and attentive. The breakfast was excellent. The pool and pond was beautiful. Extremely quiet and clean. I have definaetly found my hotel when I stay in the Laguna area...The owner of this hotel should be extremely proud of their staff..this is an excellent find!MoreShow less</t>
+  </si>
+  <si>
+    <t>I took myself and two young daughters to stay Mother's Day Weekend. This is not my first time staying at a Staybridge Suites. The room was perfect. Everything neat, clean and a great shower! Staff very polite and attentive. The breakfast was excellent. The pool and pond was beautiful. Extremely quiet and clean. I have definaetly found my hotel when I stay in the Laguna area...The owner of this hotel should be extremely proud of their staff..this is an excellent find!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r121505301-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>121505301</t>
+  </si>
+  <si>
+    <t>12/07/2011</t>
+  </si>
+  <si>
+    <t>Great Value, lots of extras</t>
+  </si>
+  <si>
+    <t>I stayed here for 2 nights and enjoyed my stay.  New hotel, clean, spacious rooms (stayed in a 1 bedroom suite), wine and munchies each night (taco bar one night) at no cost, friendly staff.    I would definately stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2011</t>
+  </si>
+  <si>
+    <t>I stayed here for 2 nights and enjoyed my stay.  New hotel, clean, spacious rooms (stayed in a 1 bedroom suite), wine and munchies each night (taco bar one night) at no cost, friendly staff.    I would definately stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r120594722-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>120594722</t>
+  </si>
+  <si>
+    <t>11/14/2011</t>
+  </si>
+  <si>
+    <t>What a great staff!!!!</t>
+  </si>
+  <si>
+    <t>This Staybridge is in better shape than the one we had been in for two nights in Anaheim.  The basketball court was good and the pool was nice.  But as always, the Staybridge employees are what make these hotels a step above.  In particular, Erika H. at the front desk was super.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>This Staybridge is in better shape than the one we had been in for two nights in Anaheim.  The basketball court was good and the pool was nice.  But as always, the Staybridge employees are what make these hotels a step above.  In particular, Erika H. at the front desk was super.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r118778443-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>118778443</t>
+  </si>
+  <si>
+    <t>09/30/2011</t>
+  </si>
+  <si>
+    <t>Great Stay at a Great place!!!</t>
+  </si>
+  <si>
+    <t>I had to stay somewhere while moving from OC, California to Vegas, and while my house was closing escrow. I decided on Staybridge, it was close by and they had a pet friendly room! They have complimentary breakfast: it is pretty stocked up, and really good. At the wee hours, they will have a breakfast to go bag ready for guests to grab and go to work. They also offered dinner!!! yes, dinner was included every night of my stay, the best part, drinks like beer and wine was also included. My room was large, nice, quiet and clean. It had a fridge and kitchen area. The service: the friendliest staff I have ever seen in a hotel. From Chloe at the front desk to the help at the breakfast bar, to the cleaning staff, I give them an A. I was pleasantly surprise on my first day, when I forgot to buy some water, I called the front desk and ask how much for the bottle on the table, in my room, and he responded it is free, courtesy of the hotel!!! it is usually $2.50 at most hotel, if not more. In case you are hungry at night, or did not get a chance to eat, or you checked in later than dinner time, there is a vending machine at the front desk with some snacks. There was no more room in the breakfast area one morning, I...I had to stay somewhere while moving from OC, California to Vegas, and while my house was closing escrow. I decided on Staybridge, it was close by and they had a pet friendly room! They have complimentary breakfast: it is pretty stocked up, and really good. At the wee hours, they will have a breakfast to go bag ready for guests to grab and go to work. They also offered dinner!!! yes, dinner was included every night of my stay, the best part, drinks like beer and wine was also included. My room was large, nice, quiet and clean. It had a fridge and kitchen area. The service: the friendliest staff I have ever seen in a hotel. From Chloe at the front desk to the help at the breakfast bar, to the cleaning staff, I give them an A. I was pleasantly surprise on my first day, when I forgot to buy some water, I called the front desk and ask how much for the bottle on the table, in my room, and he responded it is free, courtesy of the hotel!!! it is usually $2.50 at most hotel, if not more. In case you are hungry at night, or did not get a chance to eat, or you checked in later than dinner time, there is a vending machine at the front desk with some snacks. There was no more room in the breakfast area one morning, I went outside and sat by the fountain. It was actually pretty relaxing. It was overlooking the barbecue area and the pool. So, I would definitely recommend this place to anyone travelling the area of the Spectrum, Mission Viejo and Foothill Ranch. a little out of the way from the 5Fwy, but close to the 241/261 toll road. A little pricey but well worth it, compare to what you get for your money, in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>I had to stay somewhere while moving from OC, California to Vegas, and while my house was closing escrow. I decided on Staybridge, it was close by and they had a pet friendly room! They have complimentary breakfast: it is pretty stocked up, and really good. At the wee hours, they will have a breakfast to go bag ready for guests to grab and go to work. They also offered dinner!!! yes, dinner was included every night of my stay, the best part, drinks like beer and wine was also included. My room was large, nice, quiet and clean. It had a fridge and kitchen area. The service: the friendliest staff I have ever seen in a hotel. From Chloe at the front desk to the help at the breakfast bar, to the cleaning staff, I give them an A. I was pleasantly surprise on my first day, when I forgot to buy some water, I called the front desk and ask how much for the bottle on the table, in my room, and he responded it is free, courtesy of the hotel!!! it is usually $2.50 at most hotel, if not more. In case you are hungry at night, or did not get a chance to eat, or you checked in later than dinner time, there is a vending machine at the front desk with some snacks. There was no more room in the breakfast area one morning, I...I had to stay somewhere while moving from OC, California to Vegas, and while my house was closing escrow. I decided on Staybridge, it was close by and they had a pet friendly room! They have complimentary breakfast: it is pretty stocked up, and really good. At the wee hours, they will have a breakfast to go bag ready for guests to grab and go to work. They also offered dinner!!! yes, dinner was included every night of my stay, the best part, drinks like beer and wine was also included. My room was large, nice, quiet and clean. It had a fridge and kitchen area. The service: the friendliest staff I have ever seen in a hotel. From Chloe at the front desk to the help at the breakfast bar, to the cleaning staff, I give them an A. I was pleasantly surprise on my first day, when I forgot to buy some water, I called the front desk and ask how much for the bottle on the table, in my room, and he responded it is free, courtesy of the hotel!!! it is usually $2.50 at most hotel, if not more. In case you are hungry at night, or did not get a chance to eat, or you checked in later than dinner time, there is a vending machine at the front desk with some snacks. There was no more room in the breakfast area one morning, I went outside and sat by the fountain. It was actually pretty relaxing. It was overlooking the barbecue area and the pool. So, I would definitely recommend this place to anyone travelling the area of the Spectrum, Mission Viejo and Foothill Ranch. a little out of the way from the 5Fwy, but close to the 241/261 toll road. A little pricey but well worth it, compare to what you get for your money, in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r118082492-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>118082492</t>
+  </si>
+  <si>
+    <t>09/13/2011</t>
+  </si>
+  <si>
+    <t>Great hotel but my room smells like carpet shampoo</t>
+  </si>
+  <si>
+    <t>I like everything about this hotel but the smell of carpet shampoo in my room was very strong and nausiating. I opened the windows to let some fresh air in. The location is great and staff was friendly. I will probably stay here again but if the room smells like carpet shampoo I will go somewhere else next time.I didn't ask for another room assuming that all rooms where recently cleaned and will smell the same.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2011</t>
+  </si>
+  <si>
+    <t>I like everything about this hotel but the smell of carpet shampoo in my room was very strong and nausiating. I opened the windows to let some fresh air in. The location is great and staff was friendly. I will probably stay here again but if the room smells like carpet shampoo I will go somewhere else next time.I didn't ask for another room assuming that all rooms where recently cleaned and will smell the same.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r116324233-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>116324233</t>
+  </si>
+  <si>
+    <t>08/05/2011</t>
+  </si>
+  <si>
+    <t>Room in the room!</t>
+  </si>
+  <si>
+    <t>We stayed in a 1 bedroom king suite.  It had a roomy full kitchen, a roomy full living room with tv, a roomy full bedroom with another tv and king bed that was so great to sleep on, a roomy large bathroom and closet.  It had 2 desks with free wifi.  We were able to entertain and cook in our room.  But we ate breakfast each morning at the complementary buffet the hotel provided which served a wonderful selection of fine breakfast foods.  If you couldn't stay for breakfast they even provided a bagged breakfast.  The hotel was clean and the staff were great except the breakfast staff seemed bothered or put out.  There are no freeways right by the hotel so the noise is down.  The pool looked nice and it had BBQ's to use as well as basketball hoops, you could get a ball from the hotel.  It offered a nice workout room along with washer/dryer use.  Nice roomy stay for the money but note we got a deal with an early advanced purchase.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>We stayed in a 1 bedroom king suite.  It had a roomy full kitchen, a roomy full living room with tv, a roomy full bedroom with another tv and king bed that was so great to sleep on, a roomy large bathroom and closet.  It had 2 desks with free wifi.  We were able to entertain and cook in our room.  But we ate breakfast each morning at the complementary buffet the hotel provided which served a wonderful selection of fine breakfast foods.  If you couldn't stay for breakfast they even provided a bagged breakfast.  The hotel was clean and the staff were great except the breakfast staff seemed bothered or put out.  There are no freeways right by the hotel so the noise is down.  The pool looked nice and it had BBQ's to use as well as basketball hoops, you could get a ball from the hotel.  It offered a nice workout room along with washer/dryer use.  Nice roomy stay for the money but note we got a deal with an early advanced purchase.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r114578028-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>114578028</t>
+  </si>
+  <si>
+    <t>06/20/2011</t>
+  </si>
+  <si>
+    <t>Friendly Service, Clean and Well Maintained Hotel</t>
+  </si>
+  <si>
+    <t>Stayed at the hotel checking in Friday, checked out Sunday for a friends wedding that was held in the area. The hotel was easy to find, only a couple of turns after exiting I-405 (although it's 6-ish miles off of the interstate). Many, many restuarant and shopping options within 1 mile of the hotel. Entire area is newer and well maintained.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>Stayed at the hotel checking in Friday, checked out Sunday for a friends wedding that was held in the area. The hotel was easy to find, only a couple of turns after exiting I-405 (although it's 6-ish miles off of the interstate). Many, many restuarant and shopping options within 1 mile of the hotel. Entire area is newer and well maintained.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r108236389-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>108236389</t>
+  </si>
+  <si>
+    <t>05/14/2011</t>
+  </si>
+  <si>
+    <t>Staybridge Suites - best kept secret. Loved this hotel.</t>
+  </si>
+  <si>
+    <t>Staybridge Suites hotels - our #1 choice!!! We have stayed in Lincolnshire, IL in the past  and recently in Fairfield, CA and this location in Lake Forest during our 12-day California journey.  Every time it's the same great experience in Staybridge hotel. We know exactly what to expect from Staybridge Suites. They are the best value for your money! Other hotels charge extra for parking, so it was very important to us having a free parking for the rental car.
+We enjoy having a full kitchen in our room (including a dishwasher). This hotel's location was perfect for us (we wanted to be close to both LA and San Diego). Parking is free, breakfast is included and 4 times during the week (except weekends), they offer a free dinner and beer. Rooms are spacious and clean. This hotel is in a very nice area of Lake Forest. Our flight was leaving LA late in the evening, and the hotel mgr was so nice to give us a late check out. Thank you Rachael! 
+Check in was easy, front desk staff very friendly. Erika was so nice, she even phoned our room to make sure everything was ok. It's the little things that make a difference!  
+We recommend this hotel and would definitely return. 
+We fell in love with California. This trip was to celebrate our 10th wedding anniversary. It began in San Francisco/Napa Valley and after an amazing drive on...Staybridge Suites hotels - our #1 choice!!! We have stayed in Lincolnshire, IL in the past  and recently in Fairfield, CA and this location in Lake Forest during our 12-day California journey.  Every time it's the same great experience in Staybridge hotel. We know exactly what to expect from Staybridge Suites. They are the best value for your money! Other hotels charge extra for parking, so it was very important to us having a free parking for the rental car.We enjoy having a full kitchen in our room (including a dishwasher). This hotel's location was perfect for us (we wanted to be close to both LA and San Diego). Parking is free, breakfast is included and 4 times during the week (except weekends), they offer a free dinner and beer. Rooms are spacious and clean. This hotel is in a very nice area of Lake Forest. Our flight was leaving LA late in the evening, and the hotel mgr was so nice to give us a late check out. Thank you Rachael! Check in was easy, front desk staff very friendly. Erika was so nice, she even phoned our room to make sure everything was ok. It's the little things that make a difference!  We recommend this hotel and would definitely return. We fell in love with California. This trip was to celebrate our 10th wedding anniversary. It began in San Francisco/Napa Valley and after an amazing drive on Highway 1 along the coast, we got to Lake Forest which was a perfect location to visit LA and to San Diego.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2011</t>
+  </si>
+  <si>
+    <t>Staybridge Suites hotels - our #1 choice!!! We have stayed in Lincolnshire, IL in the past  and recently in Fairfield, CA and this location in Lake Forest during our 12-day California journey.  Every time it's the same great experience in Staybridge hotel. We know exactly what to expect from Staybridge Suites. They are the best value for your money! Other hotels charge extra for parking, so it was very important to us having a free parking for the rental car.
+We enjoy having a full kitchen in our room (including a dishwasher). This hotel's location was perfect for us (we wanted to be close to both LA and San Diego). Parking is free, breakfast is included and 4 times during the week (except weekends), they offer a free dinner and beer. Rooms are spacious and clean. This hotel is in a very nice area of Lake Forest. Our flight was leaving LA late in the evening, and the hotel mgr was so nice to give us a late check out. Thank you Rachael! 
+Check in was easy, front desk staff very friendly. Erika was so nice, she even phoned our room to make sure everything was ok. It's the little things that make a difference!  
+We recommend this hotel and would definitely return. 
+We fell in love with California. This trip was to celebrate our 10th wedding anniversary. It began in San Francisco/Napa Valley and after an amazing drive on...Staybridge Suites hotels - our #1 choice!!! We have stayed in Lincolnshire, IL in the past  and recently in Fairfield, CA and this location in Lake Forest during our 12-day California journey.  Every time it's the same great experience in Staybridge hotel. We know exactly what to expect from Staybridge Suites. They are the best value for your money! Other hotels charge extra for parking, so it was very important to us having a free parking for the rental car.We enjoy having a full kitchen in our room (including a dishwasher). This hotel's location was perfect for us (we wanted to be close to both LA and San Diego). Parking is free, breakfast is included and 4 times during the week (except weekends), they offer a free dinner and beer. Rooms are spacious and clean. This hotel is in a very nice area of Lake Forest. Our flight was leaving LA late in the evening, and the hotel mgr was so nice to give us a late check out. Thank you Rachael! Check in was easy, front desk staff very friendly. Erika was so nice, she even phoned our room to make sure everything was ok. It's the little things that make a difference!  We recommend this hotel and would definitely return. We fell in love with California. This trip was to celebrate our 10th wedding anniversary. It began in San Francisco/Napa Valley and after an amazing drive on Highway 1 along the coast, we got to Lake Forest which was a perfect location to visit LA and to San Diego.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r108030577-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>108030577</t>
+  </si>
+  <si>
+    <t>05/12/2011</t>
+  </si>
+  <si>
+    <t>Incredibly COZY!</t>
+  </si>
+  <si>
+    <t>Excellent, plush, quiet, cozy, trendy... with the most fabulous and soft KING sized beds. Reception four nights per week and a hot/cold complimentary breakfast buffet seven mornings per week. Pool, jacuzzi, basketball court, free washers/dryers... terrific kitchenette with HUGE bathrooms, convenient parking. No dog potty area, but plenty of nice areas with grass nearby to walk your little ones. Very polite and efficient front office staff, sales mgr very accommodating as well. Stayed 3 months at this hotel and highly recommend for your stay in this area... not cheap, but so worth it.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2010</t>
+  </si>
+  <si>
+    <t>Excellent, plush, quiet, cozy, trendy... with the most fabulous and soft KING sized beds. Reception four nights per week and a hot/cold complimentary breakfast buffet seven mornings per week. Pool, jacuzzi, basketball court, free washers/dryers... terrific kitchenette with HUGE bathrooms, convenient parking. No dog potty area, but plenty of nice areas with grass nearby to walk your little ones. Very polite and efficient front office staff, sales mgr very accommodating as well. Stayed 3 months at this hotel and highly recommend for your stay in this area... not cheap, but so worth it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r103099031-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>103099031</t>
+  </si>
+  <si>
+    <t>04/06/2011</t>
+  </si>
+  <si>
+    <t>Just Superb</t>
+  </si>
+  <si>
+    <t>Why do I like this Staybridge?  1) It's quiet - I'm sensitive to noise and always get a good night's sleep.  The HVAC unit, often problematic for me in hotels, is ideal - it can be set to have the fan on always, while at the same time the heat or AC still work.   2) Nice room!  Kitchenette with refrigerator, microwave, dishwasher, etc.  Comfy bed.  3) Nice location - in a quiet backwater but still close to the action.  4)  Good breakfast - several hot items plus cereals, waffles, etc.  5) They even serve complimentary dinner from 5:30 to 7:30 pm Mon-Fri.  Sure, this isn't gourmet fare, but it's still nice if you just don't want to bother to go out or don't have time.  Complimentary beer and wine with dinner, too.  6) Good rates for the area, especially if you get a corporate rate.  7) Free wireless internet.If I'm in the Lake Forest area, I don't even consider anywhere else.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2011</t>
+  </si>
+  <si>
+    <t>Why do I like this Staybridge?  1) It's quiet - I'm sensitive to noise and always get a good night's sleep.  The HVAC unit, often problematic for me in hotels, is ideal - it can be set to have the fan on always, while at the same time the heat or AC still work.   2) Nice room!  Kitchenette with refrigerator, microwave, dishwasher, etc.  Comfy bed.  3) Nice location - in a quiet backwater but still close to the action.  4)  Good breakfast - several hot items plus cereals, waffles, etc.  5) They even serve complimentary dinner from 5:30 to 7:30 pm Mon-Fri.  Sure, this isn't gourmet fare, but it's still nice if you just don't want to bother to go out or don't have time.  Complimentary beer and wine with dinner, too.  6) Good rates for the area, especially if you get a corporate rate.  7) Free wireless internet.If I'm in the Lake Forest area, I don't even consider anywhere else.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r80584132-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>80584132</t>
+  </si>
+  <si>
+    <t>09/22/2010</t>
+  </si>
+  <si>
+    <t>Lovely Stay, Great Value</t>
+  </si>
+  <si>
+    <t>I booked this hotel because the location was fairly close to the Verizon Amphitheatre.  The room was lovely.  It was clean and comfortable.  The room was fully stocked with all the amenities needed for an extended stay.  It even had a dishwasher!  Guest laundry facilities were complimentary (never heard of).   In addition, this hotel is in a residential location off the main road, so it was very quiet.  The front desk staff was very helpful about informing me of the local attractions and providing me with a map as well.  The price was better than any decent hotel I looked into in Irvine area.  Parking was plentiful and free (a plus).  The free hot breakfast was great with plenty to chose from.  Will definitely stay again for any event in the Irvine area!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2010</t>
+  </si>
+  <si>
+    <t>I booked this hotel because the location was fairly close to the Verizon Amphitheatre.  The room was lovely.  It was clean and comfortable.  The room was fully stocked with all the amenities needed for an extended stay.  It even had a dishwasher!  Guest laundry facilities were complimentary (never heard of).   In addition, this hotel is in a residential location off the main road, so it was very quiet.  The front desk staff was very helpful about informing me of the local attractions and providing me with a map as well.  The price was better than any decent hotel I looked into in Irvine area.  Parking was plentiful and free (a plus).  The free hot breakfast was great with plenty to chose from.  Will definitely stay again for any event in the Irvine area!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r76729772-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>76729772</t>
+  </si>
+  <si>
+    <t>08/24/2010</t>
+  </si>
+  <si>
+    <t>5 Star Service!!!!!!!!</t>
+  </si>
+  <si>
+    <t>My family stayed at this hotel with my 10 year old daughter's soccer team for the West Coast soccer tournament. Our room had a 2 burner range, a mircrowave, and a full size refrigerator w/ ice maker. The price of the room included breakfast which had a nice selection of fruit, cereals, and pastries as well as hot items such as, scrambled eggs, bacon, and waffles.     Adjacent to the lobby was a patio with BBQ grills, pool, several tables and chairs, and a basketball court! Our team had an impromptu BBQ and the staff was so unbelievably accommodating. Especially Cassie, one of the managers. She went above and beyond to make sure our needs were met. Her service rivals that of any 5 star hotel!  Thanks Cassie!!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2010</t>
+  </si>
+  <si>
+    <t>My family stayed at this hotel with my 10 year old daughter's soccer team for the West Coast soccer tournament. Our room had a 2 burner range, a mircrowave, and a full size refrigerator w/ ice maker. The price of the room included breakfast which had a nice selection of fruit, cereals, and pastries as well as hot items such as, scrambled eggs, bacon, and waffles.     Adjacent to the lobby was a patio with BBQ grills, pool, several tables and chairs, and a basketball court! Our team had an impromptu BBQ and the staff was so unbelievably accommodating. Especially Cassie, one of the managers. She went above and beyond to make sure our needs were met. Her service rivals that of any 5 star hotel!  Thanks Cassie!!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r72206178-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>72206178</t>
+  </si>
+  <si>
+    <t>07/24/2010</t>
+  </si>
+  <si>
+    <t>The Next Best Thing to Living Here!</t>
+  </si>
+  <si>
+    <t>The high cost of land makes extended stay hotels hard to come by in south Orange County as there is the expectation of free parking.  This impeccably maintained, well-managed property, nestled in the county’s most inland reaches, was a great find.  
+We are in the fifth week of our stay in a well-appointed, one-bedroom suite.  The room is equipped with a granite full kitchen comfy bedroom and sleeper-sofa-equipped living room.  Housekeeping is thorough and consistent.  
+The best aspect of this hotel is the staff.  The front desk folks dutifully attended to every request with the utmost professionalism.  And, believe me; with being in the middle of a relocation with a pregnant wife we had many, many requests.
+Onsite amenities include a business center, barbeque area, a small cardio fitness center and pool.  The complimentary breakfast bar hits and misses with regard to food quality.  Some morning the hotel offers hearty country breakfast fare: eggs, sausage, biscuits and gravy.  Other mornings; corn beef hash.  Who serves corn beef hash other than third world prisons?  Even the military hasn’t served this garbage in 20 years!  Free or not, this is unacceptable as the only meat option!
+Another small complaint is the old fashion TVs.  There is something incongruous about having a new property with tube TVs.  I didn’t even know they still made these things!
+Restaurants, retail, a movie theatre and a 24 Hour Fitness Sport exist within walking distance in nearby...The high cost of land makes extended stay hotels hard to come by in south Orange County as there is the expectation of free parking.  This impeccably maintained, well-managed property, nestled in the county’s most inland reaches, was a great find.  We are in the fifth week of our stay in a well-appointed, one-bedroom suite.  The room is equipped with a granite full kitchen comfy bedroom and sleeper-sofa-equipped living room.  Housekeeping is thorough and consistent.  The best aspect of this hotel is the staff.  The front desk folks dutifully attended to every request with the utmost professionalism.  And, believe me; with being in the middle of a relocation with a pregnant wife we had many, many requests.Onsite amenities include a business center, barbeque area, a small cardio fitness center and pool.  The complimentary breakfast bar hits and misses with regard to food quality.  Some morning the hotel offers hearty country breakfast fare: eggs, sausage, biscuits and gravy.  Other mornings; corn beef hash.  Who serves corn beef hash other than third world prisons?  Even the military hasn’t served this garbage in 20 years!  Free or not, this is unacceptable as the only meat option!Another small complaint is the old fashion TVs.  There is something incongruous about having a new property with tube TVs.  I didn’t even know they still made these things!Restaurants, retail, a movie theatre and a 24 Hour Fitness Sport exist within walking distance in nearby Foothill Ranch.  This area has been hit hard by the economic downturn as evidence by the rundown condition of the movie theatre and the almost completely abandoned auto mall.  The 24 Hour Fitness is the most rundown and dated one I have ever seen.In the end analysis, I can’t say enough good things about the management staff here at the hotel.  I don’t expect Cleo, the Operations Manager or the General Manager to be here very long.  The company will promote them or someone else will lure them away with a better benefit package; they are that good!MoreShow less</t>
+  </si>
+  <si>
+    <t>The high cost of land makes extended stay hotels hard to come by in south Orange County as there is the expectation of free parking.  This impeccably maintained, well-managed property, nestled in the county’s most inland reaches, was a great find.  
+We are in the fifth week of our stay in a well-appointed, one-bedroom suite.  The room is equipped with a granite full kitchen comfy bedroom and sleeper-sofa-equipped living room.  Housekeeping is thorough and consistent.  
+The best aspect of this hotel is the staff.  The front desk folks dutifully attended to every request with the utmost professionalism.  And, believe me; with being in the middle of a relocation with a pregnant wife we had many, many requests.
+Onsite amenities include a business center, barbeque area, a small cardio fitness center and pool.  The complimentary breakfast bar hits and misses with regard to food quality.  Some morning the hotel offers hearty country breakfast fare: eggs, sausage, biscuits and gravy.  Other mornings; corn beef hash.  Who serves corn beef hash other than third world prisons?  Even the military hasn’t served this garbage in 20 years!  Free or not, this is unacceptable as the only meat option!
+Another small complaint is the old fashion TVs.  There is something incongruous about having a new property with tube TVs.  I didn’t even know they still made these things!
+Restaurants, retail, a movie theatre and a 24 Hour Fitness Sport exist within walking distance in nearby...The high cost of land makes extended stay hotels hard to come by in south Orange County as there is the expectation of free parking.  This impeccably maintained, well-managed property, nestled in the county’s most inland reaches, was a great find.  We are in the fifth week of our stay in a well-appointed, one-bedroom suite.  The room is equipped with a granite full kitchen comfy bedroom and sleeper-sofa-equipped living room.  Housekeeping is thorough and consistent.  The best aspect of this hotel is the staff.  The front desk folks dutifully attended to every request with the utmost professionalism.  And, believe me; with being in the middle of a relocation with a pregnant wife we had many, many requests.Onsite amenities include a business center, barbeque area, a small cardio fitness center and pool.  The complimentary breakfast bar hits and misses with regard to food quality.  Some morning the hotel offers hearty country breakfast fare: eggs, sausage, biscuits and gravy.  Other mornings; corn beef hash.  Who serves corn beef hash other than third world prisons?  Even the military hasn’t served this garbage in 20 years!  Free or not, this is unacceptable as the only meat option!Another small complaint is the old fashion TVs.  There is something incongruous about having a new property with tube TVs.  I didn’t even know they still made these things!Restaurants, retail, a movie theatre and a 24 Hour Fitness Sport exist within walking distance in nearby Foothill Ranch.  This area has been hit hard by the economic downturn as evidence by the rundown condition of the movie theatre and the almost completely abandoned auto mall.  The 24 Hour Fitness is the most rundown and dated one I have ever seen.In the end analysis, I can’t say enough good things about the management staff here at the hotel.  I don’t expect Cleo, the Operations Manager or the General Manager to be here very long.  The company will promote them or someone else will lure them away with a better benefit package; they are that good!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r53118876-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>53118876</t>
+  </si>
+  <si>
+    <t>01/10/2010</t>
+  </si>
+  <si>
+    <t>Clean, new and a good choice</t>
+  </si>
+  <si>
+    <t>Because this hotel is new, there isn't much to find fault with at all.  The hotel, rooms and grounds are beautiful.  
+The rooms have the little kitchenette with the refrigerator and freezer so you can load up at the grocery store and cook for yourself.  Coffeemaker, dishes, utensils, etc. are all there.  No table for a family meal in the one bedroom suite, but a small counter with two chairs.  The living room is small, but more than ample.  Lots desk space if you are working.  The shower, though dark, had great water pressure.  Older TVs with not so great a picture, which is odd for such a new hotel, but it didn't bother us much.  All entrances require a key-card, so this place is safety-minded.
+The BBQs, basketball court, pool and jacuzzi are all located in the center of the hotel and make for a wonderful place to hangout with family if you have downtime, like in between soccer games or sightseeing.  I think if we were staying longer than one night, this hotel would be perfect because you can save a lot of money cooking for yourselves.  They also had the menus for Pizza Hut and Papa John's and if you dialed room service, it would connect you right with Papa John's.  Nice that they both deliver to your room and you have a menu to reference.
+The hotel is very close to the local business area and...Because this hotel is new, there isn't much to find fault with at all.  The hotel, rooms and grounds are beautiful.  The rooms have the little kitchenette with the refrigerator and freezer so you can load up at the grocery store and cook for yourself.  Coffeemaker, dishes, utensils, etc. are all there.  No table for a family meal in the one bedroom suite, but a small counter with two chairs.  The living room is small, but more than ample.  Lots desk space if you are working.  The shower, though dark, had great water pressure.  Older TVs with not so great a picture, which is odd for such a new hotel, but it didn't bother us much.  All entrances require a key-card, so this place is safety-minded.The BBQs, basketball court, pool and jacuzzi are all located in the center of the hotel and make for a wonderful place to hangout with family if you have downtime, like in between soccer games or sightseeing.  I think if we were staying longer than one night, this hotel would be perfect because you can save a lot of money cooking for yourselves.  They also had the menus for Pizza Hut and Papa John's and if you dialed room service, it would connect you right with Papa John's.  Nice that they both deliver to your room and you have a menu to reference.The hotel is very close to the local business area and right up the street you can drive to the mall with LOTS of restaurant and store choices.  I saw a Chili's right on the corner, but counted at least 5 other large eateries in the main area.  VERY close to Trabuco Hills High School, Santa Margarita High School, USSD, and many other kid activities that may have you out of town for a weekend of tournaments or games.My only complaint was that the beds were truly uncomfortable.  Hard and SMALL.  They didn't seem like queen-sized beds to me and whoever made them up forgot that the sheets should go up to the top of the bed.  We had to undo the sheets at the bottom of the bed just to cover up to our shoulders and we are not tall!  Lots of pillows to choose from, so that is a plus.  The wireless internet was a little slow for my taste, but it was FREE so there you go.The front desk "manager in training" that checked us in was NOT friendly, but he wasn't rude either.  The breakfast they served was really nice with scrambled eggs, pancakes, bacon, bagels, toast, make-you-own waffles, all kinds of fruit, cottage cheese, yogurt, coffee, tea, juices, etc.  They served until 10:30 on the weekends, so that is perfect.  They even had cans of soda on ice for the taking.  Beautiful little dining room with a fireplace and cozy seating, or you could eat outside or in your room if you wanted.  I am sure the Mon-Thurs evening service is worthwhile, but we stayed on a Friday night.I would definitely stay here again.  Very nice hotel with so much within driving distance!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2010</t>
+  </si>
+  <si>
+    <t>Because this hotel is new, there isn't much to find fault with at all.  The hotel, rooms and grounds are beautiful.  
+The rooms have the little kitchenette with the refrigerator and freezer so you can load up at the grocery store and cook for yourself.  Coffeemaker, dishes, utensils, etc. are all there.  No table for a family meal in the one bedroom suite, but a small counter with two chairs.  The living room is small, but more than ample.  Lots desk space if you are working.  The shower, though dark, had great water pressure.  Older TVs with not so great a picture, which is odd for such a new hotel, but it didn't bother us much.  All entrances require a key-card, so this place is safety-minded.
+The BBQs, basketball court, pool and jacuzzi are all located in the center of the hotel and make for a wonderful place to hangout with family if you have downtime, like in between soccer games or sightseeing.  I think if we were staying longer than one night, this hotel would be perfect because you can save a lot of money cooking for yourselves.  They also had the menus for Pizza Hut and Papa John's and if you dialed room service, it would connect you right with Papa John's.  Nice that they both deliver to your room and you have a menu to reference.
+The hotel is very close to the local business area and...Because this hotel is new, there isn't much to find fault with at all.  The hotel, rooms and grounds are beautiful.  The rooms have the little kitchenette with the refrigerator and freezer so you can load up at the grocery store and cook for yourself.  Coffeemaker, dishes, utensils, etc. are all there.  No table for a family meal in the one bedroom suite, but a small counter with two chairs.  The living room is small, but more than ample.  Lots desk space if you are working.  The shower, though dark, had great water pressure.  Older TVs with not so great a picture, which is odd for such a new hotel, but it didn't bother us much.  All entrances require a key-card, so this place is safety-minded.The BBQs, basketball court, pool and jacuzzi are all located in the center of the hotel and make for a wonderful place to hangout with family if you have downtime, like in between soccer games or sightseeing.  I think if we were staying longer than one night, this hotel would be perfect because you can save a lot of money cooking for yourselves.  They also had the menus for Pizza Hut and Papa John's and if you dialed room service, it would connect you right with Papa John's.  Nice that they both deliver to your room and you have a menu to reference.The hotel is very close to the local business area and right up the street you can drive to the mall with LOTS of restaurant and store choices.  I saw a Chili's right on the corner, but counted at least 5 other large eateries in the main area.  VERY close to Trabuco Hills High School, Santa Margarita High School, USSD, and many other kid activities that may have you out of town for a weekend of tournaments or games.My only complaint was that the beds were truly uncomfortable.  Hard and SMALL.  They didn't seem like queen-sized beds to me and whoever made them up forgot that the sheets should go up to the top of the bed.  We had to undo the sheets at the bottom of the bed just to cover up to our shoulders and we are not tall!  Lots of pillows to choose from, so that is a plus.  The wireless internet was a little slow for my taste, but it was FREE so there you go.The front desk "manager in training" that checked us in was NOT friendly, but he wasn't rude either.  The breakfast they served was really nice with scrambled eggs, pancakes, bacon, bagels, toast, make-you-own waffles, all kinds of fruit, cottage cheese, yogurt, coffee, tea, juices, etc.  They served until 10:30 on the weekends, so that is perfect.  They even had cans of soda on ice for the taking.  Beautiful little dining room with a fireplace and cozy seating, or you could eat outside or in your room if you wanted.  I am sure the Mon-Thurs evening service is worthwhile, but we stayed on a Friday night.I would definitely stay here again.  Very nice hotel with so much within driving distance!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r46239996-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>46239996</t>
+  </si>
+  <si>
+    <t>10/08/2009</t>
+  </si>
+  <si>
+    <t>Was perfect for our family vacation.</t>
+  </si>
+  <si>
+    <t>We stayed here because it was the cheapest and best rated room in the Irvine area that I could find with a full kitchen.  The hotel is 3 years old so everything looks brand new.  We got a great rate (called the hotel the morning we checked in).  The breakfast buffet was really yummy and they served rice for breakfast too which is a plus.  On certain days during the week they also served something around dinner time.  We only had to provide our own food for lunch.  Service was excellent and I would stay there again.  At the time we had a 6 month old and a 2 and 1/2 year old.  The only downside is that the closest highway is a toll road.  It is a little ways to the other highway but we never used the toll road.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2009</t>
+  </si>
+  <si>
+    <t>We stayed here because it was the cheapest and best rated room in the Irvine area that I could find with a full kitchen.  The hotel is 3 years old so everything looks brand new.  We got a great rate (called the hotel the morning we checked in).  The breakfast buffet was really yummy and they served rice for breakfast too which is a plus.  On certain days during the week they also served something around dinner time.  We only had to provide our own food for lunch.  Service was excellent and I would stay there again.  At the time we had a 6 month old and a 2 and 1/2 year old.  The only downside is that the closest highway is a toll road.  It is a little ways to the other highway but we never used the toll road.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r33616410-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>33616410</t>
+  </si>
+  <si>
+    <t>06/30/2009</t>
+  </si>
+  <si>
+    <t>Home away from Home</t>
+  </si>
+  <si>
+    <t>Clean rooms, attentive service, fast and reliable high-speed (free) wireless internet, daily appetizers with wine &amp; beer (Mon-Thu), free shuttle service to local businesses within a 5 mile loop...so much value packed into a small hotel.  Colleagues have stayed at all the extended stay properties in this region and also rate the Staybridge Suites as their preferred choice in the Lake Forest area.  The Front Office Manager, Cleo, in particular was a great ambassador for the hotel.  Excellent service and very professional.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2009</t>
+  </si>
+  <si>
+    <t>Clean rooms, attentive service, fast and reliable high-speed (free) wireless internet, daily appetizers with wine &amp; beer (Mon-Thu), free shuttle service to local businesses within a 5 mile loop...so much value packed into a small hotel.  Colleagues have stayed at all the extended stay properties in this region and also rate the Staybridge Suites as their preferred choice in the Lake Forest area.  The Front Office Manager, Cleo, in particular was a great ambassador for the hotel.  Excellent service and very professional.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r27321983-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>27321983</t>
+  </si>
+  <si>
+    <t>04/02/2009</t>
+  </si>
+  <si>
+    <t>Perfect home away from home!</t>
+  </si>
+  <si>
+    <t>I selected this hotel as a "home base" to use while visiting friends and family in the area. I did a bit of research before selecting this hotel, but it basically came down to a random selection between this and the other nearby suite hotels. I couldn't have been happier with my choice! The rooms are large and bright, the staff is friendly, and the location is great for getting around South Orange County. The hotel is located at the edge of a business park so it's off the main drag, but just minutes from a large shopping center with a supermarket, restaurants, Target, movie theater, etc. The hotel also has easy access to main freeways, the tollway and the Irvine Spectrum shopping center. The rooms with kitchenettes have a full size fridge, microwave and stove for in-room cooking, but the hotel also offers a complementary breakfast (daily) and "happy hour" light dinner and drinks (M - Th). The happy hour food was substantial -- real food that was enough for dinner (not just chips and popcorn). The outdoor pool was clean and heated (even in the off-season), and the inner courtyard also has BBQs and a sport court. Most of the guests seemed to be there for business, so the hotel is quiet during the day and on weekends. My children loved the pool and all the space in the courtyard area, and I was happy to have a...I selected this hotel as a "home base" to use while visiting friends and family in the area. I did a bit of research before selecting this hotel, but it basically came down to a random selection between this and the other nearby suite hotels. I couldn't have been happier with my choice! The rooms are large and bright, the staff is friendly, and the location is great for getting around South Orange County. The hotel is located at the edge of a business park so it's off the main drag, but just minutes from a large shopping center with a supermarket, restaurants, Target, movie theater, etc. The hotel also has easy access to main freeways, the tollway and the Irvine Spectrum shopping center. The rooms with kitchenettes have a full size fridge, microwave and stove for in-room cooking, but the hotel also offers a complementary breakfast (daily) and "happy hour" light dinner and drinks (M - Th). The happy hour food was substantial -- real food that was enough for dinner (not just chips and popcorn). The outdoor pool was clean and heated (even in the off-season), and the inner courtyard also has BBQs and a sport court. Most of the guests seemed to be there for business, so the hotel is quiet during the day and on weekends. My children loved the pool and all the space in the courtyard area, and I was happy to have a place to stay with separate bedroom and living room space. The hotel is not particularly close to Disneyland or the beach, but it surpassed my expectations in terms of facilities and value-for-money. I would highly recommend the Staybridge Suites to anyone who needs a "home away from home" when in the Lake Forest area for business or visiting friends and family.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2009</t>
+  </si>
+  <si>
+    <t>I selected this hotel as a "home base" to use while visiting friends and family in the area. I did a bit of research before selecting this hotel, but it basically came down to a random selection between this and the other nearby suite hotels. I couldn't have been happier with my choice! The rooms are large and bright, the staff is friendly, and the location is great for getting around South Orange County. The hotel is located at the edge of a business park so it's off the main drag, but just minutes from a large shopping center with a supermarket, restaurants, Target, movie theater, etc. The hotel also has easy access to main freeways, the tollway and the Irvine Spectrum shopping center. The rooms with kitchenettes have a full size fridge, microwave and stove for in-room cooking, but the hotel also offers a complementary breakfast (daily) and "happy hour" light dinner and drinks (M - Th). The happy hour food was substantial -- real food that was enough for dinner (not just chips and popcorn). The outdoor pool was clean and heated (even in the off-season), and the inner courtyard also has BBQs and a sport court. Most of the guests seemed to be there for business, so the hotel is quiet during the day and on weekends. My children loved the pool and all the space in the courtyard area, and I was happy to have a...I selected this hotel as a "home base" to use while visiting friends and family in the area. I did a bit of research before selecting this hotel, but it basically came down to a random selection between this and the other nearby suite hotels. I couldn't have been happier with my choice! The rooms are large and bright, the staff is friendly, and the location is great for getting around South Orange County. The hotel is located at the edge of a business park so it's off the main drag, but just minutes from a large shopping center with a supermarket, restaurants, Target, movie theater, etc. The hotel also has easy access to main freeways, the tollway and the Irvine Spectrum shopping center. The rooms with kitchenettes have a full size fridge, microwave and stove for in-room cooking, but the hotel also offers a complementary breakfast (daily) and "happy hour" light dinner and drinks (M - Th). The happy hour food was substantial -- real food that was enough for dinner (not just chips and popcorn). The outdoor pool was clean and heated (even in the off-season), and the inner courtyard also has BBQs and a sport court. Most of the guests seemed to be there for business, so the hotel is quiet during the day and on weekends. My children loved the pool and all the space in the courtyard area, and I was happy to have a place to stay with separate bedroom and living room space. The hotel is not particularly close to Disneyland or the beach, but it surpassed my expectations in terms of facilities and value-for-money. I would highly recommend the Staybridge Suites to anyone who needs a "home away from home" when in the Lake Forest area for business or visiting friends and family.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r5394474-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>5394474</t>
+  </si>
+  <si>
+    <t>06/26/2006</t>
+  </si>
+  <si>
+    <t>Nice for short or extended stays</t>
+  </si>
+  <si>
+    <t>We searched Orange County for extended stay hotels and were lucky to find this one.  This hotel just opened earlier this year.  The staff is friendly and helpful.  They serve a great breakfast each morning (it isn't dry sweet rolls and bagels on a plate).  They also serve a light snack, beer and wine in the evening (free and served Mon-Thurs).  Although they call this a "snack" it has certainly can serve as dinner.  They have free laundry facilities.   During our stay (over 30 days, we were waiting for a home to be completed), we saw families on vacation and a lot of business people.  This hotel is located near business complexes, but just up the street there are many restaurants, stores and a large movie theater that serve the residents of Foothill Ranch, (aka Lake Forest), which is a fairly new community in Orange County.  Perfect place to stay if visiting anywhere in Orange County!MoreShow less</t>
+  </si>
+  <si>
+    <t>We searched Orange County for extended stay hotels and were lucky to find this one.  This hotel just opened earlier this year.  The staff is friendly and helpful.  They serve a great breakfast each morning (it isn't dry sweet rolls and bagels on a plate).  They also serve a light snack, beer and wine in the evening (free and served Mon-Thurs).  Although they call this a "snack" it has certainly can serve as dinner.  They have free laundry facilities.   During our stay (over 30 days, we were waiting for a home to be completed), we saw families on vacation and a lot of business people.  This hotel is located near business complexes, but just up the street there are many restaurants, stores and a large movie theater that serve the residents of Foothill Ranch, (aka Lake Forest), which is a fairly new community in Orange County.  Perfect place to stay if visiting anywhere in Orange County!More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +2703,6561 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>53930</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="n">
+        <v>5</v>
+      </c>
+      <c r="R2" t="s"/>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>53930</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>53930</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>65</v>
+      </c>
+      <c r="O4" t="s">
+        <v>66</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="n">
+        <v>5</v>
+      </c>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>53930</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>65</v>
+      </c>
+      <c r="O5" t="s">
+        <v>72</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>53930</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" t="s">
+        <v>75</v>
+      </c>
+      <c r="K6" t="s">
+        <v>76</v>
+      </c>
+      <c r="L6" t="s">
+        <v>77</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>78</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>53930</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>78</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>53930</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>85</v>
+      </c>
+      <c r="J8" t="s">
+        <v>86</v>
+      </c>
+      <c r="K8" t="s">
+        <v>87</v>
+      </c>
+      <c r="L8" t="s">
+        <v>88</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>89</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>53930</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>92</v>
+      </c>
+      <c r="J9" t="s">
+        <v>93</v>
+      </c>
+      <c r="K9" t="s">
+        <v>94</v>
+      </c>
+      <c r="L9" t="s">
+        <v>95</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>96</v>
+      </c>
+      <c r="O9" t="s">
+        <v>66</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>53930</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>98</v>
+      </c>
+      <c r="J10" t="s">
+        <v>99</v>
+      </c>
+      <c r="K10" t="s">
+        <v>100</v>
+      </c>
+      <c r="L10" t="s">
+        <v>101</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>96</v>
+      </c>
+      <c r="O10" t="s">
+        <v>66</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="s"/>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>53930</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>102</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>103</v>
+      </c>
+      <c r="J11" t="s">
+        <v>104</v>
+      </c>
+      <c r="K11" t="s">
+        <v>105</v>
+      </c>
+      <c r="L11" t="s">
+        <v>106</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>107</v>
+      </c>
+      <c r="O11" t="s">
+        <v>72</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" t="n">
+        <v>4</v>
+      </c>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>4</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>53930</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>108</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>109</v>
+      </c>
+      <c r="J12" t="s">
+        <v>110</v>
+      </c>
+      <c r="K12" t="s">
+        <v>111</v>
+      </c>
+      <c r="L12" t="s">
+        <v>112</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>107</v>
+      </c>
+      <c r="O12" t="s">
+        <v>66</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="n">
+        <v>3</v>
+      </c>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>4</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>53930</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>113</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>114</v>
+      </c>
+      <c r="J13" t="s">
+        <v>115</v>
+      </c>
+      <c r="K13" t="s">
+        <v>116</v>
+      </c>
+      <c r="L13" t="s">
+        <v>117</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s"/>
+      <c r="O13" t="s"/>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>53930</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>118</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>119</v>
+      </c>
+      <c r="J14" t="s">
+        <v>120</v>
+      </c>
+      <c r="K14" t="s">
+        <v>121</v>
+      </c>
+      <c r="L14" t="s">
+        <v>122</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>123</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>53930</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>124</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>125</v>
+      </c>
+      <c r="J15" t="s">
+        <v>126</v>
+      </c>
+      <c r="K15" t="s">
+        <v>127</v>
+      </c>
+      <c r="L15" t="s">
+        <v>128</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>129</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>53930</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>130</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>131</v>
+      </c>
+      <c r="J16" t="s">
+        <v>132</v>
+      </c>
+      <c r="K16" t="s">
+        <v>133</v>
+      </c>
+      <c r="L16" t="s">
+        <v>134</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>129</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>53930</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>135</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>136</v>
+      </c>
+      <c r="J17" t="s">
+        <v>137</v>
+      </c>
+      <c r="K17" t="s">
+        <v>138</v>
+      </c>
+      <c r="L17" t="s">
+        <v>139</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>140</v>
+      </c>
+      <c r="O17" t="s">
+        <v>72</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>53930</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>141</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>142</v>
+      </c>
+      <c r="J18" t="s">
+        <v>143</v>
+      </c>
+      <c r="K18" t="s">
+        <v>144</v>
+      </c>
+      <c r="L18" t="s">
+        <v>145</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>146</v>
+      </c>
+      <c r="O18" t="s">
+        <v>147</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="n">
+        <v>4</v>
+      </c>
+      <c r="R18" t="s"/>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>4</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>53930</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>148</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>149</v>
+      </c>
+      <c r="J19" t="s">
+        <v>150</v>
+      </c>
+      <c r="K19" t="s">
+        <v>151</v>
+      </c>
+      <c r="L19" t="s">
+        <v>152</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>146</v>
+      </c>
+      <c r="O19" t="s">
+        <v>66</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>53930</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>153</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>154</v>
+      </c>
+      <c r="J20" t="s">
+        <v>155</v>
+      </c>
+      <c r="K20" t="s">
+        <v>156</v>
+      </c>
+      <c r="L20" t="s">
+        <v>157</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>158</v>
+      </c>
+      <c r="O20" t="s">
+        <v>66</v>
+      </c>
+      <c r="P20" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>4</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>53930</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>159</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>160</v>
+      </c>
+      <c r="J21" t="s">
+        <v>161</v>
+      </c>
+      <c r="K21" t="s">
+        <v>162</v>
+      </c>
+      <c r="L21" t="s">
+        <v>163</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>164</v>
+      </c>
+      <c r="O21" t="s">
+        <v>66</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>53930</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>166</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>167</v>
+      </c>
+      <c r="J22" t="s">
+        <v>168</v>
+      </c>
+      <c r="K22" t="s">
+        <v>169</v>
+      </c>
+      <c r="L22" t="s">
+        <v>170</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>164</v>
+      </c>
+      <c r="O22" t="s">
+        <v>66</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>53930</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>171</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>172</v>
+      </c>
+      <c r="J23" t="s">
+        <v>173</v>
+      </c>
+      <c r="K23" t="s">
+        <v>174</v>
+      </c>
+      <c r="L23" t="s">
+        <v>175</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>176</v>
+      </c>
+      <c r="O23" t="s">
+        <v>72</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
+      <c r="R23" t="n">
+        <v>3</v>
+      </c>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>4</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>53930</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>177</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>178</v>
+      </c>
+      <c r="J24" t="s">
+        <v>179</v>
+      </c>
+      <c r="K24" t="s">
+        <v>180</v>
+      </c>
+      <c r="L24" t="s">
+        <v>181</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>182</v>
+      </c>
+      <c r="O24" t="s">
+        <v>66</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>53930</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>184</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>185</v>
+      </c>
+      <c r="J25" t="s">
+        <v>186</v>
+      </c>
+      <c r="K25" t="s">
+        <v>187</v>
+      </c>
+      <c r="L25" t="s">
+        <v>188</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>182</v>
+      </c>
+      <c r="O25" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>53930</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>190</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>191</v>
+      </c>
+      <c r="J26" t="s">
+        <v>192</v>
+      </c>
+      <c r="K26" t="s">
+        <v>193</v>
+      </c>
+      <c r="L26" t="s">
+        <v>194</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>176</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>53930</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>195</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>196</v>
+      </c>
+      <c r="J27" t="s">
+        <v>197</v>
+      </c>
+      <c r="K27" t="s">
+        <v>198</v>
+      </c>
+      <c r="L27" t="s">
+        <v>199</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>200</v>
+      </c>
+      <c r="O27" t="s">
+        <v>66</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>53930</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>201</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>202</v>
+      </c>
+      <c r="J28" t="s">
+        <v>203</v>
+      </c>
+      <c r="K28" t="s">
+        <v>204</v>
+      </c>
+      <c r="L28" t="s">
+        <v>205</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>206</v>
+      </c>
+      <c r="O28" t="s">
+        <v>72</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>53930</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>207</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>208</v>
+      </c>
+      <c r="J29" t="s">
+        <v>209</v>
+      </c>
+      <c r="K29" t="s">
+        <v>210</v>
+      </c>
+      <c r="L29" t="s">
+        <v>211</v>
+      </c>
+      <c r="M29" t="n">
+        <v>2</v>
+      </c>
+      <c r="N29" t="s">
+        <v>212</v>
+      </c>
+      <c r="O29" t="s">
+        <v>53</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>213</v>
+      </c>
+      <c r="X29" t="s">
+        <v>214</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>53930</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>216</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>217</v>
+      </c>
+      <c r="J30" t="s">
+        <v>218</v>
+      </c>
+      <c r="K30" t="s">
+        <v>219</v>
+      </c>
+      <c r="L30" t="s">
+        <v>220</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>221</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>53930</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>223</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>224</v>
+      </c>
+      <c r="J31" t="s">
+        <v>225</v>
+      </c>
+      <c r="K31" t="s">
+        <v>226</v>
+      </c>
+      <c r="L31" t="s">
+        <v>227</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3</v>
+      </c>
+      <c r="N31" t="s">
+        <v>228</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="n">
+        <v>3</v>
+      </c>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>229</v>
+      </c>
+      <c r="X31" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>53930</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>232</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>233</v>
+      </c>
+      <c r="J32" t="s">
+        <v>234</v>
+      </c>
+      <c r="K32" t="s">
+        <v>235</v>
+      </c>
+      <c r="L32" t="s">
+        <v>236</v>
+      </c>
+      <c r="M32" t="n">
+        <v>3</v>
+      </c>
+      <c r="N32" t="s">
+        <v>206</v>
+      </c>
+      <c r="O32" t="s">
+        <v>53</v>
+      </c>
+      <c r="P32" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="n">
+        <v>4</v>
+      </c>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>3</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>237</v>
+      </c>
+      <c r="X32" t="s">
+        <v>238</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>53930</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>240</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>241</v>
+      </c>
+      <c r="J33" t="s">
+        <v>242</v>
+      </c>
+      <c r="K33" t="s">
+        <v>243</v>
+      </c>
+      <c r="L33" t="s">
+        <v>244</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>206</v>
+      </c>
+      <c r="O33" t="s">
+        <v>53</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>53930</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>245</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>246</v>
+      </c>
+      <c r="J34" t="s">
+        <v>247</v>
+      </c>
+      <c r="K34" t="s">
+        <v>248</v>
+      </c>
+      <c r="L34" t="s">
+        <v>249</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>250</v>
+      </c>
+      <c r="O34" t="s">
+        <v>53</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>53930</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>252</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>253</v>
+      </c>
+      <c r="J35" t="s">
+        <v>254</v>
+      </c>
+      <c r="K35" t="s">
+        <v>255</v>
+      </c>
+      <c r="L35" t="s">
+        <v>256</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>257</v>
+      </c>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="n">
+        <v>4</v>
+      </c>
+      <c r="S35" t="n">
+        <v>4</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>4</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>53930</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>258</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>259</v>
+      </c>
+      <c r="J36" t="s">
+        <v>260</v>
+      </c>
+      <c r="K36" t="s">
+        <v>261</v>
+      </c>
+      <c r="L36" t="s">
+        <v>262</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>263</v>
+      </c>
+      <c r="O36" t="s">
+        <v>53</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>53930</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>265</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>266</v>
+      </c>
+      <c r="J37" t="s">
+        <v>267</v>
+      </c>
+      <c r="K37" t="s">
+        <v>255</v>
+      </c>
+      <c r="L37" t="s">
+        <v>268</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>269</v>
+      </c>
+      <c r="O37" t="s">
+        <v>66</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="n">
+        <v>4</v>
+      </c>
+      <c r="R37" t="s"/>
+      <c r="S37" t="n">
+        <v>4</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>53930</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>270</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>271</v>
+      </c>
+      <c r="J38" t="s">
+        <v>272</v>
+      </c>
+      <c r="K38" t="s">
+        <v>273</v>
+      </c>
+      <c r="L38" t="s">
+        <v>274</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1</v>
+      </c>
+      <c r="N38" t="s">
+        <v>269</v>
+      </c>
+      <c r="O38" t="s">
+        <v>53</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>275</v>
+      </c>
+      <c r="X38" t="s">
+        <v>276</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>53930</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>278</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>279</v>
+      </c>
+      <c r="J39" t="s">
+        <v>280</v>
+      </c>
+      <c r="K39" t="s">
+        <v>281</v>
+      </c>
+      <c r="L39" t="s">
+        <v>282</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>250</v>
+      </c>
+      <c r="O39" t="s">
+        <v>66</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>53930</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>284</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>285</v>
+      </c>
+      <c r="J40" t="s">
+        <v>280</v>
+      </c>
+      <c r="K40" t="s">
+        <v>286</v>
+      </c>
+      <c r="L40" t="s">
+        <v>287</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>250</v>
+      </c>
+      <c r="O40" t="s">
+        <v>53</v>
+      </c>
+      <c r="P40" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>53930</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>289</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>290</v>
+      </c>
+      <c r="J41" t="s">
+        <v>291</v>
+      </c>
+      <c r="K41" t="s">
+        <v>292</v>
+      </c>
+      <c r="L41" t="s">
+        <v>293</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>250</v>
+      </c>
+      <c r="O41" t="s">
+        <v>66</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="n">
+        <v>4</v>
+      </c>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>53930</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>295</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>296</v>
+      </c>
+      <c r="J42" t="s">
+        <v>291</v>
+      </c>
+      <c r="K42" t="s">
+        <v>297</v>
+      </c>
+      <c r="L42" t="s">
+        <v>298</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>250</v>
+      </c>
+      <c r="O42" t="s">
+        <v>147</v>
+      </c>
+      <c r="P42" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>4</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>53930</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>300</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>301</v>
+      </c>
+      <c r="J43" t="s">
+        <v>302</v>
+      </c>
+      <c r="K43" t="s">
+        <v>303</v>
+      </c>
+      <c r="L43" t="s">
+        <v>304</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>257</v>
+      </c>
+      <c r="O43" t="s">
+        <v>66</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="s"/>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>53930</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>305</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>306</v>
+      </c>
+      <c r="J44" t="s">
+        <v>307</v>
+      </c>
+      <c r="K44" t="s">
+        <v>308</v>
+      </c>
+      <c r="L44" t="s">
+        <v>309</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>310</v>
+      </c>
+      <c r="O44" t="s">
+        <v>72</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>53930</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>312</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>313</v>
+      </c>
+      <c r="J45" t="s">
+        <v>314</v>
+      </c>
+      <c r="K45" t="s">
+        <v>315</v>
+      </c>
+      <c r="L45" t="s">
+        <v>316</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>317</v>
+      </c>
+      <c r="O45" t="s">
+        <v>53</v>
+      </c>
+      <c r="P45" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>3</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>53930</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>318</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>319</v>
+      </c>
+      <c r="J46" t="s">
+        <v>320</v>
+      </c>
+      <c r="K46" t="s">
+        <v>116</v>
+      </c>
+      <c r="L46" t="s">
+        <v>321</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>322</v>
+      </c>
+      <c r="O46" t="s">
+        <v>66</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>53930</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>323</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>324</v>
+      </c>
+      <c r="J47" t="s">
+        <v>325</v>
+      </c>
+      <c r="K47" t="s">
+        <v>326</v>
+      </c>
+      <c r="L47" t="s">
+        <v>327</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>263</v>
+      </c>
+      <c r="O47" t="s">
+        <v>66</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="n">
+        <v>4</v>
+      </c>
+      <c r="R47" t="n">
+        <v>2</v>
+      </c>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>4</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>53930</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>329</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>330</v>
+      </c>
+      <c r="J48" t="s">
+        <v>325</v>
+      </c>
+      <c r="K48" t="s">
+        <v>331</v>
+      </c>
+      <c r="L48" t="s">
+        <v>332</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>263</v>
+      </c>
+      <c r="O48" t="s">
+        <v>53</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>53930</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>333</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>334</v>
+      </c>
+      <c r="J49" t="s">
+        <v>335</v>
+      </c>
+      <c r="K49" t="s">
+        <v>336</v>
+      </c>
+      <c r="L49" t="s">
+        <v>337</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>263</v>
+      </c>
+      <c r="O49" t="s">
+        <v>53</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>53930</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>339</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>340</v>
+      </c>
+      <c r="J50" t="s">
+        <v>341</v>
+      </c>
+      <c r="K50" t="s">
+        <v>342</v>
+      </c>
+      <c r="L50" t="s">
+        <v>343</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>344</v>
+      </c>
+      <c r="O50" t="s">
+        <v>53</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>53930</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>346</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>347</v>
+      </c>
+      <c r="J51" t="s">
+        <v>348</v>
+      </c>
+      <c r="K51" t="s">
+        <v>349</v>
+      </c>
+      <c r="L51" t="s">
+        <v>350</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>344</v>
+      </c>
+      <c r="O51" t="s">
+        <v>351</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="s"/>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>352</v>
+      </c>
+      <c r="X51" t="s">
+        <v>353</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>53930</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>355</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>356</v>
+      </c>
+      <c r="J52" t="s">
+        <v>357</v>
+      </c>
+      <c r="K52" t="s">
+        <v>358</v>
+      </c>
+      <c r="L52" t="s">
+        <v>359</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>360</v>
+      </c>
+      <c r="O52" t="s">
+        <v>53</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>352</v>
+      </c>
+      <c r="X52" t="s">
+        <v>353</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>53930</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>362</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>363</v>
+      </c>
+      <c r="J53" t="s">
+        <v>364</v>
+      </c>
+      <c r="K53" t="s">
+        <v>365</v>
+      </c>
+      <c r="L53" t="s">
+        <v>366</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>367</v>
+      </c>
+      <c r="O53" t="s">
+        <v>53</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>352</v>
+      </c>
+      <c r="X53" t="s">
+        <v>353</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53930</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>369</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>370</v>
+      </c>
+      <c r="J54" t="s">
+        <v>371</v>
+      </c>
+      <c r="K54" t="s">
+        <v>372</v>
+      </c>
+      <c r="L54" t="s">
+        <v>373</v>
+      </c>
+      <c r="M54" t="n">
+        <v>3</v>
+      </c>
+      <c r="N54" t="s">
+        <v>360</v>
+      </c>
+      <c r="O54" t="s">
+        <v>66</v>
+      </c>
+      <c r="P54" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>3</v>
+      </c>
+      <c r="R54" t="n">
+        <v>3</v>
+      </c>
+      <c r="S54" t="n">
+        <v>3</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>3</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>374</v>
+      </c>
+      <c r="X54" t="s">
+        <v>375</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>53930</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>377</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>378</v>
+      </c>
+      <c r="J55" t="s">
+        <v>379</v>
+      </c>
+      <c r="K55" t="s">
+        <v>380</v>
+      </c>
+      <c r="L55" t="s">
+        <v>381</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>382</v>
+      </c>
+      <c r="O55" t="s">
+        <v>53</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="s"/>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>352</v>
+      </c>
+      <c r="X55" t="s">
+        <v>353</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>53930</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>384</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>385</v>
+      </c>
+      <c r="J56" t="s">
+        <v>386</v>
+      </c>
+      <c r="K56" t="s">
+        <v>387</v>
+      </c>
+      <c r="L56" t="s">
+        <v>388</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>382</v>
+      </c>
+      <c r="O56" t="s">
+        <v>66</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="s"/>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>352</v>
+      </c>
+      <c r="X56" t="s">
+        <v>353</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>53930</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>390</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>391</v>
+      </c>
+      <c r="J57" t="s">
+        <v>392</v>
+      </c>
+      <c r="K57" t="s">
+        <v>393</v>
+      </c>
+      <c r="L57" t="s">
+        <v>394</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>382</v>
+      </c>
+      <c r="O57" t="s">
+        <v>53</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="s"/>
+      <c r="T57" t="s"/>
+      <c r="U57" t="s"/>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>352</v>
+      </c>
+      <c r="X57" t="s">
+        <v>353</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>53930</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>396</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>397</v>
+      </c>
+      <c r="J58" t="s">
+        <v>398</v>
+      </c>
+      <c r="K58" t="s">
+        <v>399</v>
+      </c>
+      <c r="L58" t="s">
+        <v>400</v>
+      </c>
+      <c r="M58" t="n">
+        <v>3</v>
+      </c>
+      <c r="N58" t="s">
+        <v>401</v>
+      </c>
+      <c r="O58" t="s">
+        <v>53</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="s"/>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>402</v>
+      </c>
+      <c r="X58" t="s">
+        <v>403</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>53930</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>405</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>406</v>
+      </c>
+      <c r="J59" t="s">
+        <v>407</v>
+      </c>
+      <c r="K59" t="s">
+        <v>408</v>
+      </c>
+      <c r="L59" t="s">
+        <v>409</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>410</v>
+      </c>
+      <c r="O59" t="s">
+        <v>72</v>
+      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="s"/>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>352</v>
+      </c>
+      <c r="X59" t="s">
+        <v>353</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>53930</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>412</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>413</v>
+      </c>
+      <c r="J60" t="s">
+        <v>414</v>
+      </c>
+      <c r="K60" t="s">
+        <v>415</v>
+      </c>
+      <c r="L60" t="s">
+        <v>416</v>
+      </c>
+      <c r="M60" t="n">
+        <v>2</v>
+      </c>
+      <c r="N60" t="s"/>
+      <c r="O60" t="s"/>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="s"/>
+      <c r="S60" t="s"/>
+      <c r="T60" t="s"/>
+      <c r="U60" t="s"/>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>417</v>
+      </c>
+      <c r="X60" t="s">
+        <v>418</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>53930</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>420</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>421</v>
+      </c>
+      <c r="J61" t="s">
+        <v>422</v>
+      </c>
+      <c r="K61" t="s">
+        <v>423</v>
+      </c>
+      <c r="L61" t="s">
+        <v>424</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>425</v>
+      </c>
+      <c r="O61" t="s">
+        <v>66</v>
+      </c>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="n">
+        <v>4</v>
+      </c>
+      <c r="R61" t="n">
+        <v>4</v>
+      </c>
+      <c r="S61" t="s"/>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>4</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>417</v>
+      </c>
+      <c r="X61" t="s">
+        <v>418</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>53930</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>427</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>428</v>
+      </c>
+      <c r="J62" t="s">
+        <v>429</v>
+      </c>
+      <c r="K62" t="s">
+        <v>430</v>
+      </c>
+      <c r="L62" t="s">
+        <v>431</v>
+      </c>
+      <c r="M62" t="n">
+        <v>4</v>
+      </c>
+      <c r="N62" t="s">
+        <v>432</v>
+      </c>
+      <c r="O62" t="s">
+        <v>66</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>4</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>417</v>
+      </c>
+      <c r="X62" t="s">
+        <v>418</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>53930</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>434</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>435</v>
+      </c>
+      <c r="J63" t="s">
+        <v>436</v>
+      </c>
+      <c r="K63" t="s">
+        <v>437</v>
+      </c>
+      <c r="L63" t="s">
+        <v>438</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s"/>
+      <c r="O63" t="s"/>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>439</v>
+      </c>
+      <c r="X63" t="s">
+        <v>418</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>53930</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>441</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>442</v>
+      </c>
+      <c r="J64" t="s">
+        <v>443</v>
+      </c>
+      <c r="K64" t="s">
+        <v>444</v>
+      </c>
+      <c r="L64" t="s">
+        <v>445</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>446</v>
+      </c>
+      <c r="O64" t="s">
+        <v>53</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>417</v>
+      </c>
+      <c r="X64" t="s">
+        <v>418</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>53930</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>448</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>449</v>
+      </c>
+      <c r="J65" t="s">
+        <v>450</v>
+      </c>
+      <c r="K65" t="s">
+        <v>451</v>
+      </c>
+      <c r="L65" t="s">
+        <v>452</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="s">
+        <v>453</v>
+      </c>
+      <c r="O65" t="s">
+        <v>66</v>
+      </c>
+      <c r="P65" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>3</v>
+      </c>
+      <c r="R65" t="n">
+        <v>3</v>
+      </c>
+      <c r="S65" t="n">
+        <v>4</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>4</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>454</v>
+      </c>
+      <c r="X65" t="s">
+        <v>455</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>53930</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>457</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>458</v>
+      </c>
+      <c r="J66" t="s">
+        <v>459</v>
+      </c>
+      <c r="K66" t="s">
+        <v>460</v>
+      </c>
+      <c r="L66" t="s">
+        <v>461</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>453</v>
+      </c>
+      <c r="O66" t="s">
+        <v>53</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>4</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>4</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>454</v>
+      </c>
+      <c r="X66" t="s">
+        <v>455</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>53930</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>463</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>464</v>
+      </c>
+      <c r="J67" t="s">
+        <v>465</v>
+      </c>
+      <c r="K67" t="s">
+        <v>466</v>
+      </c>
+      <c r="L67" t="s">
+        <v>467</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>468</v>
+      </c>
+      <c r="O67" t="s">
+        <v>72</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>4</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>469</v>
+      </c>
+      <c r="X67" t="s">
+        <v>470</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>53930</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>472</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>473</v>
+      </c>
+      <c r="J68" t="s">
+        <v>474</v>
+      </c>
+      <c r="K68" t="s">
+        <v>475</v>
+      </c>
+      <c r="L68" t="s">
+        <v>476</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>410</v>
+      </c>
+      <c r="O68" t="s">
+        <v>53</v>
+      </c>
+      <c r="P68" t="s"/>
+      <c r="Q68" t="s"/>
+      <c r="R68" t="s"/>
+      <c r="S68" t="s"/>
+      <c r="T68" t="s"/>
+      <c r="U68" t="s"/>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>469</v>
+      </c>
+      <c r="X68" t="s">
+        <v>470</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>53930</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>478</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>479</v>
+      </c>
+      <c r="J69" t="s">
+        <v>480</v>
+      </c>
+      <c r="K69" t="s">
+        <v>481</v>
+      </c>
+      <c r="L69" t="s">
+        <v>482</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>483</v>
+      </c>
+      <c r="O69" t="s">
+        <v>53</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>469</v>
+      </c>
+      <c r="X69" t="s">
+        <v>470</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>53930</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>485</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>486</v>
+      </c>
+      <c r="J70" t="s">
+        <v>487</v>
+      </c>
+      <c r="K70" t="s">
+        <v>488</v>
+      </c>
+      <c r="L70" t="s">
+        <v>489</v>
+      </c>
+      <c r="M70" t="n">
+        <v>4</v>
+      </c>
+      <c r="N70" t="s">
+        <v>490</v>
+      </c>
+      <c r="O70" t="s">
+        <v>66</v>
+      </c>
+      <c r="P70" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>4</v>
+      </c>
+      <c r="R70" t="n">
+        <v>4</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>352</v>
+      </c>
+      <c r="X70" t="s">
+        <v>353</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>53930</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>492</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>493</v>
+      </c>
+      <c r="J71" t="s">
+        <v>494</v>
+      </c>
+      <c r="K71" t="s">
+        <v>495</v>
+      </c>
+      <c r="L71" t="s">
+        <v>496</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>497</v>
+      </c>
+      <c r="O71" t="s">
+        <v>53</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>352</v>
+      </c>
+      <c r="X71" t="s">
+        <v>353</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>53930</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>499</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>500</v>
+      </c>
+      <c r="J72" t="s">
+        <v>501</v>
+      </c>
+      <c r="K72" t="s">
+        <v>502</v>
+      </c>
+      <c r="L72" t="s">
+        <v>503</v>
+      </c>
+      <c r="M72" t="n">
+        <v>3</v>
+      </c>
+      <c r="N72" t="s">
+        <v>504</v>
+      </c>
+      <c r="O72" t="s">
+        <v>351</v>
+      </c>
+      <c r="P72" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>4</v>
+      </c>
+      <c r="R72" t="n">
+        <v>4</v>
+      </c>
+      <c r="S72" t="n">
+        <v>4</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>505</v>
+      </c>
+      <c r="X72" t="s">
+        <v>506</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>53930</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>508</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>509</v>
+      </c>
+      <c r="J73" t="s">
+        <v>510</v>
+      </c>
+      <c r="K73" t="s">
+        <v>511</v>
+      </c>
+      <c r="L73" t="s">
+        <v>512</v>
+      </c>
+      <c r="M73" t="n">
+        <v>3</v>
+      </c>
+      <c r="N73" t="s">
+        <v>490</v>
+      </c>
+      <c r="O73" t="s">
+        <v>53</v>
+      </c>
+      <c r="P73" t="s"/>
+      <c r="Q73" t="s"/>
+      <c r="R73" t="s"/>
+      <c r="S73" t="s"/>
+      <c r="T73" t="s"/>
+      <c r="U73" t="s"/>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>513</v>
+      </c>
+      <c r="X73" t="s">
+        <v>514</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>53930</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>516</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>517</v>
+      </c>
+      <c r="J74" t="s">
+        <v>518</v>
+      </c>
+      <c r="K74" t="s">
+        <v>519</v>
+      </c>
+      <c r="L74" t="s">
+        <v>520</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>483</v>
+      </c>
+      <c r="O74" t="s">
+        <v>66</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>521</v>
+      </c>
+      <c r="X74" t="s">
+        <v>522</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>53930</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>524</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>525</v>
+      </c>
+      <c r="J75" t="s">
+        <v>526</v>
+      </c>
+      <c r="K75" t="s">
+        <v>527</v>
+      </c>
+      <c r="L75" t="s">
+        <v>528</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>529</v>
+      </c>
+      <c r="O75" t="s">
+        <v>351</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>521</v>
+      </c>
+      <c r="X75" t="s">
+        <v>522</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>53930</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>531</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>532</v>
+      </c>
+      <c r="J76" t="s">
+        <v>526</v>
+      </c>
+      <c r="K76" t="s">
+        <v>533</v>
+      </c>
+      <c r="L76" t="s">
+        <v>534</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>529</v>
+      </c>
+      <c r="O76" t="s">
+        <v>66</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>521</v>
+      </c>
+      <c r="X76" t="s">
+        <v>522</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>53930</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>536</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>537</v>
+      </c>
+      <c r="J77" t="s">
+        <v>538</v>
+      </c>
+      <c r="K77" t="s">
+        <v>539</v>
+      </c>
+      <c r="L77" t="s">
+        <v>540</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>541</v>
+      </c>
+      <c r="O77" t="s">
+        <v>66</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="n">
+        <v>3</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>542</v>
+      </c>
+      <c r="X77" t="s">
+        <v>543</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>53930</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>545</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>546</v>
+      </c>
+      <c r="J78" t="s">
+        <v>547</v>
+      </c>
+      <c r="K78" t="s">
+        <v>548</v>
+      </c>
+      <c r="L78" t="s">
+        <v>549</v>
+      </c>
+      <c r="M78" t="n">
+        <v>4</v>
+      </c>
+      <c r="N78" t="s">
+        <v>550</v>
+      </c>
+      <c r="O78" t="s">
+        <v>351</v>
+      </c>
+      <c r="P78" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>5</v>
+      </c>
+      <c r="R78" t="n">
+        <v>4</v>
+      </c>
+      <c r="S78" t="n">
+        <v>4</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>542</v>
+      </c>
+      <c r="X78" t="s">
+        <v>543</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>53930</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>552</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>553</v>
+      </c>
+      <c r="J79" t="s">
+        <v>554</v>
+      </c>
+      <c r="K79" t="s">
+        <v>555</v>
+      </c>
+      <c r="L79" t="s">
+        <v>556</v>
+      </c>
+      <c r="M79" t="n">
+        <v>4</v>
+      </c>
+      <c r="N79" t="s">
+        <v>557</v>
+      </c>
+      <c r="O79" t="s">
+        <v>53</v>
+      </c>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>5</v>
+      </c>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>542</v>
+      </c>
+      <c r="X79" t="s">
+        <v>543</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>53930</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>559</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>560</v>
+      </c>
+      <c r="J80" t="s">
+        <v>561</v>
+      </c>
+      <c r="K80" t="s">
+        <v>562</v>
+      </c>
+      <c r="L80" t="s">
+        <v>563</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>564</v>
+      </c>
+      <c r="O80" t="s">
+        <v>53</v>
+      </c>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>5</v>
+      </c>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>352</v>
+      </c>
+      <c r="X80" t="s">
+        <v>353</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>53930</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>566</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>567</v>
+      </c>
+      <c r="J81" t="s">
+        <v>568</v>
+      </c>
+      <c r="K81" t="s">
+        <v>569</v>
+      </c>
+      <c r="L81" t="s">
+        <v>570</v>
+      </c>
+      <c r="M81" t="n">
+        <v>4</v>
+      </c>
+      <c r="N81" t="s">
+        <v>564</v>
+      </c>
+      <c r="O81" t="s">
+        <v>66</v>
+      </c>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>5</v>
+      </c>
+      <c r="R81" t="n">
+        <v>5</v>
+      </c>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>352</v>
+      </c>
+      <c r="X81" t="s">
+        <v>353</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>53930</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>572</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>573</v>
+      </c>
+      <c r="J82" t="s">
+        <v>574</v>
+      </c>
+      <c r="K82" t="s">
+        <v>575</v>
+      </c>
+      <c r="L82" t="s">
+        <v>576</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s">
+        <v>577</v>
+      </c>
+      <c r="O82" t="s">
+        <v>72</v>
+      </c>
+      <c r="P82" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>5</v>
+      </c>
+      <c r="R82" t="n">
+        <v>5</v>
+      </c>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>352</v>
+      </c>
+      <c r="X82" t="s">
+        <v>353</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>53930</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>579</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>580</v>
+      </c>
+      <c r="J83" t="s">
+        <v>581</v>
+      </c>
+      <c r="K83" t="s">
+        <v>582</v>
+      </c>
+      <c r="L83" t="s">
+        <v>409</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s">
+        <v>583</v>
+      </c>
+      <c r="O83" t="s">
+        <v>72</v>
+      </c>
+      <c r="P83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>5</v>
+      </c>
+      <c r="R83" t="n">
+        <v>5</v>
+      </c>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>352</v>
+      </c>
+      <c r="X83" t="s">
+        <v>353</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>53930</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>584</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>585</v>
+      </c>
+      <c r="J84" t="s">
+        <v>586</v>
+      </c>
+      <c r="K84" t="s">
+        <v>587</v>
+      </c>
+      <c r="L84" t="s">
+        <v>588</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s">
+        <v>577</v>
+      </c>
+      <c r="O84" t="s">
+        <v>66</v>
+      </c>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>5</v>
+      </c>
+      <c r="R84" t="n">
+        <v>3</v>
+      </c>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s">
+        <v>352</v>
+      </c>
+      <c r="X84" t="s">
+        <v>353</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>53930</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>590</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>591</v>
+      </c>
+      <c r="J85" t="s">
+        <v>592</v>
+      </c>
+      <c r="K85" t="s">
+        <v>593</v>
+      </c>
+      <c r="L85" t="s">
+        <v>594</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="s">
+        <v>577</v>
+      </c>
+      <c r="O85" t="s">
+        <v>66</v>
+      </c>
+      <c r="P85" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>5</v>
+      </c>
+      <c r="R85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s">
+        <v>352</v>
+      </c>
+      <c r="X85" t="s">
+        <v>353</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>53930</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>596</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>597</v>
+      </c>
+      <c r="J86" t="s">
+        <v>598</v>
+      </c>
+      <c r="K86" t="s">
+        <v>599</v>
+      </c>
+      <c r="L86" t="s">
+        <v>600</v>
+      </c>
+      <c r="M86" t="n">
+        <v>5</v>
+      </c>
+      <c r="N86" t="s">
+        <v>601</v>
+      </c>
+      <c r="O86" t="s">
+        <v>53</v>
+      </c>
+      <c r="P86" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>5</v>
+      </c>
+      <c r="R86" t="n">
+        <v>3</v>
+      </c>
+      <c r="S86" t="n">
+        <v>5</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s">
+        <v>352</v>
+      </c>
+      <c r="X86" t="s">
+        <v>353</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>53930</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>603</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>604</v>
+      </c>
+      <c r="J87" t="s">
+        <v>605</v>
+      </c>
+      <c r="K87" t="s">
+        <v>606</v>
+      </c>
+      <c r="L87" t="s">
+        <v>607</v>
+      </c>
+      <c r="M87" t="n">
+        <v>5</v>
+      </c>
+      <c r="N87" t="s">
+        <v>608</v>
+      </c>
+      <c r="O87" t="s">
+        <v>66</v>
+      </c>
+      <c r="P87" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>5</v>
+      </c>
+      <c r="R87" t="n">
+        <v>5</v>
+      </c>
+      <c r="S87" t="n">
+        <v>5</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>5</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s">
+        <v>352</v>
+      </c>
+      <c r="X87" t="s">
+        <v>353</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>53930</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>610</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>611</v>
+      </c>
+      <c r="J88" t="s">
+        <v>612</v>
+      </c>
+      <c r="K88" t="s">
+        <v>613</v>
+      </c>
+      <c r="L88" t="s">
+        <v>614</v>
+      </c>
+      <c r="M88" t="n">
+        <v>5</v>
+      </c>
+      <c r="N88" t="s">
+        <v>615</v>
+      </c>
+      <c r="O88" t="s">
+        <v>66</v>
+      </c>
+      <c r="P88" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>5</v>
+      </c>
+      <c r="R88" t="n">
+        <v>5</v>
+      </c>
+      <c r="S88" t="n">
+        <v>5</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>5</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s">
+        <v>352</v>
+      </c>
+      <c r="X88" t="s">
+        <v>353</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>53930</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>617</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>618</v>
+      </c>
+      <c r="J89" t="s">
+        <v>619</v>
+      </c>
+      <c r="K89" t="s">
+        <v>620</v>
+      </c>
+      <c r="L89" t="s">
+        <v>621</v>
+      </c>
+      <c r="M89" t="n">
+        <v>4</v>
+      </c>
+      <c r="N89" t="s">
+        <v>622</v>
+      </c>
+      <c r="O89" t="s">
+        <v>53</v>
+      </c>
+      <c r="P89" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>4</v>
+      </c>
+      <c r="R89" t="n">
+        <v>5</v>
+      </c>
+      <c r="S89" t="s"/>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>4</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s">
+        <v>352</v>
+      </c>
+      <c r="X89" t="s">
+        <v>353</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>53930</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>624</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>625</v>
+      </c>
+      <c r="J90" t="s">
+        <v>626</v>
+      </c>
+      <c r="K90" t="s">
+        <v>627</v>
+      </c>
+      <c r="L90" t="s">
+        <v>628</v>
+      </c>
+      <c r="M90" t="n">
+        <v>5</v>
+      </c>
+      <c r="N90" t="s">
+        <v>629</v>
+      </c>
+      <c r="O90" t="s">
+        <v>66</v>
+      </c>
+      <c r="P90" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q90" t="s"/>
+      <c r="R90" t="s"/>
+      <c r="S90" t="n">
+        <v>5</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>5</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s">
+        <v>352</v>
+      </c>
+      <c r="X90" t="s">
+        <v>353</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>53930</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>631</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>632</v>
+      </c>
+      <c r="J91" t="s">
+        <v>633</v>
+      </c>
+      <c r="K91" t="s">
+        <v>634</v>
+      </c>
+      <c r="L91" t="s">
+        <v>635</v>
+      </c>
+      <c r="M91" t="n">
+        <v>4</v>
+      </c>
+      <c r="N91" t="s">
+        <v>636</v>
+      </c>
+      <c r="O91" t="s">
+        <v>147</v>
+      </c>
+      <c r="P91" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q91" t="s"/>
+      <c r="R91" t="s"/>
+      <c r="S91" t="n">
+        <v>4</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>4</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s">
+        <v>352</v>
+      </c>
+      <c r="X91" t="s">
+        <v>353</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>53930</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>638</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>639</v>
+      </c>
+      <c r="J92" t="s">
+        <v>640</v>
+      </c>
+      <c r="K92" t="s">
+        <v>641</v>
+      </c>
+      <c r="L92" t="s">
+        <v>642</v>
+      </c>
+      <c r="M92" t="n">
+        <v>5</v>
+      </c>
+      <c r="N92" t="s">
+        <v>643</v>
+      </c>
+      <c r="O92" t="s">
+        <v>72</v>
+      </c>
+      <c r="P92" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>5</v>
+      </c>
+      <c r="R92" t="n">
+        <v>5</v>
+      </c>
+      <c r="S92" t="n">
+        <v>5</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>5</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s">
+        <v>352</v>
+      </c>
+      <c r="X92" t="s">
+        <v>353</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>53930</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>645</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>646</v>
+      </c>
+      <c r="J93" t="s">
+        <v>647</v>
+      </c>
+      <c r="K93" t="s">
+        <v>648</v>
+      </c>
+      <c r="L93" t="s">
+        <v>649</v>
+      </c>
+      <c r="M93" t="n">
+        <v>5</v>
+      </c>
+      <c r="N93" t="s">
+        <v>650</v>
+      </c>
+      <c r="O93" t="s">
+        <v>53</v>
+      </c>
+      <c r="P93" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>5</v>
+      </c>
+      <c r="R93" t="n">
+        <v>5</v>
+      </c>
+      <c r="S93" t="n">
+        <v>5</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>5</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s">
+        <v>352</v>
+      </c>
+      <c r="X93" t="s">
+        <v>353</v>
+      </c>
+      <c r="Y93" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>53930</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>652</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>653</v>
+      </c>
+      <c r="J94" t="s">
+        <v>654</v>
+      </c>
+      <c r="K94" t="s">
+        <v>655</v>
+      </c>
+      <c r="L94" t="s">
+        <v>656</v>
+      </c>
+      <c r="M94" t="n">
+        <v>5</v>
+      </c>
+      <c r="N94" t="s">
+        <v>657</v>
+      </c>
+      <c r="O94" t="s">
+        <v>53</v>
+      </c>
+      <c r="P94" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>5</v>
+      </c>
+      <c r="R94" t="n">
+        <v>5</v>
+      </c>
+      <c r="S94" t="n">
+        <v>5</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>5</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s">
+        <v>352</v>
+      </c>
+      <c r="X94" t="s">
+        <v>353</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>53930</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>659</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>660</v>
+      </c>
+      <c r="J95" t="s">
+        <v>661</v>
+      </c>
+      <c r="K95" t="s">
+        <v>662</v>
+      </c>
+      <c r="L95" t="s">
+        <v>663</v>
+      </c>
+      <c r="M95" t="n">
+        <v>5</v>
+      </c>
+      <c r="N95" t="s">
+        <v>664</v>
+      </c>
+      <c r="O95" t="s">
+        <v>66</v>
+      </c>
+      <c r="P95" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>5</v>
+      </c>
+      <c r="R95" t="n">
+        <v>5</v>
+      </c>
+      <c r="S95" t="n">
+        <v>5</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>5</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s">
+        <v>352</v>
+      </c>
+      <c r="X95" t="s">
+        <v>353</v>
+      </c>
+      <c r="Y95" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>53930</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>666</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>667</v>
+      </c>
+      <c r="J96" t="s">
+        <v>668</v>
+      </c>
+      <c r="K96" t="s">
+        <v>669</v>
+      </c>
+      <c r="L96" t="s">
+        <v>670</v>
+      </c>
+      <c r="M96" t="n">
+        <v>5</v>
+      </c>
+      <c r="N96" t="s">
+        <v>671</v>
+      </c>
+      <c r="O96" t="s">
+        <v>66</v>
+      </c>
+      <c r="P96" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>5</v>
+      </c>
+      <c r="R96" t="n">
+        <v>5</v>
+      </c>
+      <c r="S96" t="n">
+        <v>5</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>5</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s">
+        <v>352</v>
+      </c>
+      <c r="X96" t="s">
+        <v>353</v>
+      </c>
+      <c r="Y96" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>53930</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>673</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>674</v>
+      </c>
+      <c r="J97" t="s">
+        <v>675</v>
+      </c>
+      <c r="K97" t="s">
+        <v>676</v>
+      </c>
+      <c r="L97" t="s">
+        <v>677</v>
+      </c>
+      <c r="M97" t="n">
+        <v>4</v>
+      </c>
+      <c r="N97" t="s">
+        <v>650</v>
+      </c>
+      <c r="O97" t="s">
+        <v>53</v>
+      </c>
+      <c r="P97" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>4</v>
+      </c>
+      <c r="R97" t="n">
+        <v>5</v>
+      </c>
+      <c r="S97" t="n">
+        <v>5</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>5</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s">
+        <v>352</v>
+      </c>
+      <c r="X97" t="s">
+        <v>353</v>
+      </c>
+      <c r="Y97" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>53930</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>679</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>680</v>
+      </c>
+      <c r="J98" t="s">
+        <v>681</v>
+      </c>
+      <c r="K98" t="s">
+        <v>682</v>
+      </c>
+      <c r="L98" t="s">
+        <v>683</v>
+      </c>
+      <c r="M98" t="n">
+        <v>5</v>
+      </c>
+      <c r="N98" t="s">
+        <v>684</v>
+      </c>
+      <c r="O98" t="s">
+        <v>66</v>
+      </c>
+      <c r="P98" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>5</v>
+      </c>
+      <c r="R98" t="n">
+        <v>5</v>
+      </c>
+      <c r="S98" t="n">
+        <v>5</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>4</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s">
+        <v>352</v>
+      </c>
+      <c r="X98" t="s">
+        <v>353</v>
+      </c>
+      <c r="Y98" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>53930</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>686</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>687</v>
+      </c>
+      <c r="J99" t="s">
+        <v>688</v>
+      </c>
+      <c r="K99" t="s">
+        <v>689</v>
+      </c>
+      <c r="L99" t="s">
+        <v>690</v>
+      </c>
+      <c r="M99" t="n">
+        <v>5</v>
+      </c>
+      <c r="N99" t="s">
+        <v>691</v>
+      </c>
+      <c r="O99" t="s">
+        <v>66</v>
+      </c>
+      <c r="P99" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>5</v>
+      </c>
+      <c r="R99" t="n">
+        <v>3</v>
+      </c>
+      <c r="S99" t="n">
+        <v>5</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>5</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s">
+        <v>352</v>
+      </c>
+      <c r="X99" t="s">
+        <v>353</v>
+      </c>
+      <c r="Y99" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>53930</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>693</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>694</v>
+      </c>
+      <c r="J100" t="s">
+        <v>695</v>
+      </c>
+      <c r="K100" t="s">
+        <v>696</v>
+      </c>
+      <c r="L100" t="s">
+        <v>697</v>
+      </c>
+      <c r="M100" t="n">
+        <v>5</v>
+      </c>
+      <c r="N100" t="s">
+        <v>698</v>
+      </c>
+      <c r="O100" t="s">
+        <v>53</v>
+      </c>
+      <c r="P100" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>5</v>
+      </c>
+      <c r="R100" t="n">
+        <v>5</v>
+      </c>
+      <c r="S100" t="n">
+        <v>4</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>4</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s">
+        <v>352</v>
+      </c>
+      <c r="X100" t="s">
+        <v>353</v>
+      </c>
+      <c r="Y100" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>53930</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" t="s">
+        <v>700</v>
+      </c>
+      <c r="G101" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I101" t="s">
+        <v>701</v>
+      </c>
+      <c r="J101" t="s">
+        <v>702</v>
+      </c>
+      <c r="K101" t="s">
+        <v>703</v>
+      </c>
+      <c r="L101" t="s">
+        <v>704</v>
+      </c>
+      <c r="M101" t="n">
+        <v>5</v>
+      </c>
+      <c r="N101" t="s">
+        <v>705</v>
+      </c>
+      <c r="O101" t="s">
+        <v>66</v>
+      </c>
+      <c r="P101" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>4</v>
+      </c>
+      <c r="R101" t="n">
+        <v>5</v>
+      </c>
+      <c r="S101" t="n">
+        <v>5</v>
+      </c>
+      <c r="T101" t="s"/>
+      <c r="U101" t="n">
+        <v>4</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s">
+        <v>352</v>
+      </c>
+      <c r="X101" t="s">
+        <v>353</v>
+      </c>
+      <c r="Y101" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>53930</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>44</v>
+      </c>
+      <c r="F102" t="s">
+        <v>707</v>
+      </c>
+      <c r="G102" t="s">
+        <v>46</v>
+      </c>
+      <c r="H102" t="s">
+        <v>47</v>
+      </c>
+      <c r="I102" t="s">
+        <v>708</v>
+      </c>
+      <c r="J102" t="s">
+        <v>709</v>
+      </c>
+      <c r="K102" t="s">
+        <v>710</v>
+      </c>
+      <c r="L102" t="s">
+        <v>711</v>
+      </c>
+      <c r="M102" t="n">
+        <v>5</v>
+      </c>
+      <c r="N102" t="s"/>
+      <c r="O102" t="s"/>
+      <c r="P102" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>4</v>
+      </c>
+      <c r="R102" t="s"/>
+      <c r="S102" t="n">
+        <v>5</v>
+      </c>
+      <c r="T102" t="s"/>
+      <c r="U102" t="n">
+        <v>5</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s">
+        <v>352</v>
+      </c>
+      <c r="X102" t="s">
+        <v>353</v>
+      </c>
+      <c r="Y102" t="s">
+        <v>712</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_720.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_720.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="713">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="813">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Karen C</t>
+  </si>
+  <si>
     <t>07/10/2018</t>
   </si>
   <si>
@@ -183,6 +186,9 @@
     <t>My husband and I stayed for a week in February. He was in Lake Forest on business.We stayed in a wheelchair accessible room.I believe all rooms are suites in this hotel. Our room was huge with a separate bedroom with king bed, fully equipped kitchen, living room area and huge bathroom.Free parking, full buffet breakfast (free) and 4 evenings a week (Monday to Thursday) there is a small meal (fajitas, hot dogs, wings, etc).The location was great for my husband, only a few minutes to his office each day. Lots of shopping and restaurants nearby.The lovely courtyard has a basketball court, pool, seating area with fountain and BBQ's.No complaints about this hotel at all, the staff were very friendly as well.More</t>
   </si>
   <si>
+    <t>Ulises A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r559070026-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -198,6 +204,9 @@
     <t>I have one of my best experiences, staff was so friendly and helpful, when I arrived Bobby welcome me with such professionalism, Claudia assisted me in all my request and Jimmy was so helpful, same a Natalie, all staff was great. Accomodations were superb, room clean and neat, food was great. I definitely a place to stay, I will be back in June</t>
   </si>
   <si>
+    <t>familytraveler06</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r552763804-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -219,6 +228,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>NeilRocks</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r547024500-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -237,6 +249,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>TravelAgentTLV</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r543696544-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -255,6 +270,9 @@
     <t>November 2017</t>
   </si>
   <si>
+    <t>Efrat M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r537944252-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -270,6 +288,9 @@
     <t>The room is realy big and has a small kitchen.breakfest  is nice. Greate swimming pool and jacuzzi.WIFI is strong, there is a desk which is comfortable.The hotel is minutes close to business in lake forest.</t>
   </si>
   <si>
+    <t>Gauravkadam</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r524249031-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -291,6 +312,9 @@
     <t>I stayed in Staybridge for around 14 days in August 2017. I had stayed at this hotel around 5 yrs back. The hotel is newly renovated however the hospitality is the same, "Excellent". The rooms are large, clean and well maintained. The room also has small  a cooking area for preparing the  food along with the dishwasher. The housekeeping department takes care of cleaning the room daily. The hotel has a well equipped gym and swimming pool with Jacuzzi. The hotel has a laundry room with washer and dryer machines which can be used by the guest. There is Walmart, Target mall and many restaurants nearby the hotel to make it a good option for stay. Overall I enjoyed my stay at staybridge and would love to come here again.More</t>
   </si>
   <si>
+    <t>Tammy T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r505934294-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -309,6 +333,9 @@
     <t>July 2017</t>
   </si>
   <si>
+    <t>Richard B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r501024033-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -324,6 +351,9 @@
     <t>We stayed here three years ago and were very impressed. So, for this recent visit, we didn't even look at the competition. The hotel lived up to its reputation in our mind, so we highly recommend Staybridge. No negatives at all.</t>
   </si>
   <si>
+    <t>PrairiewomanfromCA</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r495203814-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -342,6 +372,9 @@
     <t>June 2017</t>
   </si>
   <si>
+    <t>DRRVentura</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r494311082-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -357,6 +390,9 @@
     <t>in area for soccer tournament, so had a group stay here. Nice facility with nearby restaurants, stores, etc and price was reasonable. did not get back to hotel until late due to games and found room to be hot so kicked the air conditioner on.  A/C in our room was extremely loud to the extent that it would wake us up every time it kicked on.  Checked with others that stayed in hotel and got input that this was an isolated problem. didn't call front desk as was late and we were exhausted.  breakfast bar was perfect for group of kids off for full day of soccer.</t>
   </si>
   <si>
+    <t>bentona2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r493089343-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -372,6 +408,9 @@
     <t>The room was spacious, separate bedroom, kitchen. Everyone was helpful. located about a mile from a shopping center,they had about anything that you would need. Monday thru Thursday evening meals served. Wine and beer also served. Great value for the money.</t>
   </si>
   <si>
+    <t>cjatel</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r475398205-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -390,6 +429,9 @@
     <t>April 2017</t>
   </si>
   <si>
+    <t>Didier C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r471475317-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -408,6 +450,9 @@
     <t>March 2017</t>
   </si>
   <si>
+    <t>tjw2551oo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r467666509-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -423,6 +468,9 @@
     <t>This hotel is sumptuous and very California friendly. Pray Mimi or Bobby are working at the front desk. They transported us to a restaurant when they got off work! I never encountered such kindness in all the 53 years I have been in business. Great place, great people, you will not be disappointed!TJE</t>
   </si>
   <si>
+    <t>Jacqueline s</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r437850752-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -441,6 +489,9 @@
     <t>November 2016</t>
   </si>
   <si>
+    <t>DiegoDLK</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r429010574-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -462,6 +513,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>drmirage</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r424558985-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -477,6 +531,9 @@
     <t>Checked in on 10/1 for a 1 night stay with the family.  I appreciated the free upgrade to a 1 bedroom (2 queen) from a studio for being IHG Spire Elite Members.Rooms are very clean / spacious.  Loved the breakfast and the front desk service by Alana and Mimi.  We will definitely be coming back here on our next visit.</t>
   </si>
   <si>
+    <t>jdcontreras23</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r397659857-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -495,6 +552,9 @@
     <t>July 2016</t>
   </si>
   <si>
+    <t>twr999</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r396230070-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -516,6 +576,9 @@
     <t>Spent a week here with family, and we were all impressed. Clean, spacious suite, courteous staff, and pretty decent free breakfast. Property was recently remodeled. We rented a 2-bedroom suite (2 queens in one room and 1 in the other). Each bedroom had a private bath, and there were separate climate controls - one for the living area and smaller bedroom, and the other for the larger bedroom. Living area was spacious, with sofa-bed (we didn't pull it out), dining table, and kitchenette that included full-size refrigerator, 2-burner cooktop, microwave, toaster over, dishwasher, dishes/glasses, and a few pots and pans. Property includes a small fitness center and a guest laundry (free - supply your own soap). Wifi was free, and worked really well. Checkout was at noon. No online checkout available, but process took less than a minute at the front desk.More</t>
   </si>
   <si>
+    <t>Thedriveagain</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r393523501-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -531,6 +594,9 @@
     <t xml:space="preserve">I stayed here for 2 weeks. Staff is cheerful and know there job. Breakfast was better than any staybridge i have ever been to: lots of fresh fruit choices, rice and tofu, always scrambled eggs cooked perfectly and meats and sometimes potato (hashbrowns or homefries) Coffee alwas hot and fresh. They also do weekday social. They could call it dinner, because its exctly that. Some staybridge locatios you can get finger food and snacks. Not here, here is meat, starch and veggie. Plus the beer and wine. In addition to the great food there was a beautiful pool, basketball court and grills. This is my favorite staybridge. </t>
   </si>
   <si>
+    <t>DavidI151</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r374986367-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -549,6 +615,9 @@
     <t>March 2016</t>
   </si>
   <si>
+    <t>SBMesa</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r373938596-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -570,6 +639,9 @@
     <t>This was our second family trip to Lake Forest and this Staybridge Inn.  We originally ordered two separate rooms for us and my 95 year old father; we requested that the two rooms be near to each other.The next day, we received a call from the manager offering us the option of a two bedroom suite.  We are glad we took it and so was my father.  There was enough privacy and each bedroom had its own full bathroom; there was a kitchen and TVs in each bedroom as well as the shared living room.  We give an 11 out of 10 for service and facilities!The breakfast buffet was great too!More</t>
   </si>
   <si>
+    <t>Daniel M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r372247840-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -588,6 +660,9 @@
     <t>I have been staying at this hotel regularly for six years and the staff at the hotel has become like a second family. They are the friendliest and most welcoming people I have ever encountered in a hotel, and that was from day one. They treat all their customers the same, the long timers and the ones there for one night. I cannot list all the times the staff has gone above and beyond the call of duty, but it is a frequent occurrence. The hotel has been remodeled in 2016, and the furnishings were already in good shape, so they re-invest in the property. I highly recommend anyone looking for a pleasant experience while traveling to stay here. And I didn't even mention the happy hour dinner and hot breakfast!More</t>
   </si>
   <si>
+    <t>chrislundquist</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r357457049-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -603,6 +678,9 @@
     <t>This Staybridge is the best one I've stayed at, ever. Hands down the nicest staff in the world. They make you feel at home. The property is very well appointed and comfortable. It is always clean and the social room is always filled with nice guests from all over the world.</t>
   </si>
   <si>
+    <t>Susan W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r353701617-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -621,6 +699,9 @@
     <t>February 2016</t>
   </si>
   <si>
+    <t>AdvTravlr54</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r340968117-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -639,6 +720,9 @@
     <t>October 2015</t>
   </si>
   <si>
+    <t>mem68ber</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r331096378-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -666,6 +750,9 @@
     <t>First let me say we still love this place.I completely understand that the need for renovation and what it takes to accomplish that. Reason for the 2 stars ------The back door is left open for an electrical extension cord that nobody is using because it is "off hours/night time". THIS is a safety issue for all occupant especially when card is required off hours to get into the place but yet here is an "open door". Daytime one can hear very loud music from the back where the work area is, all the way to the front end rooms. Very loud because you can hear it with the room window closed.More</t>
   </si>
   <si>
+    <t>SRRJJ</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r327394596-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -687,6 +774,9 @@
     <t>I can't say enough good things about the Staybridge Suites in Lake Forest CA. My husband and I are leaving today after spending 8 nights here.  The hotel is beautiful, emmaculatly clean and in a nice upscale section of town with near by stores and conveniences. The staff,front desk, house cleaning and kitchen has been most accommodating, the hot full breakfast each morning has been delicious plus they serve dinner on week nights free of charge as well.This location was an easy drive to the spectacular views of the Pacific Ocean plus we drove up Hy 74 to check out the majestic mountains seen from the hotel.If you are here on Sat or Sunday I  recommend that you worship at Saddleback Church located 2 miles from hotel. GREAT JOB EVERYONE!More</t>
   </si>
   <si>
+    <t>nijunihk</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r326395537-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -714,6 +804,9 @@
     <t>I've stayed here several times over the last 4 years &amp; this last visit was not as good. I agree with others that the rooms are not as clean or well-kept as earlier visits. Front desk staff is still pleasant &amp; helpful.More</t>
   </si>
   <si>
+    <t>erudite_30</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r319029993-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -738,6 +831,9 @@
     <t>I stay at this location on business several times in the year, over the past few years. The hotel has all the usual amenities useful to the business traveler - comfortable bed, coffee pot in the room, fridge and microwave in the room, free wi fi, hot breakfast, and snacks and drinks in the weekdays, barring Fridays. These positives are unfortunately diminished by the downsides - it has increasingly become poorly maintained, with poor housekeeping. The hotel management should pay attention to these seemingly small details that greatly increase traveler satisfaction. Rooms should be sanitized sufficiently before occupancy (was not in my case), supplies should be replenished in the room, trash should be taken out, common areas such as hallways, elevators, kitchen areas should be kept clean and sanitary. A perfunctory cleanup will not cut it.More</t>
   </si>
   <si>
+    <t>Ann L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r318125999-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -751,6 +847,9 @@
   </si>
   <si>
     <t>I love the free breakfast that you can make your own waffle! Front desk Bobby is kind and helpful. My room has been upgraded to a suite with kitchen and sitting room its sad that I don't have time to cook this time. The bath tub is new and it's very clean. There are many TV channels that keep you enjoy for whole night, including a Japanese TV channel showing English subtitled Japanese movies! The hotel is nearby Target and the Home Depot in 10min walk. I would love to stay in this hotel again.</t>
+  </si>
+  <si>
+    <t>Govind N</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r309952450-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
@@ -780,6 +879,9 @@
 Now I know that almost all hotels provide these services, but this is my first time staying for so long in one, and they did a very good job of not making me feel like I was in a hotel by adding a personalized...This is my fourth continuous month with Staybridge Suites Irvine Spectrum/Lake Forest as I am writing this review and let me tell you first hand that the experience was amazing. The Manager that I had to deal with, Cloe was extremely helpful when there was a problem with my booking and I had to extend my stay. Staff at the front Desk (ask for Bobby or Claudia) were also very helpful for almost all of my requests, be it enrolling for their rewards program or holding a package for longer time. The cleaning crew was amazing too. They did some times knock when I was not quite ready for them but then again, they wouldn't know because I didn't have my DND sign up. But they did tidy up the place every day and performed a full clean once a week. No complaints there. I had a problem with ants one day, and I called the front desk in the afternoon to report it, but as it turned out one of the cleaning crew had already found and reported the issue and it was taken care of by the time I got back from work. Flawless.Now I know that almost all hotels provide these services, but this is my first time staying for so long in one, and they did a very good job of not making me feel like I was in a hotel by adding a personalized touch to the experience.Definitely looking forward to staying here again.More</t>
   </si>
   <si>
+    <t>Uday_Travellar</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r296536822-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -798,6 +900,9 @@
     <t>September 2014</t>
   </si>
   <si>
+    <t>Jay F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r295468738-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -819,6 +924,9 @@
     <t>I stayed at this property for two nights for business in Irvine. The hotel is located in a residential area in the hills about a 10 minute drive from the Irvine Spectrum.  The room was $150/night for a 1 king bedroom suite. They must have run out of rooms because I was given a sweet two bedroom suite. It was very spacious, clean, cool and comfortable. The staff was very helpful with recommending  nearby restaurants. I overheard one guest complaining about the traffic noise from Bake Parkway. The bedroom I slept in faced that road.  Other than the occasional loud motorcycle, traffic noise was not an issue.The hotel is comparable to a Hilton Hampton Inn: bedroom suites, common lounge area and free breakfast and evening happy hour food.  I enjoy an evening walk to wind down. There is a well manicured, immaculate, large community park just up the hill from the hotel. The park has a paved walking path around  the perimeter and a lovely view of Irvine and Orange County. There is also a shopping center with restaurants and a Walmart across the other road, Rancho Parkway, about a 10 minute walk at a leisurely pace.More</t>
   </si>
   <si>
+    <t>Rachelle K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r295155960-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -834,6 +942,9 @@
     <t>July 2015</t>
   </si>
   <si>
+    <t>A TripAdvisor Member</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r291617815-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -856,6 +967,9 @@
   </si>
   <si>
     <t>Checked in tonight. Rooms feel outdated. A hole in the bedsheets. Stains on the sofa. Doorstop next to the bed. Loud AC outside of window. Room smells of Febrerze. For $210 plus tax overpriced. Asked to be moved, but they are sold out. My first review ever. I do travel a lot for business.More</t>
+  </si>
+  <si>
+    <t>ActionFight_Sal</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r290253426-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
@@ -880,6 +994,9 @@
 If there...I had just moved my family (fiancee + one month old) to California and we needed a place to stay until we found a suitable apartment. Staybridge was perfect! The one bedroom suite had a living room with sofa and an almost full kitchen with dishwasher! Three of the other key amenities were the free onsite laundry, complimentary breakfast buffet (daily) and complimentary dinner (Mon - Thur). This made our lives so much easier when caring for a newborn. It made it so we didn't need to meal plan very much. The grounds were pretty amazing. There was a nice pool area, a shaded grilling area, outdoor seating and rosemary plants around the water fountain!The location of the property was excellent. It's within minutes of restaurants, grocery stores, Target, movie theater, etc. What really made this property shine was the staff. They were helpful, cheerful, personable and made you feel like family. This was apparent the moment we checked in. We would like to single out Bobby and Claudia for all of their help! They made is possible for us to borrow a toaster oven for our stay (an oven was the only thing missing from the kitchen), were able to confirm that their shuttle had LATCH for our baby's car seat, were able to recommend stores in the area and handled every one of our requests (we had a newborn, so there were quite a few). If there were anything this property could improve upon, and there isn't much, it would be more vegetarian options for the dinner buffet.All in all, this is one of the best experience my family has ever had at any hotel and would definitely recommend this hotel to business travelers, families and anyone looking for a nice, safe and comfortable environment. Now that we've found an apartment nearby, we will be sending visiting family and friends here!More</t>
   </si>
   <si>
+    <t>CharlieCN</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r290171325-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -895,6 +1012,9 @@
     <t>We've been so lucky this year with our hotel choices - most exceed the brand's standards, and Staybridge Lake Forest is no exception.  Check-in was a breeze and we were made to feel like welcomed guests … Bobby and I can't remember her name, (and everyone else) were just too friendly. We were greeted each and every time we entered or exited the hotel.Everywhere we turned there were beautiful fresh flowers, even in the rest rooms!  Awesome touches and attention to detail.  Our rooms were super clean and we slept so well on the comfortable beds!  The kitchen was very-well appointed, didn't need a thing!We spent each evening and morning out on their patio enjoying their beautiful and relaxing courtyard.  I can't believe how wonderfully quiet it was!  It was very well maintained with beautiful trees and flowers.  Their socials and breakfasts were chock-full of amazing and fresh fruits and veggies - a vegan's paradise, for sure!  They even had miso soup and rice on their breakfast buffet!  Since I can't have miso soup, I brewed some green tea, added a bit of nama shoyu and some lemon and made a tea soup for the rice!  YUM!This is a very well-maintained property with an AWESOME staff!  Thank you for a GREAT stay!More</t>
   </si>
   <si>
+    <t>Agent-CruiseOne</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r285666923-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -913,6 +1033,9 @@
     <t>This is a fantastic property!  I have been coming here for years when I come to town. As a travel agent/owner of CruiseOne - Erik Fischer &amp; Associates I am always watching and reviewing all hotels I stay at as well as places I visit, restaurants, etc. The GM here is named Cleo and she is wonderful to work with. Should you have an issue (which I doubt) she will take care of it. The staff is professional, the property is comfortable and I consider this home away from home. I stay at all kinds of properties when I travel from 5 star resorts to 1 star mom and pop properties. I can't speak high enough of this property. If they are ever sold out I stay at the Hampton Inn not far but as soon as there is an opening I will move back to this property. They have a great breakfast every morning with a good variety and dinner every Monday through Thursday which is very good as well. You can't go wrong. There is also a very nice gym and laundry is free. All you need is your own detergent. You can't go wrong with staying here. Yes, there are other choices but for this area this would be the best choice!More</t>
   </si>
   <si>
+    <t>shawnabbtt</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r285534724-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -928,6 +1051,9 @@
     <t>Have stayed here the past three years around this time for nearby swim meet. Staff are friendly and helpful each time. The furnishings have not changed, and could use some TLC i.e. torn seam under arm cover of couch.  The bed was comfy and bathroom linens adequate. Bonus to staying here is the free bkfst each day, and free dinners a few nights a week.  Having free w/d for guest use (buy your own soap) is a plus too. Keep in mind this is an extended stay kind of place, so "lite housekeeping" for less than 7 day stay means your bed gets made and your towels are refreshed if needed. No sweeping/vaccuming each day, wash your own dishes in dishwasher with soap provided. I assume bed sheets would get changed after 7 days?**honorable mention: Cleo called to say i'd left something in the room, so kudos to her and the cleaning staff for being honest and attentive in that regard!!More</t>
   </si>
   <si>
+    <t>pinkstar311</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r284413699-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -943,6 +1069,9 @@
     <t xml:space="preserve">This is our go-to hotel when we're in the area from now on. Fantastic staff, clean rooms, great FREE meals...amazing. While checking in they noticed we were a family of 4 (husband, wife, child and mother in law) with a reservation for a 2 queen suite (we were trying to save money). They upgraded us immediately just for our own comfort! And it made a world of difference. Thank you so much, Staybridge! </t>
   </si>
   <si>
+    <t>nstreicker</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r274777568-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -964,6 +1093,9 @@
     <t>This place was amazing! The grounds are beautiful, it is literally like being at home! The suite was perfect, and exceptionally clean. There is a kitchen with a full fridge and ice maker (turn it on right away if you want ice). A nice desk, couch, t.v., comfy bed and fluffy pillows, roomy bathroom, great windows that give plenty of light. The pool and Jacuzzi were perfect and surrounded by beautiful trees and flowers. There are a few bbq’s and benches nearby … and right next to the pool and bbq’s there is even a basketball court! We had a great time!!! In the morning you get a GREAT breakfast! They even had miso soup which was delicious. You can tell the owners put pride into their establishment (thank you!). We stayed here to go to the Irvine Improv and Uber’d it there. GREAT location, nice getaway and very relaxing. Will definitely be staying at Staybridges again, thanks to the great impression from this one! =)More</t>
   </si>
   <si>
+    <t>MilaneseImbruttito64</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r273751637-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -982,6 +1114,9 @@
     <t>June 2014</t>
   </si>
   <si>
+    <t>C Y</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r265975143-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -997,6 +1132,9 @@
     <t>April 2015</t>
   </si>
   <si>
+    <t>Cheryl S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r258114554-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1015,6 +1153,9 @@
     <t>We stayed here last night, and for the most part, we really liked it.  Check in was easy.  We did not take advantage of the evening light meal that was served, however, the menu posted on the fridge looked good.  The room was clean and comfortable.The pool, which was right by our room, closes at 9.  After 9, there were still noisy people at the pool, but a call to the front desk resolved that quickly.There were two things that we didn't like.  First, the information sheet for the hotel says they have "grab and go" breakfasts, and there were none.  The second thing is that the hair dryer in room 145 did not work.We stay near Tustin almost every Thursday during the school year, and with those two exceptions, liked it enough that if it was closer, we would probably stay here every week.More</t>
   </si>
   <si>
+    <t>CharlotteStaffs</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r257969601-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1027,6 +1168,9 @@
     <t>Brilliant time at the Stay bridge Suites in Lake Forest. The rooms are mini apartments with a bedroom bathroom kitchen and lounge in each. Very clean and attentive staff, I'd stay there again without a doubt if I was in Lake Forest again.</t>
   </si>
   <si>
+    <t>lawandes</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r257643778-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1045,6 +1189,9 @@
     <t>By far the best hotel property I have lived in so far in all my travels. And I have traveled a lot. This has been a warm, wonderful experience. The reception staff is always perky, peppy and helpful at all times. They are wonderful to speak to and they ensure that I had all I needed. I would definitely recommend this property any time you are in the Lake Forest area. I thoroughly enjoyed my time here and I would come back right here anytime I am in the area. Bobby, Erica, Jericho ...they go a long way to make the guest feel right at home. Especially guests that are away from home for extended times. A lot of hotel properties really have to learn a lot from these guys. Thank you. It has been a pleasure.Note: They have a manager's reception in the evening with complimentary food, beer, and soda in case you want to have a good snack before you head out shopping or doing some activity.More</t>
   </si>
   <si>
+    <t>Jaynell D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r251018456-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1066,6 +1213,9 @@
     <t>My husband has been staying at this Staybridge Suites for a few days every other week or so the past few months on business. I finally had the opportunity to go with him last week and I saw why he always chose this hotel.It is comfortable, well-kept, quiet and friendly. The room was large, combination bedroom- living room-kitchen. Also has a nice big desk for work. The bathroom was nice and large too. Bed was comfortable and windows had the best curtains to keep the room dark when sleeping late. The location is great, near many restaurants and stores and has a beautiful view of mountains, which are a short drive away. The free breakfast was very good and they have a nice variety.  There is also a light dinner 4 days a week - tacos, hamburgers, chicken wings, salad and the like, a nice offering. The grounds are pretty with fountain and gazebo as well as a basketball court. Everyone we encountered was very friendly, especially at the front desk.  I hope I have the opportunity to visit again sometime.  I know my husband already plans to go back.More</t>
   </si>
   <si>
+    <t>compassjohn</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r249690482-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1093,6 +1243,9 @@
     <t>Clean, comfortable and great breakfast. Evenings had a reception with some light bites. Close to highway, stores and restaurants.  Staff was great. Really a pleasant visit. Not a destination hotel, but good business hotel or for a family travelling through.  I did not know was that they are part of holiday inn chain. More</t>
   </si>
   <si>
+    <t>gregr462</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r248628376-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1114,6 +1267,9 @@
     <t>We spent two months at the hotel for corporate housing.  It was hard to believe, but not only did we get a great one bedroom suite, but we also had free breakfast and dinner included in our stay.  The staff was incredibly friendly and helpful.  We especially want to thank Bobby and Cleo at the lobby front desk.  Too bad that we were there during the winter, because the pool looked very inviting.  The courtyard is very relaxing, with a nice fountain and gazebo with barbecues available.  I would highly recommend this hotel to anyone looking for a hotel in the Irvine area.  Now we are spoiled from not having to cook and clean for two months.  Back to reality!More</t>
   </si>
   <si>
+    <t>samratmajumdar</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r244902825-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1135,6 +1291,9 @@
     <t>I stayed there for almost a month for a business trip and it was fun staying there. Beautiful &amp; bg rooms. Complementary breakfast &amp; dinner. Ample of options for breakfast. Complementary wi-fi. Big parking space. Small gym. Swimming pool. Basketball court. Friendly staff. Close to shopping center. Awesome experience. I would definitely recommend this hotel to my fellow travelers.More</t>
   </si>
   <si>
+    <t>Laura E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r240102040-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1159,6 +1318,9 @@
     <t>After leaving another hotel, our stay here was adequate. The front desk was very friendly and we had no problems with our room. The bathroom was clean as well as the rest of our room and there was hardly any noise from any of the other guests. Overall, our stay was OK.More</t>
   </si>
   <si>
+    <t>Mytewcents</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r237349683-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1180,6 +1342,9 @@
     <t>Tidy clean rooms, attentive and friendly staff, quiet location, elegant decor, complementary food and drink, complementary internet, and dvds at reception. Good location not far from shops, smoking area, plenty of parking. I will definitely stay here again. Thank you Cleo, Bobby, Mimi, Reggie, Claudia and Co.More</t>
   </si>
   <si>
+    <t>Danny J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r235380189-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1198,6 +1363,9 @@
     <t>My fiance, daughter and I stayed for a night on the 18th(Saturday) until we checked out on Sunday and this is my honest review. The rooms were a nice size comparable to a studio apartment and it included a 42 inch flat screen tv with a nice queen bed which was very comfortable. The fold out couch was a nice addition but the cushions were worn a little and had 2 6 inch tears in them (not a big deal but should be replaced someday) the carpet was newer and the room smelled great. It had a on counter burner for cooking food. (No oven) Dishwasher, microwave, toaster. The bathroom was very large with a nice sized closet and a bathtub/Shower combo. Overall it was a pleasant experience and I would recommend this to other family's with 1-2 kids. The breakfast buffet was a nice addition and was well worth the 3 trips we took. Waffles,scrambled eggs, sausage,cereal,toast and much much more to choose from! I always love a hotel that throws in free breakfast but this place went above and beyond my expectations :) Anytime I plan to visit the area this is my go to for me and my family. No need to look elsewhere. We paid $104.99 for a Saturday night which is well worth what you get at Staybridge Suites. Ohh yeah the staff went out of there way for us and was kind and courteous...My fiance, daughter and I stayed for a night on the 18th(Saturday) until we checked out on Sunday and this is my honest review. The rooms were a nice size comparable to a studio apartment and it included a 42 inch flat screen tv with a nice queen bed which was very comfortable. The fold out couch was a nice addition but the cushions were worn a little and had 2 6 inch tears in them (not a big deal but should be replaced someday) the carpet was newer and the room smelled great. It had a on counter burner for cooking food. (No oven) Dishwasher, microwave, toaster. The bathroom was very large with a nice sized closet and a bathtub/Shower combo. Overall it was a pleasant experience and I would recommend this to other family's with 1-2 kids. The breakfast buffet was a nice addition and was well worth the 3 trips we took. Waffles,scrambled eggs, sausage,cereal,toast and much much more to choose from! I always love a hotel that throws in free breakfast but this place went above and beyond my expectations :) Anytime I plan to visit the area this is my go to for me and my family. No need to look elsewhere. We paid $104.99 for a Saturday night which is well worth what you get at Staybridge Suites. Ohh yeah the staff went out of there way for us and was kind and courteous and made my family feel right at home. We will be back in the near future. Thanks guys and I hope this helps other with deciding on a hotel to pick. More</t>
   </si>
   <si>
+    <t>Devon W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r235106275-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1216,6 +1384,9 @@
     <t>I stay at this location at least one week a month for the last year and have never been disappointed.  The staff is outstanding, rooms are clean and comfortable. Free breakfast and evening dinner are decent. Overall always an excellent experience.  BOBBY, CLEO, CLAUDIA and MIMI are the best!More</t>
   </si>
   <si>
+    <t>RakishDriver</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r233207512-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1264,6 +1435,9 @@
     <t>STAY: 4nights/3days (first time)EVENT: Couple weekend get-awayROOM: Just as advertised, clean and you have what you need for the kitchen, bathroom and bedroomPLUS: 1. Free breakfast (you really have a variety to choose from, the meat varies daily, the servers are always checking for anything that need more, also i like having "real" plates, glass and utensils available)2. I was worried about cooking or heating up food because of the smell but suprisingly the vent did realllllly work.3. The place was NOT noisy nor unsafe, close to places that we planned on visiting.4. Staff was friendly and helpful. ( We called to have the top floor and end-of-hallway room and that what we got)WILL I GO BACK: YesMore</t>
   </si>
   <si>
+    <t>dms32588</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r220056845-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1288,6 +1462,9 @@
     <t>Disgusting smoking room assigned by mistake. Entire floor reeked! Room stuck of cloying air freshener attempting, but failing, to cover it up. Front desk attendant hesitated in moving us, taking 20 minutes to get approval from manager by phone. Once moved, the new room (on an entirely different wing of building) was more than adequate. More</t>
   </si>
   <si>
+    <t>AfshinM</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r218503359-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1309,6 +1486,9 @@
     <t>Nice property in Lake Side. 5 minute drive to a major shopping center with restaurants and stores (Target, Walmart). We had a two room suite. We stayed four nights at this property. The hotel is clean and staff are friendly. Breakfast was decent with hot and cold choices. There is a pool, basketball court, and free laundry.More</t>
   </si>
   <si>
+    <t>DisneylandFamily</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r208431661-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1330,6 +1510,9 @@
     <t>Booked this hotel for both it's rate and general location.  You are near every possible restaurant and national store.  Breakfast is excellent and the hotel is very quiet.  Rooms are borderline huge.  I have stayed in other Staybridge and these rooms are probably 80 sq ft bigger.  Fellow guests at least during our stay seemed to be families, many of whom were headed out to church during our breakfast.  The courtyard area was open and nice with grills and a large pool and good sized hot tub.Staff were always helpful when we needed them and took care of any request immediately.  The exact location is not visible from the main road, I drove right by it originally.  That said a really good hotel at a really good price.More</t>
   </si>
   <si>
+    <t>Noelm99</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r207438185-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1351,6 +1534,9 @@
     <t>I love this hotel! Breakfast and dinner is always awesome.  But the staff makes the place worth it.  Special thanks to Bobby he has been a great help to my entire stay, every hotel needs a guy like him!More</t>
   </si>
   <si>
+    <t>20Anne20</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r197845742-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1372,6 +1558,9 @@
     <t>Loved everything about this hotel:  really comfortable beds, modern and clean suites, well-equipped kitchen, excellent food at the breakfast buffet and the one evening reception attended, quiet location off the main roads, very friendly and helpful staff (thanks especially to Bobby).  Perfect temperature control in the rooms.  Plenty of free parking was also a plus in this area.  I look forward to coming back.More</t>
   </si>
   <si>
+    <t>pcha72</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r193668604-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1399,6 +1588,9 @@
     <t>My family stayed in a 2-bedroom suite for a week and enjoyed our stay overall.Pros: 1) Two full bathrooms in the suite.  2) Good daily breakfast. 3) Free laundry facilities. 4) Close to restaurants, grocery stores, and shopping.Cons: 1) The room was starting to show its age.  There was a crack in the shower, as if someone had punched the wall.  The bathroom floor was uneven.  2) The garbage bins are too small.  We often filled another bag and left it by the bin to be disposed of by Housekeeping.  3) Most of the staff was great, although we did encounter a couple employees in the breakfast area who ignored us when we pointed out the malfunctioning waffle batter contraption.  They did fix it, but didn't speak the entire time and acted like we were inconveniencing them.  4) Some of the long term guests were loud.  While in the parking lot, we heard a parent admonishing their children.  We would return if we find ourselves in the area again.More</t>
   </si>
   <si>
+    <t>B B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r191748431-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1417,6 +1609,9 @@
     <t>I needed a place to stay on a Friday night as I was on my way north of Los Angeles from San Diego.  Rather than battle the LA traffic at 5:00 pm on a Friday night, I elected to stay here for the night and make my escape from LA early Saturday morning.Check in was quick and painless.  The room was a large and comfortable suite with kitchenette, couch, and queen size bed.The front desk was helpful when I asked about nearby restaurants.  They directed me to a large shopping center that had plenty of options for dinner.I checked out of the hotel early Saturday morning and was on my way.The room was pleasant, the price was right, and I had just what I needed ... a place to stay until I could make my escape through LA.More</t>
   </si>
   <si>
+    <t>ElQuesoGrande</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r184146987-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1444,6 +1639,9 @@
     <t>This is a modern hotel with a variety of amenities, from basketball courts to a great swimming pool, to even the presence of barbeques in a garden-like setting. Breakfast was nice and totally satisfying. We were a bit disconcerted at first when we realized the hotel was in the middle of a seemingly deserted area, but were quickly put at ease when we learned that, a scant two blocks away, there was a commercial area with stores, supermarkets, and restaurants. We would certainly recommend this hotel if someone has business to transact in the surrounding area.More</t>
   </si>
   <si>
+    <t>Carolina A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r177736398-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1462,6 +1660,9 @@
     <t>Today is my last night here and I am so pleased with my stay that I would like to pass along this great experience. I am attending a training from Omnex that was happening at this hotel so staying here was the obvious choice. Anyhow, I was not disappointed at all with the place, the rooms are big, clean, comfortable, have a mini kitchen, large flat screen, and free-fast wireless! In addition, a great breakfast and dinner buffet were included on my stay. I travel at lot for business and leisure and this was the FIRST time that I had no consumption at a hotel, I haven't spent a penny more than what I prepaid for the room. Parking was also complementary and the gym has a excellent Treadmill! The only small downside is that the AC is kind of loud, but still I would give them a 95% approval. Thank you Staybridge staff for providing me with such a great stay! More</t>
   </si>
   <si>
+    <t>Roxanne L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r175925648-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1481,6 +1682,9 @@
   </si>
   <si>
     <t>I had to stay here for business and was BEYOND amazed!  The rooms are so comfy, so roomy and don't feel like a hotel at all.  They are equipped with a kitchenette, cookware, serveware and utentsils and a full-sized refrigerator.  The beds are very comfortable and come with plenty of pillows.  Rooms come with a DVD player in the room, so you can bring your own DVDs to watch or rent some from the front desk.  The bathrooms are great!  Big beautiful bathrooms with a nice, large closet, full-sized shower and bathtub.  The best part is they serve the best breakfast every morning and all-you-can-eat dinner.  The breakfast is not cheap continental breakfast either.  Oatmeal, eggs, bacon, sausage, fresh fruit and coffee, tea, milk and plenty of juice choices.  With dinner, FREE wine and beer on tap!  It was so convenient to have that meal option, since I did not know my way around the area.  Book your stay as soon as possible because this hotel is ALWAYS booked.  That's how awesome it is!!More</t>
+  </si>
+  <si>
+    <t>IntlSalesGuy</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r171781913-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
@@ -1514,6 +1718,9 @@
 Service: Everyone was friendly....My family and I stayed here for 3 nights in June for a vacation. I am a Priority Club Platinum member.Location: The hotel is located in a quiet business park in Lake Forest. It's close to the 241 (tollway) and only a few miles from the I-5. It appears the hotel caters primarily to business guests who have work in the area. There is not much going on in the immediate vicinity as it's mostly office buildings along Bake Parkway. There are some restaurants just north of the 241. As long as you have a car, you can find pretty much anything within a 10 minute drive. Check-In: We arrived around 9pm on a Friday night and it was quiet. Check-in was fast. The front desk staff was pretty helpful and we received some snack bags for the kids.Property/Room: The property looks relatively new and in excellent condition. We booked a 1 bedroom suite with 2 queen beds and received the same. The 1 bedroom suite is nice because you get a lot of room to spread out. The full kitchen is useful for preparing food for the kids. Amenities: The hotel offers a free hot breakfast, which has a good variety of your standard breakfast items (meat, eggs, potatoes, waffle-maker, etc.) There is also an outdoor pool, gym, basketball hoop, laundry facilities, and bbq grill if you want to cook your own food.Service: Everyone was friendly. We did not expect housekeeping services, as this is classified as an extended-stay property with limited service. However, we did get basic service like new towels and trash removal.Overall we enjoyed our stay. It was comfortable for everyone. It is a little off the beaten path for tourists visiting the LA area, but it's nice not having to deal with the crowds.More</t>
   </si>
   <si>
+    <t>Freddy B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r170956124-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1535,6 +1742,9 @@
     <t>I was staying in the stay bridge suites in lake forest CA due to a business trip and received the upmost customer care. I was left carless due to unfortunate circumstances and was instructed by the front desk where the local target store was located. I walked the 1 mile and ran into one of the front desk specialist who happened to be off from work. Claudia was the young lady's name gave me a ride back to the hotel even though she was technically not on the clock.  That there is awesome customer service to the finest. Thank you to Claudia and the staff of Staybridge in lake forest CAMore</t>
   </si>
   <si>
+    <t>Bob E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r170380501-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1562,6 +1772,9 @@
     <t>This is a good clean place to stay. The staff was nice, and the breakfast was OK. The rooms are very comfortable. But they have a major lack of internet bandwidth and it is extremely slow. I discussed with the front desk and they said they knew about the problem and were sorry they couldn't do anything about it. The wireless is actually very strong, but the internet line the hotel has just can't handle the capacity. I would recommend this place, unless you need to use the internet during your stay.More</t>
   </si>
   <si>
+    <t>MPH010</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r164056966-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1586,6 +1799,9 @@
     <t>It's perfect for business travelers who need to stay several days. With almost direct access to your room straight from the parking lot, you don't bother other travelers. The main room is the place where all get together for complimentary breakfast and diner. There's an open air pool and gym as well Rooms offer kitchen and two large TV screens. Wifi is complimentary. A place to recommend!More</t>
   </si>
   <si>
+    <t>fredly19</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r159470647-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1610,6 +1826,9 @@
     <t>We stayed here for 1 night when we had some work done on our house.  We were extremely satisfied!  We enjoyed the "happy hour" (hot dogs, chili, chips, salsa, drinks, and much more) and the breakfast buffet.  The attention to detail is amazing!  In addition, our suite was great (it was more like an apartment - 1 bedroom with a full kitchen).  If the need arises, I will not hesitate to book a stay here in the future!More</t>
   </si>
   <si>
+    <t>brendafjones</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r158704080-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1631,6 +1850,9 @@
     <t>My daughter stayed with her basketball team for 2 nights.  They loved the suites they stayed in and really enjoyed the entire set up of the property!!  They stated it was beautiful and fancy!!When the team got on the road heading back to Utah my daughter realized she left her homework, calculator and text books in a drawer in the room.  We called when she got home and the staff called me back after they had located the lost items.  They were very professional and thorough with the mailing of my daughters items!!  They were also careful to try to locate the least expensive way to ship the items to us and to let me know the amount that was charged to my credit card!  Thank you so very much for going the extra mile and for the remainder of your staff being honest by turning in the items!!We will definately stay there again!!!Brenda JonesMore</t>
   </si>
   <si>
+    <t>cvhs99</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r158697344-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1644,6 +1866,9 @@
   </si>
   <si>
     <t>I would recommend this hotel to anyone.  Easy choice.   I came here on vacation with my wife and baby and were so happy with the full kitchen that was in our suite.  It is very helpful to have a full size fridge for my son's milk and baby food.  We also were able to cook for lunch and dinner a couple of times too.  The rooms were very clean and modern with a flat screen TV.  There is free breakfast every day of the week and free dinner on the M-Th.  They change the menu daily which is great.The staff were super friendly and very helpful with helping us find things to do around the area and with directions.  They have lots of free amenities like WIFI and laundry machines.  Overall I was really happy with our stay here and so was my wife, who is a very picky customer.More</t>
+  </si>
+  <si>
+    <t>calgal1702</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r155524076-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
@@ -1677,6 +1902,9 @@
 For weekend guests, be aware that there is no on-site restaurant or bar, nor one next door, across the street, etc., so without a car you would have to walk along a...About 36 family and friends stayed here over a weekend for a wedding at the near-by Rancho Las Lomas.  We had a total of about 22 rooms, some studio, some 1 BR  suites.  Our room, a studio suite was large, clean and comfortable, with a K bed and sleeper sofa/sitting area, as well as a well-equipped kitchenette (everything but a stove).  We arrived early and enjoyed the evening social reception, served M - Th only.  Draft beer, wine, salad bar, chips, cookies, fruit, and varying entrees.  The two we saw were hamburgers and fries one night, and meatball sandwiches and fries the second night.  Breakfast, served every day, was varied and plentiful - eggs, meat, potatoes or biscuits, waffles, muffins, toast, bagels and english muffins, fruit, hot and cold cereal, rice and miso and juice.  Coffee and tea are available 24/7 along with some fresh whole fruit. The hotel has some nice areas for groups to gather, such as the library off the dining area, the sitting area in front of a fireplace, the trellissed courtyard, or at the pool/ hot tub.  We used them all throughout the weekend. The large pool and spa were clean and well-heated and towels were plentiful near-by.  The kids enjoyed them both.For weekend guests, be aware that there is no on-site restaurant or bar, nor one next door, across the street, etc., so without a car you would have to walk along a deserted busness park area about 1/2 mile or more to a large shopping center with plenty of food choices. The only other alternative for lunch or dinner Fri - Sun is pizza delivery or packaged food for sale from the hotel pantry.  In retrospect, I would have purchased some cold cuts or hamburgers/hot dogs for my weekend guests to barbeque in the courtyard area.The hotel staff were very friendly and accomodating to our large group, whether getting and printing directions to the rehearsal dinner and wedding venue or providing a cooler with ice for our family gatherings by the pool or in the courtyard.  They also provided the shuttle service to and from the wedding venue, as part of the hotel room block.  The drivers were courteous and the vans were clean.Thank you staff at the Staybridge Suites, Lake Forest!More</t>
   </si>
   <si>
+    <t>Ligaya72</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r154595270-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1698,6 +1926,9 @@
     <t>Is it the best hotel? No. But the best hotel in the area?  Likely.  I do my research.  Parking is free, breakfast is free, wifi free, rooms are unusually large, and the kitchen, although never got used; is convenient.  We booked a 2-bedroom with another couple, and my husband and I hardly realized we have friends in the hotel room.  The common area is fairly spacious.  We have several friends who stayed over in the various parts of the hotel, so we got a good read of the entire grounds.  I'd ask for the higher floor.    My husband used the gym, and the pool area is so-so.  I'm not too crazy about the hotels with superlong hallways, but the nicely laid-out exit/entry points help. Tip: to avoid the toll roads, exit on the 5 freeway, and take Bake Parkway East all the way.  It's only a few miles from there.    Staff is friendly.  Do not expect bell hops and such.  It's a Staybridge, after all.  It's a no-fuss, no muss clean and roomy hotel for the area.More</t>
   </si>
   <si>
+    <t>tiranMosko</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r151851222-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1719,6 +1950,9 @@
     <t>a very nice and warm hospitality from the hotel personal, i'm here for the third time and i'm very happy to come back again,the only thing that bothers me is the pillows and they are considered to be good ones, might be my issue with many half sized pillows around my head,you can connect your Laptop to the TV easily, the room is quite big and comfortable.the stuff is remarkable. and the breakfast is pretty rich.Enjoy.More</t>
   </si>
   <si>
+    <t>Marisa R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r147489444-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1740,6 +1974,9 @@
     <t>I have worked with the Staybridge Suites Irvine/Lake Forest for a couple of years now. Friendly staff, great rooms, meeting rooms available. Love the BBQ area &amp; pool.When working on Group travel and meetings the Managers Gloria &amp; Cleo are the most helpful I have found so far. Always ready to assist when needed and eager to make our business trip painless. I strongly recommend this Hotel if you are staying in this area. HOT &amp; FREE breakfast buffet is a plus (you do not get that from other local hotels in Lake Forest). They also have a mini van that can take you and pick you up from a couple of miles around the hotel, so in case you have no rental car or are sharing one... they can take you to local restaurants, grocery store, bank, movie theaters, etc.More</t>
   </si>
   <si>
+    <t>Danette P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r145406333-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1758,6 +1995,9 @@
     <t>Staff was super friendly and on top of everything! Breakfast &amp; week night meals we're fresh and accomidating. Hotel, its grounds &amp; rooms we're clean and well equipped. The only downfall was the bed we had (room #234) was very hard; painful for those above 40...haha. We had to place the comforter under the sheets/mattress cover for extra cushion and it actually worked great for nights 3 &amp; 4.Last Staybridge we stayed at in Vancouver, WA., the beds we're worthy of purchase in our own home. I truly hope they view this as a possible improvement and not considered "just another complainer". There was absolutely nothing else I would improve...meals we're far better here than the Vancouver stay if that helps with healing :)More</t>
   </si>
   <si>
+    <t>Josiah G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r144201521-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1779,6 +2019,9 @@
     <t>The staffe were so accomodating especially their manager cleo, hotel is very well equiped. Feels like home. They also have very good breakast with wide variety, plus wolfgang pucks coffee are complimentary in the breakfast area and on your room.More</t>
   </si>
   <si>
+    <t>MsSls</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r133047267-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1794,6 +2037,9 @@
     <t>June 2012</t>
   </si>
   <si>
+    <t>lfpdad</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r131055365-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1812,6 +2058,9 @@
     <t>My family just finished a two night stay in this hotel and we had an outstanding experience.  The staff was especially friendly and helpful, going out of their way to make sure we were treated well.  I was pleasantly surprised by the excellent service at all levels, from the front desk to housekeeping, but Mimi was especially helpful to us.  We enjoyed the breakfast and the evening reception very much. We liked the food and were impressed with the variety of choices we were offered.The room accommodations were perfect for our family—we especially appreciated being able to have a separate bedroom so that the kids could go to sleep while we stayed up and watched a movie (NOTE: We had the one bedroom suite, not just the basic studio suite. The basic suite does not have a separate room.)  The DVD player was a nice touch since our daughter could watch her usual videos.  Having the kitchen area made preparing a picnic lunch easy and we found all the items we needed.  My wife appreciated being able to wash some of the kids clothes before we left so that she didn’t have as much dirty laundry to take home.  Of course, my daughter loved the pool area but we thought the basketball court and the landscaping in the courtyard all made for a beautiful area to relax.  We would highly recommend it to anyone!More</t>
   </si>
   <si>
+    <t>Anita C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r130037897-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1830,6 +2079,9 @@
     <t>I took myself and two young daughters to stay Mother's Day Weekend. This is not my first time staying at a Staybridge Suites. The room was perfect. Everything neat, clean and a great shower! Staff very polite and attentive. The breakfast was excellent. The pool and pond was beautiful. Extremely quiet and clean. I have definaetly found my hotel when I stay in the Laguna area...The owner of this hotel should be extremely proud of their staff..this is an excellent find!More</t>
   </si>
   <si>
+    <t>willicarj</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r121505301-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1851,6 +2103,9 @@
     <t>I stayed here for 2 nights and enjoyed my stay.  New hotel, clean, spacious rooms (stayed in a 1 bedroom suite), wine and munchies each night (taco bar one night) at no cost, friendly staff.    I would definately stay here again.More</t>
   </si>
   <si>
+    <t>tentsleeper</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r120594722-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1872,6 +2127,9 @@
     <t>This Staybridge is in better shape than the one we had been in for two nights in Anaheim.  The basketball court was good and the pool was nice.  But as always, the Staybridge employees are what make these hotels a step above.  In particular, Erika H. at the front desk was super.More</t>
   </si>
   <si>
+    <t>TiroaFanaua</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r118778443-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1893,6 +2151,9 @@
     <t>I had to stay somewhere while moving from OC, California to Vegas, and while my house was closing escrow. I decided on Staybridge, it was close by and they had a pet friendly room! They have complimentary breakfast: it is pretty stocked up, and really good. At the wee hours, they will have a breakfast to go bag ready for guests to grab and go to work. They also offered dinner!!! yes, dinner was included every night of my stay, the best part, drinks like beer and wine was also included. My room was large, nice, quiet and clean. It had a fridge and kitchen area. The service: the friendliest staff I have ever seen in a hotel. From Chloe at the front desk to the help at the breakfast bar, to the cleaning staff, I give them an A. I was pleasantly surprise on my first day, when I forgot to buy some water, I called the front desk and ask how much for the bottle on the table, in my room, and he responded it is free, courtesy of the hotel!!! it is usually $2.50 at most hotel, if not more. In case you are hungry at night, or did not get a chance to eat, or you checked in later than dinner time, there is a vending machine at the front desk with some snacks. There was no more room in the breakfast area one morning, I...I had to stay somewhere while moving from OC, California to Vegas, and while my house was closing escrow. I decided on Staybridge, it was close by and they had a pet friendly room! They have complimentary breakfast: it is pretty stocked up, and really good. At the wee hours, they will have a breakfast to go bag ready for guests to grab and go to work. They also offered dinner!!! yes, dinner was included every night of my stay, the best part, drinks like beer and wine was also included. My room was large, nice, quiet and clean. It had a fridge and kitchen area. The service: the friendliest staff I have ever seen in a hotel. From Chloe at the front desk to the help at the breakfast bar, to the cleaning staff, I give them an A. I was pleasantly surprise on my first day, when I forgot to buy some water, I called the front desk and ask how much for the bottle on the table, in my room, and he responded it is free, courtesy of the hotel!!! it is usually $2.50 at most hotel, if not more. In case you are hungry at night, or did not get a chance to eat, or you checked in later than dinner time, there is a vending machine at the front desk with some snacks. There was no more room in the breakfast area one morning, I went outside and sat by the fountain. It was actually pretty relaxing. It was overlooking the barbecue area and the pool. So, I would definitely recommend this place to anyone travelling the area of the Spectrum, Mission Viejo and Foothill Ranch. a little out of the way from the 5Fwy, but close to the 241/261 toll road. A little pricey but well worth it, compare to what you get for your money, in the area.More</t>
   </si>
   <si>
+    <t>maxinteger</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r118082492-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1914,6 +2175,9 @@
     <t>I like everything about this hotel but the smell of carpet shampoo in my room was very strong and nausiating. I opened the windows to let some fresh air in. The location is great and staff was friendly. I will probably stay here again but if the room smells like carpet shampoo I will go somewhere else next time.I didn't ask for another room assuming that all rooms where recently cleaned and will smell the same.More</t>
   </si>
   <si>
+    <t>Going4fun</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r116324233-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1935,6 +2199,9 @@
     <t>We stayed in a 1 bedroom king suite.  It had a roomy full kitchen, a roomy full living room with tv, a roomy full bedroom with another tv and king bed that was so great to sleep on, a roomy large bathroom and closet.  It had 2 desks with free wifi.  We were able to entertain and cook in our room.  But we ate breakfast each morning at the complementary buffet the hotel provided which served a wonderful selection of fine breakfast foods.  If you couldn't stay for breakfast they even provided a bagged breakfast.  The hotel was clean and the staff were great except the breakfast staff seemed bothered or put out.  There are no freeways right by the hotel so the noise is down.  The pool looked nice and it had BBQ's to use as well as basketball hoops, you could get a ball from the hotel.  It offered a nice workout room along with washer/dryer use.  Nice roomy stay for the money but note we got a deal with an early advanced purchase.More</t>
   </si>
   <si>
+    <t>EarlyBuyer</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r114578028-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1954,6 +2221,9 @@
   </si>
   <si>
     <t>Stayed at the hotel checking in Friday, checked out Sunday for a friends wedding that was held in the area. The hotel was easy to find, only a couple of turns after exiting I-405 (although it's 6-ish miles off of the interstate). Many, many restuarant and shopping options within 1 mile of the hotel. Entire area is newer and well maintained.More</t>
+  </si>
+  <si>
+    <t>Pola-Canada</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r108236389-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
@@ -1985,6 +2255,9 @@
 We fell in love with California. This trip was to celebrate our 10th wedding anniversary. It began in San Francisco/Napa Valley and after an amazing drive on...Staybridge Suites hotels - our #1 choice!!! We have stayed in Lincolnshire, IL in the past  and recently in Fairfield, CA and this location in Lake Forest during our 12-day California journey.  Every time it's the same great experience in Staybridge hotel. We know exactly what to expect from Staybridge Suites. They are the best value for your money! Other hotels charge extra for parking, so it was very important to us having a free parking for the rental car.We enjoy having a full kitchen in our room (including a dishwasher). This hotel's location was perfect for us (we wanted to be close to both LA and San Diego). Parking is free, breakfast is included and 4 times during the week (except weekends), they offer a free dinner and beer. Rooms are spacious and clean. This hotel is in a very nice area of Lake Forest. Our flight was leaving LA late in the evening, and the hotel mgr was so nice to give us a late check out. Thank you Rachael! Check in was easy, front desk staff very friendly. Erika was so nice, she even phoned our room to make sure everything was ok. It's the little things that make a difference!  We recommend this hotel and would definitely return. We fell in love with California. This trip was to celebrate our 10th wedding anniversary. It began in San Francisco/Napa Valley and after an amazing drive on Highway 1 along the coast, we got to Lake Forest which was a perfect location to visit LA and to San Diego.More</t>
   </si>
   <si>
+    <t>HollyRNTennessee</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r108030577-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -2006,6 +2279,9 @@
     <t>Excellent, plush, quiet, cozy, trendy... with the most fabulous and soft KING sized beds. Reception four nights per week and a hot/cold complimentary breakfast buffet seven mornings per week. Pool, jacuzzi, basketball court, free washers/dryers... terrific kitchenette with HUGE bathrooms, convenient parking. No dog potty area, but plenty of nice areas with grass nearby to walk your little ones. Very polite and efficient front office staff, sales mgr very accommodating as well. Stayed 3 months at this hotel and highly recommend for your stay in this area... not cheap, but so worth it.More</t>
   </si>
   <si>
+    <t>RJay4</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r103099031-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -2027,6 +2303,9 @@
     <t>Why do I like this Staybridge?  1) It's quiet - I'm sensitive to noise and always get a good night's sleep.  The HVAC unit, often problematic for me in hotels, is ideal - it can be set to have the fan on always, while at the same time the heat or AC still work.   2) Nice room!  Kitchenette with refrigerator, microwave, dishwasher, etc.  Comfy bed.  3) Nice location - in a quiet backwater but still close to the action.  4)  Good breakfast - several hot items plus cereals, waffles, etc.  5) They even serve complimentary dinner from 5:30 to 7:30 pm Mon-Fri.  Sure, this isn't gourmet fare, but it's still nice if you just don't want to bother to go out or don't have time.  Complimentary beer and wine with dinner, too.  6) Good rates for the area, especially if you get a corporate rate.  7) Free wireless internet.If I'm in the Lake Forest area, I don't even consider anywhere else.More</t>
   </si>
   <si>
+    <t>sabrinaml</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r80584132-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -2048,6 +2327,9 @@
     <t>I booked this hotel because the location was fairly close to the Verizon Amphitheatre.  The room was lovely.  It was clean and comfortable.  The room was fully stocked with all the amenities needed for an extended stay.  It even had a dishwasher!  Guest laundry facilities were complimentary (never heard of).   In addition, this hotel is in a residential location off the main road, so it was very quiet.  The front desk staff was very helpful about informing me of the local attractions and providing me with a map as well.  The price was better than any decent hotel I looked into in Irvine area.  Parking was plentiful and free (a plus).  The free hot breakfast was great with plenty to chose from.  Will definitely stay again for any event in the Irvine area!More</t>
   </si>
   <si>
+    <t>cootdawg</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r76729772-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -2067,6 +2349,9 @@
   </si>
   <si>
     <t>My family stayed at this hotel with my 10 year old daughter's soccer team for the West Coast soccer tournament. Our room had a 2 burner range, a mircrowave, and a full size refrigerator w/ ice maker. The price of the room included breakfast which had a nice selection of fruit, cereals, and pastries as well as hot items such as, scrambled eggs, bacon, and waffles.     Adjacent to the lobby was a patio with BBQ grills, pool, several tables and chairs, and a basketball court! Our team had an impromptu BBQ and the staff was so unbelievably accommodating. Especially Cassie, one of the managers. She went above and beyond to make sure our needs were met. Her service rivals that of any 5 star hotel!  Thanks Cassie!!!!!More</t>
+  </si>
+  <si>
+    <t>Balad</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r72206178-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
@@ -2097,6 +2382,9 @@
 Restaurants, retail, a movie theatre and a 24 Hour Fitness Sport exist within walking distance in nearby...The high cost of land makes extended stay hotels hard to come by in south Orange County as there is the expectation of free parking.  This impeccably maintained, well-managed property, nestled in the county’s most inland reaches, was a great find.  We are in the fifth week of our stay in a well-appointed, one-bedroom suite.  The room is equipped with a granite full kitchen comfy bedroom and sleeper-sofa-equipped living room.  Housekeeping is thorough and consistent.  The best aspect of this hotel is the staff.  The front desk folks dutifully attended to every request with the utmost professionalism.  And, believe me; with being in the middle of a relocation with a pregnant wife we had many, many requests.Onsite amenities include a business center, barbeque area, a small cardio fitness center and pool.  The complimentary breakfast bar hits and misses with regard to food quality.  Some morning the hotel offers hearty country breakfast fare: eggs, sausage, biscuits and gravy.  Other mornings; corn beef hash.  Who serves corn beef hash other than third world prisons?  Even the military hasn’t served this garbage in 20 years!  Free or not, this is unacceptable as the only meat option!Another small complaint is the old fashion TVs.  There is something incongruous about having a new property with tube TVs.  I didn’t even know they still made these things!Restaurants, retail, a movie theatre and a 24 Hour Fitness Sport exist within walking distance in nearby Foothill Ranch.  This area has been hit hard by the economic downturn as evidence by the rundown condition of the movie theatre and the almost completely abandoned auto mall.  The 24 Hour Fitness is the most rundown and dated one I have ever seen.In the end analysis, I can’t say enough good things about the management staff here at the hotel.  I don’t expect Cleo, the Operations Manager or the General Manager to be here very long.  The company will promote them or someone else will lure them away with a better benefit package; they are that good!More</t>
   </si>
   <si>
+    <t>TravelAllMyDays</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r53118876-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -2124,6 +2412,9 @@
 The hotel is very close to the local business area and...Because this hotel is new, there isn't much to find fault with at all.  The hotel, rooms and grounds are beautiful.  The rooms have the little kitchenette with the refrigerator and freezer so you can load up at the grocery store and cook for yourself.  Coffeemaker, dishes, utensils, etc. are all there.  No table for a family meal in the one bedroom suite, but a small counter with two chairs.  The living room is small, but more than ample.  Lots desk space if you are working.  The shower, though dark, had great water pressure.  Older TVs with not so great a picture, which is odd for such a new hotel, but it didn't bother us much.  All entrances require a key-card, so this place is safety-minded.The BBQs, basketball court, pool and jacuzzi are all located in the center of the hotel and make for a wonderful place to hangout with family if you have downtime, like in between soccer games or sightseeing.  I think if we were staying longer than one night, this hotel would be perfect because you can save a lot of money cooking for yourselves.  They also had the menus for Pizza Hut and Papa John's and if you dialed room service, it would connect you right with Papa John's.  Nice that they both deliver to your room and you have a menu to reference.The hotel is very close to the local business area and right up the street you can drive to the mall with LOTS of restaurant and store choices.  I saw a Chili's right on the corner, but counted at least 5 other large eateries in the main area.  VERY close to Trabuco Hills High School, Santa Margarita High School, USSD, and many other kid activities that may have you out of town for a weekend of tournaments or games.My only complaint was that the beds were truly uncomfortable.  Hard and SMALL.  They didn't seem like queen-sized beds to me and whoever made them up forgot that the sheets should go up to the top of the bed.  We had to undo the sheets at the bottom of the bed just to cover up to our shoulders and we are not tall!  Lots of pillows to choose from, so that is a plus.  The wireless internet was a little slow for my taste, but it was FREE so there you go.The front desk "manager in training" that checked us in was NOT friendly, but he wasn't rude either.  The breakfast they served was really nice with scrambled eggs, pancakes, bacon, bagels, toast, make-you-own waffles, all kinds of fruit, cottage cheese, yogurt, coffee, tea, juices, etc.  They served until 10:30 on the weekends, so that is perfect.  They even had cans of soda on ice for the taking.  Beautiful little dining room with a fireplace and cozy seating, or you could eat outside or in your room if you wanted.  I am sure the Mon-Thurs evening service is worthwhile, but we stayed on a Friday night.I would definitely stay here again.  Very nice hotel with so much within driving distance!More</t>
   </si>
   <si>
+    <t>mom2saurus</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r46239996-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -2145,6 +2436,9 @@
     <t>We stayed here because it was the cheapest and best rated room in the Irvine area that I could find with a full kitchen.  The hotel is 3 years old so everything looks brand new.  We got a great rate (called the hotel the morning we checked in).  The breakfast buffet was really yummy and they served rice for breakfast too which is a plus.  On certain days during the week they also served something around dinner time.  We only had to provide our own food for lunch.  Service was excellent and I would stay there again.  At the time we had a 6 month old and a 2 and 1/2 year old.  The only downside is that the closest highway is a toll road.  It is a little ways to the other highway but we never used the toll road.More</t>
   </si>
   <si>
+    <t>Emufi</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r33616410-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -2166,6 +2460,9 @@
     <t>Clean rooms, attentive service, fast and reliable high-speed (free) wireless internet, daily appetizers with wine &amp; beer (Mon-Thu), free shuttle service to local businesses within a 5 mile loop...so much value packed into a small hotel.  Colleagues have stayed at all the extended stay properties in this region and also rate the Staybridge Suites as their preferred choice in the Lake Forest area.  The Front Office Manager, Cleo, in particular was a great ambassador for the hotel.  Excellent service and very professional.More</t>
   </si>
   <si>
+    <t>TravelMomJapan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r27321983-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -2185,6 +2482,9 @@
   </si>
   <si>
     <t>I selected this hotel as a "home base" to use while visiting friends and family in the area. I did a bit of research before selecting this hotel, but it basically came down to a random selection between this and the other nearby suite hotels. I couldn't have been happier with my choice! The rooms are large and bright, the staff is friendly, and the location is great for getting around South Orange County. The hotel is located at the edge of a business park so it's off the main drag, but just minutes from a large shopping center with a supermarket, restaurants, Target, movie theater, etc. The hotel also has easy access to main freeways, the tollway and the Irvine Spectrum shopping center. The rooms with kitchenettes have a full size fridge, microwave and stove for in-room cooking, but the hotel also offers a complementary breakfast (daily) and "happy hour" light dinner and drinks (M - Th). The happy hour food was substantial -- real food that was enough for dinner (not just chips and popcorn). The outdoor pool was clean and heated (even in the off-season), and the inner courtyard also has BBQs and a sport court. Most of the guests seemed to be there for business, so the hotel is quiet during the day and on weekends. My children loved the pool and all the space in the courtyard area, and I was happy to have a...I selected this hotel as a "home base" to use while visiting friends and family in the area. I did a bit of research before selecting this hotel, but it basically came down to a random selection between this and the other nearby suite hotels. I couldn't have been happier with my choice! The rooms are large and bright, the staff is friendly, and the location is great for getting around South Orange County. The hotel is located at the edge of a business park so it's off the main drag, but just minutes from a large shopping center with a supermarket, restaurants, Target, movie theater, etc. The hotel also has easy access to main freeways, the tollway and the Irvine Spectrum shopping center. The rooms with kitchenettes have a full size fridge, microwave and stove for in-room cooking, but the hotel also offers a complementary breakfast (daily) and "happy hour" light dinner and drinks (M - Th). The happy hour food was substantial -- real food that was enough for dinner (not just chips and popcorn). The outdoor pool was clean and heated (even in the off-season), and the inner courtyard also has BBQs and a sport court. Most of the guests seemed to be there for business, so the hotel is quiet during the day and on weekends. My children loved the pool and all the space in the courtyard area, and I was happy to have a place to stay with separate bedroom and living room space. The hotel is not particularly close to Disneyland or the beach, but it surpassed my expectations in terms of facilities and value-for-money. I would highly recommend the Staybridge Suites to anyone who needs a "home away from home" when in the Lake Forest area for business or visiting friends and family.More</t>
+  </si>
+  <si>
+    <t>mloper</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d609553-r5394474-Staybridge_Suites_Irvine_Spectrum_Lake_Forest-Lake_Forest_California.html</t>
@@ -2707,43 +3007,47 @@
       <c r="A2" t="n">
         <v>53930</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="n">
@@ -2763,50 +3067,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>53930</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="n">
@@ -2824,50 +3132,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>53930</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="O4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P4" t="n">
         <v>5</v>
@@ -2887,50 +3199,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>53930</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>70</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L5" t="s">
+        <v>75</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
         <v>68</v>
       </c>
-      <c r="J5" t="s">
-        <v>69</v>
-      </c>
-      <c r="K5" t="s">
-        <v>70</v>
-      </c>
-      <c r="L5" t="s">
-        <v>71</v>
-      </c>
-      <c r="M5" t="n">
-        <v>5</v>
-      </c>
-      <c r="N5" t="s">
-        <v>65</v>
-      </c>
       <c r="O5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P5" t="n">
         <v>5</v>
@@ -2950,50 +3266,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>53930</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>77</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="L6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -3007,50 +3327,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>53930</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>84</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="J7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="K7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="L7" t="s">
+        <v>89</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
         <v>83</v>
       </c>
-      <c r="M7" t="n">
-        <v>5</v>
-      </c>
-      <c r="N7" t="s">
-        <v>78</v>
-      </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P7" t="n">
         <v>5</v>
@@ -3070,50 +3394,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>53930</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>90</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="J8" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="K8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="L8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -3127,50 +3455,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>53930</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>98</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="J9" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="K9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="L9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="O9" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -3184,50 +3516,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>53930</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>105</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="J10" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="K10" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="L10" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="O10" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="n">
@@ -3247,50 +3583,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>53930</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>111</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="J11" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="K11" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="L11" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="M11" t="n">
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="O11" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="n">
@@ -3310,50 +3650,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>53930</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>118</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="J12" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="K12" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="L12" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="O12" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -3371,41 +3715,45 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>53930</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>124</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="J13" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="K13" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="L13" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
@@ -3424,50 +3772,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>53930</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>130</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="J14" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="K14" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="L14" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -3485,50 +3837,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>53930</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>137</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="J15" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="K15" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="L15" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P15" t="n">
         <v>3</v>
@@ -3546,50 +3902,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>53930</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>144</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="J16" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="K16" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="L16" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -3603,50 +3963,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>53930</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>150</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="J17" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="K17" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="L17" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="O17" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -3660,50 +4024,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>53930</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>157</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="J18" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="K18" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="L18" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="O18" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="n">
@@ -3723,50 +4091,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>53930</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>165</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="J19" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="K19" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="L19" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="O19" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P19" t="n">
         <v>5</v>
@@ -3786,50 +4158,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>53930</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>171</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="J20" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="K20" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="L20" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="O20" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P20" t="n">
         <v>4</v>
@@ -3849,50 +4225,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>53930</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>178</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="J21" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="K21" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="L21" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="O21" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P21" t="n">
         <v>5</v>
@@ -3910,50 +4290,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>53930</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>186</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>167</v>
+        <v>188</v>
       </c>
       <c r="J22" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="K22" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="L22" t="s">
-        <v>170</v>
+        <v>191</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="O22" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -3967,50 +4351,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>170</v>
+        <v>191</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>53930</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>192</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>171</v>
+        <v>193</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
       <c r="J23" t="s">
-        <v>173</v>
+        <v>195</v>
       </c>
       <c r="K23" t="s">
-        <v>174</v>
+        <v>196</v>
       </c>
       <c r="L23" t="s">
-        <v>175</v>
+        <v>197</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="O23" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="n">
@@ -4030,50 +4418,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>175</v>
+        <v>197</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>53930</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>199</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>177</v>
+        <v>200</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>178</v>
+        <v>201</v>
       </c>
       <c r="J24" t="s">
-        <v>179</v>
+        <v>202</v>
       </c>
       <c r="K24" t="s">
-        <v>180</v>
+        <v>203</v>
       </c>
       <c r="L24" t="s">
-        <v>181</v>
+        <v>204</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
       <c r="O24" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -4087,50 +4479,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>183</v>
+        <v>206</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>53930</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>207</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>185</v>
+        <v>209</v>
       </c>
       <c r="J25" t="s">
-        <v>186</v>
+        <v>210</v>
       </c>
       <c r="K25" t="s">
-        <v>187</v>
+        <v>211</v>
       </c>
       <c r="L25" t="s">
-        <v>188</v>
+        <v>212</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
       <c r="O25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P25" t="n">
         <v>5</v>
@@ -4150,50 +4546,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>53930</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>214</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>190</v>
+        <v>215</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="J26" t="s">
-        <v>192</v>
+        <v>217</v>
       </c>
       <c r="K26" t="s">
-        <v>193</v>
+        <v>218</v>
       </c>
       <c r="L26" t="s">
-        <v>194</v>
+        <v>219</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="O26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="n">
@@ -4213,50 +4613,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>194</v>
+        <v>219</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>53930</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>220</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>195</v>
+        <v>221</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>196</v>
+        <v>222</v>
       </c>
       <c r="J27" t="s">
-        <v>197</v>
+        <v>223</v>
       </c>
       <c r="K27" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="L27" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>200</v>
+        <v>226</v>
       </c>
       <c r="O27" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P27" t="n">
         <v>5</v>
@@ -4274,50 +4678,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>53930</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>227</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>201</v>
+        <v>228</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="J28" t="s">
-        <v>203</v>
+        <v>230</v>
       </c>
       <c r="K28" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="L28" t="s">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>206</v>
+        <v>233</v>
       </c>
       <c r="O28" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -4335,50 +4743,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>205</v>
+        <v>232</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>53930</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>234</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>207</v>
+        <v>235</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>208</v>
+        <v>236</v>
       </c>
       <c r="J29" t="s">
-        <v>209</v>
+        <v>237</v>
       </c>
       <c r="K29" t="s">
-        <v>210</v>
+        <v>238</v>
       </c>
       <c r="L29" t="s">
-        <v>211</v>
+        <v>239</v>
       </c>
       <c r="M29" t="n">
         <v>2</v>
       </c>
       <c r="N29" t="s">
-        <v>212</v>
+        <v>240</v>
       </c>
       <c r="O29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -4390,56 +4802,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>213</v>
+        <v>241</v>
       </c>
       <c r="X29" t="s">
-        <v>214</v>
+        <v>242</v>
       </c>
       <c r="Y29" t="s">
-        <v>215</v>
+        <v>243</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>53930</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>244</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>216</v>
+        <v>245</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>217</v>
+        <v>246</v>
       </c>
       <c r="J30" t="s">
-        <v>218</v>
+        <v>247</v>
       </c>
       <c r="K30" t="s">
-        <v>219</v>
+        <v>248</v>
       </c>
       <c r="L30" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>221</v>
+        <v>250</v>
       </c>
       <c r="O30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -4453,50 +4869,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>222</v>
+        <v>251</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>53930</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>252</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>224</v>
+        <v>254</v>
       </c>
       <c r="J31" t="s">
-        <v>225</v>
+        <v>255</v>
       </c>
       <c r="K31" t="s">
-        <v>226</v>
+        <v>256</v>
       </c>
       <c r="L31" t="s">
-        <v>227</v>
+        <v>257</v>
       </c>
       <c r="M31" t="n">
         <v>3</v>
       </c>
       <c r="N31" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
       <c r="O31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -4512,56 +4932,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
       <c r="X31" t="s">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="Y31" t="s">
-        <v>231</v>
+        <v>261</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>53930</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>262</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>232</v>
+        <v>263</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>233</v>
+        <v>264</v>
       </c>
       <c r="J32" t="s">
-        <v>234</v>
+        <v>265</v>
       </c>
       <c r="K32" t="s">
-        <v>235</v>
+        <v>266</v>
       </c>
       <c r="L32" t="s">
-        <v>236</v>
+        <v>267</v>
       </c>
       <c r="M32" t="n">
         <v>3</v>
       </c>
       <c r="N32" t="s">
-        <v>206</v>
+        <v>233</v>
       </c>
       <c r="O32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P32" t="n">
         <v>4</v>
@@ -4579,56 +5003,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>237</v>
+        <v>268</v>
       </c>
       <c r="X32" t="s">
-        <v>238</v>
+        <v>269</v>
       </c>
       <c r="Y32" t="s">
-        <v>239</v>
+        <v>270</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>53930</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>271</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>240</v>
+        <v>272</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>241</v>
+        <v>273</v>
       </c>
       <c r="J33" t="s">
-        <v>242</v>
+        <v>274</v>
       </c>
       <c r="K33" t="s">
-        <v>243</v>
+        <v>275</v>
       </c>
       <c r="L33" t="s">
-        <v>244</v>
+        <v>276</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>206</v>
+        <v>233</v>
       </c>
       <c r="O33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -4642,50 +5070,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>244</v>
+        <v>276</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>53930</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>277</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>245</v>
+        <v>278</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>246</v>
+        <v>279</v>
       </c>
       <c r="J34" t="s">
-        <v>247</v>
+        <v>280</v>
       </c>
       <c r="K34" t="s">
-        <v>248</v>
+        <v>281</v>
       </c>
       <c r="L34" t="s">
-        <v>249</v>
+        <v>282</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>250</v>
+        <v>283</v>
       </c>
       <c r="O34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="n">
@@ -4703,50 +5135,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>251</v>
+        <v>284</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>53930</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>285</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>252</v>
+        <v>286</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>253</v>
+        <v>287</v>
       </c>
       <c r="J35" t="s">
-        <v>254</v>
+        <v>288</v>
       </c>
       <c r="K35" t="s">
-        <v>255</v>
+        <v>289</v>
       </c>
       <c r="L35" t="s">
-        <v>256</v>
+        <v>290</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>257</v>
+        <v>291</v>
       </c>
       <c r="O35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
@@ -4766,50 +5202,54 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>256</v>
+        <v>290</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>53930</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>292</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>258</v>
+        <v>293</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>259</v>
+        <v>294</v>
       </c>
       <c r="J36" t="s">
-        <v>260</v>
+        <v>295</v>
       </c>
       <c r="K36" t="s">
-        <v>261</v>
+        <v>296</v>
       </c>
       <c r="L36" t="s">
-        <v>262</v>
+        <v>297</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>263</v>
+        <v>298</v>
       </c>
       <c r="O36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P36" t="n">
         <v>5</v>
@@ -4827,50 +5267,54 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>264</v>
+        <v>299</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>53930</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>300</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>265</v>
+        <v>301</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>266</v>
+        <v>302</v>
       </c>
       <c r="J37" t="s">
-        <v>267</v>
+        <v>303</v>
       </c>
       <c r="K37" t="s">
-        <v>255</v>
+        <v>289</v>
       </c>
       <c r="L37" t="s">
-        <v>268</v>
+        <v>304</v>
       </c>
       <c r="M37" t="n">
         <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>269</v>
+        <v>305</v>
       </c>
       <c r="O37" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="n">
@@ -4890,50 +5334,54 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>268</v>
+        <v>304</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>53930</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>306</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>270</v>
+        <v>307</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>271</v>
+        <v>308</v>
       </c>
       <c r="J38" t="s">
-        <v>272</v>
+        <v>309</v>
       </c>
       <c r="K38" t="s">
-        <v>273</v>
+        <v>310</v>
       </c>
       <c r="L38" t="s">
-        <v>274</v>
+        <v>311</v>
       </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
       <c r="N38" t="s">
-        <v>269</v>
+        <v>305</v>
       </c>
       <c r="O38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
@@ -4945,56 +5393,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>275</v>
+        <v>312</v>
       </c>
       <c r="X38" t="s">
-        <v>276</v>
+        <v>313</v>
       </c>
       <c r="Y38" t="s">
-        <v>277</v>
+        <v>314</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>53930</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>315</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>278</v>
+        <v>316</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>279</v>
+        <v>317</v>
       </c>
       <c r="J39" t="s">
-        <v>280</v>
+        <v>318</v>
       </c>
       <c r="K39" t="s">
-        <v>281</v>
+        <v>319</v>
       </c>
       <c r="L39" t="s">
-        <v>282</v>
+        <v>320</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>250</v>
+        <v>283</v>
       </c>
       <c r="O39" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="n">
@@ -5012,50 +5464,54 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>283</v>
+        <v>321</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>53930</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>322</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>284</v>
+        <v>323</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>285</v>
+        <v>324</v>
       </c>
       <c r="J40" t="s">
-        <v>280</v>
+        <v>318</v>
       </c>
       <c r="K40" t="s">
-        <v>286</v>
+        <v>325</v>
       </c>
       <c r="L40" t="s">
-        <v>287</v>
+        <v>326</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>250</v>
+        <v>283</v>
       </c>
       <c r="O40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P40" t="n">
         <v>4</v>
@@ -5075,50 +5531,54 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>288</v>
+        <v>327</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>53930</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>328</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>289</v>
+        <v>329</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>290</v>
+        <v>330</v>
       </c>
       <c r="J41" t="s">
-        <v>291</v>
+        <v>331</v>
       </c>
       <c r="K41" t="s">
-        <v>292</v>
+        <v>332</v>
       </c>
       <c r="L41" t="s">
-        <v>293</v>
+        <v>333</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>250</v>
+        <v>283</v>
       </c>
       <c r="O41" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
@@ -5136,50 +5596,54 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>294</v>
+        <v>334</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>53930</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>335</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>295</v>
+        <v>336</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>296</v>
+        <v>337</v>
       </c>
       <c r="J42" t="s">
-        <v>291</v>
+        <v>331</v>
       </c>
       <c r="K42" t="s">
-        <v>297</v>
+        <v>338</v>
       </c>
       <c r="L42" t="s">
-        <v>298</v>
+        <v>339</v>
       </c>
       <c r="M42" t="n">
         <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>250</v>
+        <v>283</v>
       </c>
       <c r="O42" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="P42" t="n">
         <v>4</v>
@@ -5197,50 +5661,54 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>299</v>
+        <v>340</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>53930</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>341</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>300</v>
+        <v>342</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>301</v>
+        <v>343</v>
       </c>
       <c r="J43" t="s">
-        <v>302</v>
+        <v>344</v>
       </c>
       <c r="K43" t="s">
-        <v>303</v>
+        <v>345</v>
       </c>
       <c r="L43" t="s">
-        <v>304</v>
+        <v>346</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>257</v>
+        <v>291</v>
       </c>
       <c r="O43" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="s"/>
@@ -5254,50 +5722,54 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>304</v>
+        <v>346</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>53930</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>347</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>305</v>
+        <v>348</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>306</v>
+        <v>349</v>
       </c>
       <c r="J44" t="s">
-        <v>307</v>
+        <v>350</v>
       </c>
       <c r="K44" t="s">
-        <v>308</v>
+        <v>351</v>
       </c>
       <c r="L44" t="s">
-        <v>309</v>
+        <v>352</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>310</v>
+        <v>353</v>
       </c>
       <c r="O44" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="s"/>
@@ -5315,50 +5787,54 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>311</v>
+        <v>354</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>53930</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>355</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>312</v>
+        <v>356</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="J45" t="s">
-        <v>314</v>
+        <v>358</v>
       </c>
       <c r="K45" t="s">
-        <v>315</v>
+        <v>359</v>
       </c>
       <c r="L45" t="s">
-        <v>316</v>
+        <v>360</v>
       </c>
       <c r="M45" t="n">
         <v>4</v>
       </c>
       <c r="N45" t="s">
-        <v>317</v>
+        <v>361</v>
       </c>
       <c r="O45" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P45" t="n">
         <v>4</v>
@@ -5376,50 +5852,54 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>316</v>
+        <v>360</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>53930</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>362</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>318</v>
+        <v>363</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>319</v>
+        <v>364</v>
       </c>
       <c r="J46" t="s">
-        <v>320</v>
+        <v>365</v>
       </c>
       <c r="K46" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="L46" t="s">
-        <v>321</v>
+        <v>366</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>322</v>
+        <v>367</v>
       </c>
       <c r="O46" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="n">
@@ -5437,50 +5917,54 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>321</v>
+        <v>366</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>53930</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>368</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>323</v>
+        <v>369</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>324</v>
+        <v>370</v>
       </c>
       <c r="J47" t="s">
-        <v>325</v>
+        <v>371</v>
       </c>
       <c r="K47" t="s">
-        <v>326</v>
+        <v>372</v>
       </c>
       <c r="L47" t="s">
-        <v>327</v>
+        <v>373</v>
       </c>
       <c r="M47" t="n">
         <v>4</v>
       </c>
       <c r="N47" t="s">
-        <v>263</v>
+        <v>298</v>
       </c>
       <c r="O47" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P47" t="s"/>
       <c r="Q47" t="n">
@@ -5500,50 +5984,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>328</v>
+        <v>374</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>53930</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>375</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>329</v>
+        <v>376</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>330</v>
+        <v>377</v>
       </c>
       <c r="J48" t="s">
-        <v>325</v>
+        <v>371</v>
       </c>
       <c r="K48" t="s">
-        <v>331</v>
+        <v>378</v>
       </c>
       <c r="L48" t="s">
-        <v>332</v>
+        <v>379</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>263</v>
+        <v>298</v>
       </c>
       <c r="O48" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P48" t="s"/>
       <c r="Q48" t="n">
@@ -5561,50 +6049,54 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>332</v>
+        <v>379</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>53930</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>380</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>333</v>
+        <v>381</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>334</v>
+        <v>382</v>
       </c>
       <c r="J49" t="s">
-        <v>335</v>
+        <v>383</v>
       </c>
       <c r="K49" t="s">
-        <v>336</v>
+        <v>384</v>
       </c>
       <c r="L49" t="s">
-        <v>337</v>
+        <v>385</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>263</v>
+        <v>298</v>
       </c>
       <c r="O49" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P49" t="n">
         <v>5</v>
@@ -5624,50 +6116,54 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>338</v>
+        <v>386</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>53930</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>387</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>339</v>
+        <v>388</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>340</v>
+        <v>389</v>
       </c>
       <c r="J50" t="s">
-        <v>341</v>
+        <v>390</v>
       </c>
       <c r="K50" t="s">
-        <v>342</v>
+        <v>391</v>
       </c>
       <c r="L50" t="s">
-        <v>343</v>
+        <v>392</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>344</v>
+        <v>393</v>
       </c>
       <c r="O50" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P50" t="n">
         <v>5</v>
@@ -5685,50 +6181,54 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>345</v>
+        <v>394</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>53930</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>395</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>346</v>
+        <v>396</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>347</v>
+        <v>397</v>
       </c>
       <c r="J51" t="s">
-        <v>348</v>
+        <v>398</v>
       </c>
       <c r="K51" t="s">
-        <v>349</v>
+        <v>399</v>
       </c>
       <c r="L51" t="s">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="M51" t="n">
         <v>4</v>
       </c>
       <c r="N51" t="s">
-        <v>344</v>
+        <v>393</v>
       </c>
       <c r="O51" t="s">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="P51" t="s"/>
       <c r="Q51" t="s"/>
@@ -5740,56 +6240,60 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>352</v>
+        <v>402</v>
       </c>
       <c r="X51" t="s">
-        <v>353</v>
+        <v>403</v>
       </c>
       <c r="Y51" t="s">
-        <v>354</v>
+        <v>404</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>53930</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>405</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>355</v>
+        <v>406</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>356</v>
+        <v>407</v>
       </c>
       <c r="J52" t="s">
-        <v>357</v>
+        <v>408</v>
       </c>
       <c r="K52" t="s">
-        <v>358</v>
+        <v>409</v>
       </c>
       <c r="L52" t="s">
-        <v>359</v>
+        <v>410</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>360</v>
+        <v>411</v>
       </c>
       <c r="O52" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P52" t="s"/>
       <c r="Q52" t="s"/>
@@ -5807,56 +6311,60 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>352</v>
+        <v>402</v>
       </c>
       <c r="X52" t="s">
-        <v>353</v>
+        <v>403</v>
       </c>
       <c r="Y52" t="s">
-        <v>361</v>
+        <v>412</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>53930</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>413</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>362</v>
+        <v>414</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>363</v>
+        <v>415</v>
       </c>
       <c r="J53" t="s">
-        <v>364</v>
+        <v>416</v>
       </c>
       <c r="K53" t="s">
-        <v>365</v>
+        <v>417</v>
       </c>
       <c r="L53" t="s">
-        <v>366</v>
+        <v>418</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>367</v>
+        <v>419</v>
       </c>
       <c r="O53" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P53" t="n">
         <v>5</v>
@@ -5874,56 +6382,60 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>352</v>
+        <v>402</v>
       </c>
       <c r="X53" t="s">
-        <v>353</v>
+        <v>403</v>
       </c>
       <c r="Y53" t="s">
-        <v>368</v>
+        <v>420</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>53930</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>421</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>369</v>
+        <v>422</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>370</v>
+        <v>423</v>
       </c>
       <c r="J54" t="s">
-        <v>371</v>
+        <v>424</v>
       </c>
       <c r="K54" t="s">
-        <v>372</v>
+        <v>425</v>
       </c>
       <c r="L54" t="s">
-        <v>373</v>
+        <v>426</v>
       </c>
       <c r="M54" t="n">
         <v>3</v>
       </c>
       <c r="N54" t="s">
-        <v>360</v>
+        <v>411</v>
       </c>
       <c r="O54" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P54" t="n">
         <v>3</v>
@@ -5945,56 +6457,60 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>374</v>
+        <v>427</v>
       </c>
       <c r="X54" t="s">
-        <v>375</v>
+        <v>428</v>
       </c>
       <c r="Y54" t="s">
-        <v>376</v>
+        <v>429</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>53930</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>430</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>377</v>
+        <v>431</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>378</v>
+        <v>432</v>
       </c>
       <c r="J55" t="s">
-        <v>379</v>
+        <v>433</v>
       </c>
       <c r="K55" t="s">
-        <v>380</v>
+        <v>434</v>
       </c>
       <c r="L55" t="s">
-        <v>381</v>
+        <v>435</v>
       </c>
       <c r="M55" t="n">
         <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>382</v>
+        <v>436</v>
       </c>
       <c r="O55" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P55" t="s"/>
       <c r="Q55" t="s"/>
@@ -6006,56 +6522,60 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>352</v>
+        <v>402</v>
       </c>
       <c r="X55" t="s">
-        <v>353</v>
+        <v>403</v>
       </c>
       <c r="Y55" t="s">
-        <v>383</v>
+        <v>437</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>53930</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>438</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>384</v>
+        <v>439</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>385</v>
+        <v>440</v>
       </c>
       <c r="J56" t="s">
-        <v>386</v>
+        <v>441</v>
       </c>
       <c r="K56" t="s">
-        <v>387</v>
+        <v>442</v>
       </c>
       <c r="L56" t="s">
-        <v>388</v>
+        <v>443</v>
       </c>
       <c r="M56" t="n">
         <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>382</v>
+        <v>436</v>
       </c>
       <c r="O56" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P56" t="s"/>
       <c r="Q56" t="s"/>
@@ -6067,56 +6587,60 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>352</v>
+        <v>402</v>
       </c>
       <c r="X56" t="s">
-        <v>353</v>
+        <v>403</v>
       </c>
       <c r="Y56" t="s">
-        <v>389</v>
+        <v>444</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>53930</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>445</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>390</v>
+        <v>446</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>391</v>
+        <v>447</v>
       </c>
       <c r="J57" t="s">
-        <v>392</v>
+        <v>448</v>
       </c>
       <c r="K57" t="s">
-        <v>393</v>
+        <v>449</v>
       </c>
       <c r="L57" t="s">
-        <v>394</v>
+        <v>450</v>
       </c>
       <c r="M57" t="n">
         <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>382</v>
+        <v>436</v>
       </c>
       <c r="O57" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P57" t="s"/>
       <c r="Q57" t="s"/>
@@ -6128,56 +6652,60 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>352</v>
+        <v>402</v>
       </c>
       <c r="X57" t="s">
-        <v>353</v>
+        <v>403</v>
       </c>
       <c r="Y57" t="s">
-        <v>395</v>
+        <v>451</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>53930</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>452</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>396</v>
+        <v>453</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>397</v>
+        <v>454</v>
       </c>
       <c r="J58" t="s">
-        <v>398</v>
+        <v>455</v>
       </c>
       <c r="K58" t="s">
-        <v>399</v>
+        <v>456</v>
       </c>
       <c r="L58" t="s">
-        <v>400</v>
+        <v>457</v>
       </c>
       <c r="M58" t="n">
         <v>3</v>
       </c>
       <c r="N58" t="s">
-        <v>401</v>
+        <v>458</v>
       </c>
       <c r="O58" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P58" t="s"/>
       <c r="Q58" t="s"/>
@@ -6189,56 +6717,60 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>402</v>
+        <v>459</v>
       </c>
       <c r="X58" t="s">
-        <v>403</v>
+        <v>460</v>
       </c>
       <c r="Y58" t="s">
-        <v>404</v>
+        <v>461</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>53930</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>234</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>405</v>
+        <v>462</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>406</v>
+        <v>463</v>
       </c>
       <c r="J59" t="s">
-        <v>407</v>
+        <v>464</v>
       </c>
       <c r="K59" t="s">
-        <v>408</v>
+        <v>465</v>
       </c>
       <c r="L59" t="s">
-        <v>409</v>
+        <v>466</v>
       </c>
       <c r="M59" t="n">
         <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>410</v>
+        <v>467</v>
       </c>
       <c r="O59" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P59" t="s"/>
       <c r="Q59" t="n">
@@ -6254,47 +6786,51 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>352</v>
+        <v>402</v>
       </c>
       <c r="X59" t="s">
-        <v>353</v>
+        <v>403</v>
       </c>
       <c r="Y59" t="s">
-        <v>411</v>
+        <v>468</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>53930</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>469</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>412</v>
+        <v>470</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>413</v>
+        <v>471</v>
       </c>
       <c r="J60" t="s">
-        <v>414</v>
+        <v>472</v>
       </c>
       <c r="K60" t="s">
-        <v>415</v>
+        <v>473</v>
       </c>
       <c r="L60" t="s">
-        <v>416</v>
+        <v>474</v>
       </c>
       <c r="M60" t="n">
         <v>2</v>
@@ -6311,56 +6847,60 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>417</v>
+        <v>475</v>
       </c>
       <c r="X60" t="s">
-        <v>418</v>
+        <v>476</v>
       </c>
       <c r="Y60" t="s">
-        <v>419</v>
+        <v>477</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>53930</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>478</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>420</v>
+        <v>479</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>421</v>
+        <v>480</v>
       </c>
       <c r="J61" t="s">
-        <v>422</v>
+        <v>481</v>
       </c>
       <c r="K61" t="s">
-        <v>423</v>
+        <v>482</v>
       </c>
       <c r="L61" t="s">
-        <v>424</v>
+        <v>483</v>
       </c>
       <c r="M61" t="n">
         <v>4</v>
       </c>
       <c r="N61" t="s">
-        <v>425</v>
+        <v>484</v>
       </c>
       <c r="O61" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P61" t="s"/>
       <c r="Q61" t="n">
@@ -6378,56 +6918,60 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>417</v>
+        <v>475</v>
       </c>
       <c r="X61" t="s">
-        <v>418</v>
+        <v>476</v>
       </c>
       <c r="Y61" t="s">
-        <v>426</v>
+        <v>485</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>53930</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>486</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>427</v>
+        <v>487</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>428</v>
+        <v>488</v>
       </c>
       <c r="J62" t="s">
-        <v>429</v>
+        <v>489</v>
       </c>
       <c r="K62" t="s">
-        <v>430</v>
+        <v>490</v>
       </c>
       <c r="L62" t="s">
-        <v>431</v>
+        <v>491</v>
       </c>
       <c r="M62" t="n">
         <v>4</v>
       </c>
       <c r="N62" t="s">
-        <v>432</v>
+        <v>492</v>
       </c>
       <c r="O62" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P62" t="n">
         <v>5</v>
@@ -6449,47 +6993,51 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>417</v>
+        <v>475</v>
       </c>
       <c r="X62" t="s">
-        <v>418</v>
+        <v>476</v>
       </c>
       <c r="Y62" t="s">
-        <v>433</v>
+        <v>493</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>53930</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>494</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>434</v>
+        <v>495</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>435</v>
+        <v>496</v>
       </c>
       <c r="J63" t="s">
-        <v>436</v>
+        <v>497</v>
       </c>
       <c r="K63" t="s">
-        <v>437</v>
+        <v>498</v>
       </c>
       <c r="L63" t="s">
-        <v>438</v>
+        <v>499</v>
       </c>
       <c r="M63" t="n">
         <v>5</v>
@@ -6516,56 +7064,60 @@
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>439</v>
+        <v>500</v>
       </c>
       <c r="X63" t="s">
-        <v>418</v>
+        <v>476</v>
       </c>
       <c r="Y63" t="s">
-        <v>440</v>
+        <v>501</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>53930</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C64" t="s">
+        <v>502</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>441</v>
+        <v>503</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>442</v>
+        <v>504</v>
       </c>
       <c r="J64" t="s">
-        <v>443</v>
+        <v>505</v>
       </c>
       <c r="K64" t="s">
-        <v>444</v>
+        <v>506</v>
       </c>
       <c r="L64" t="s">
-        <v>445</v>
+        <v>507</v>
       </c>
       <c r="M64" t="n">
         <v>5</v>
       </c>
       <c r="N64" t="s">
-        <v>446</v>
+        <v>508</v>
       </c>
       <c r="O64" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P64" t="n">
         <v>5</v>
@@ -6587,56 +7139,60 @@
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>417</v>
+        <v>475</v>
       </c>
       <c r="X64" t="s">
-        <v>418</v>
+        <v>476</v>
       </c>
       <c r="Y64" t="s">
-        <v>447</v>
+        <v>509</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>53930</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>510</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>448</v>
+        <v>511</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>449</v>
+        <v>512</v>
       </c>
       <c r="J65" t="s">
-        <v>450</v>
+        <v>513</v>
       </c>
       <c r="K65" t="s">
-        <v>451</v>
+        <v>514</v>
       </c>
       <c r="L65" t="s">
-        <v>452</v>
+        <v>515</v>
       </c>
       <c r="M65" t="n">
         <v>4</v>
       </c>
       <c r="N65" t="s">
-        <v>453</v>
+        <v>516</v>
       </c>
       <c r="O65" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P65" t="n">
         <v>4</v>
@@ -6658,56 +7214,60 @@
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>454</v>
+        <v>517</v>
       </c>
       <c r="X65" t="s">
-        <v>455</v>
+        <v>518</v>
       </c>
       <c r="Y65" t="s">
-        <v>456</v>
+        <v>519</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>53930</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C66" t="s">
+        <v>520</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>457</v>
+        <v>521</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>458</v>
+        <v>522</v>
       </c>
       <c r="J66" t="s">
-        <v>459</v>
+        <v>523</v>
       </c>
       <c r="K66" t="s">
-        <v>460</v>
+        <v>524</v>
       </c>
       <c r="L66" t="s">
-        <v>461</v>
+        <v>525</v>
       </c>
       <c r="M66" t="n">
         <v>5</v>
       </c>
       <c r="N66" t="s">
-        <v>453</v>
+        <v>516</v>
       </c>
       <c r="O66" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P66" t="n">
         <v>5</v>
@@ -6729,56 +7289,60 @@
         <v>0</v>
       </c>
       <c r="W66" t="s">
-        <v>454</v>
+        <v>517</v>
       </c>
       <c r="X66" t="s">
-        <v>455</v>
+        <v>518</v>
       </c>
       <c r="Y66" t="s">
-        <v>462</v>
+        <v>526</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>53930</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C67" t="s">
+        <v>527</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>463</v>
+        <v>528</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>464</v>
+        <v>529</v>
       </c>
       <c r="J67" t="s">
-        <v>465</v>
+        <v>530</v>
       </c>
       <c r="K67" t="s">
-        <v>466</v>
+        <v>531</v>
       </c>
       <c r="L67" t="s">
-        <v>467</v>
+        <v>532</v>
       </c>
       <c r="M67" t="n">
         <v>5</v>
       </c>
       <c r="N67" t="s">
-        <v>468</v>
+        <v>533</v>
       </c>
       <c r="O67" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P67" t="n">
         <v>5</v>
@@ -6800,56 +7364,60 @@
         <v>0</v>
       </c>
       <c r="W67" t="s">
-        <v>469</v>
+        <v>534</v>
       </c>
       <c r="X67" t="s">
-        <v>470</v>
+        <v>535</v>
       </c>
       <c r="Y67" t="s">
-        <v>471</v>
+        <v>536</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>53930</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C68" t="s">
+        <v>537</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>472</v>
+        <v>538</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>473</v>
+        <v>539</v>
       </c>
       <c r="J68" t="s">
-        <v>474</v>
+        <v>540</v>
       </c>
       <c r="K68" t="s">
-        <v>475</v>
+        <v>541</v>
       </c>
       <c r="L68" t="s">
-        <v>476</v>
+        <v>542</v>
       </c>
       <c r="M68" t="n">
         <v>5</v>
       </c>
       <c r="N68" t="s">
-        <v>410</v>
+        <v>467</v>
       </c>
       <c r="O68" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P68" t="s"/>
       <c r="Q68" t="s"/>
@@ -6861,56 +7429,60 @@
         <v>0</v>
       </c>
       <c r="W68" t="s">
-        <v>469</v>
+        <v>534</v>
       </c>
       <c r="X68" t="s">
-        <v>470</v>
+        <v>535</v>
       </c>
       <c r="Y68" t="s">
-        <v>477</v>
+        <v>543</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>53930</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C69" t="s">
+        <v>544</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>478</v>
+        <v>545</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>479</v>
+        <v>546</v>
       </c>
       <c r="J69" t="s">
-        <v>480</v>
+        <v>547</v>
       </c>
       <c r="K69" t="s">
-        <v>481</v>
+        <v>548</v>
       </c>
       <c r="L69" t="s">
-        <v>482</v>
+        <v>549</v>
       </c>
       <c r="M69" t="n">
         <v>5</v>
       </c>
       <c r="N69" t="s">
-        <v>483</v>
+        <v>550</v>
       </c>
       <c r="O69" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P69" t="n">
         <v>5</v>
@@ -6932,56 +7504,60 @@
         <v>0</v>
       </c>
       <c r="W69" t="s">
-        <v>469</v>
+        <v>534</v>
       </c>
       <c r="X69" t="s">
-        <v>470</v>
+        <v>535</v>
       </c>
       <c r="Y69" t="s">
-        <v>484</v>
+        <v>551</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>53930</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C70" t="s">
+        <v>552</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>485</v>
+        <v>553</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>486</v>
+        <v>554</v>
       </c>
       <c r="J70" t="s">
-        <v>487</v>
+        <v>555</v>
       </c>
       <c r="K70" t="s">
-        <v>488</v>
+        <v>556</v>
       </c>
       <c r="L70" t="s">
-        <v>489</v>
+        <v>557</v>
       </c>
       <c r="M70" t="n">
         <v>4</v>
       </c>
       <c r="N70" t="s">
-        <v>490</v>
+        <v>558</v>
       </c>
       <c r="O70" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P70" t="n">
         <v>4</v>
@@ -7003,56 +7579,60 @@
         <v>0</v>
       </c>
       <c r="W70" t="s">
-        <v>352</v>
+        <v>402</v>
       </c>
       <c r="X70" t="s">
-        <v>353</v>
+        <v>403</v>
       </c>
       <c r="Y70" t="s">
-        <v>491</v>
+        <v>559</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>53930</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C71" t="s">
+        <v>560</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>492</v>
+        <v>561</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>493</v>
+        <v>562</v>
       </c>
       <c r="J71" t="s">
-        <v>494</v>
+        <v>563</v>
       </c>
       <c r="K71" t="s">
-        <v>495</v>
+        <v>564</v>
       </c>
       <c r="L71" t="s">
-        <v>496</v>
+        <v>565</v>
       </c>
       <c r="M71" t="n">
         <v>5</v>
       </c>
       <c r="N71" t="s">
-        <v>497</v>
+        <v>566</v>
       </c>
       <c r="O71" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P71" t="n">
         <v>5</v>
@@ -7074,56 +7654,60 @@
         <v>0</v>
       </c>
       <c r="W71" t="s">
-        <v>352</v>
+        <v>402</v>
       </c>
       <c r="X71" t="s">
-        <v>353</v>
+        <v>403</v>
       </c>
       <c r="Y71" t="s">
-        <v>498</v>
+        <v>567</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>53930</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C72" t="s">
+        <v>568</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>499</v>
+        <v>569</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>500</v>
+        <v>570</v>
       </c>
       <c r="J72" t="s">
-        <v>501</v>
+        <v>571</v>
       </c>
       <c r="K72" t="s">
-        <v>502</v>
+        <v>572</v>
       </c>
       <c r="L72" t="s">
-        <v>503</v>
+        <v>573</v>
       </c>
       <c r="M72" t="n">
         <v>3</v>
       </c>
       <c r="N72" t="s">
-        <v>504</v>
+        <v>574</v>
       </c>
       <c r="O72" t="s">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="P72" t="n">
         <v>4</v>
@@ -7145,56 +7729,60 @@
         <v>0</v>
       </c>
       <c r="W72" t="s">
-        <v>505</v>
+        <v>575</v>
       </c>
       <c r="X72" t="s">
-        <v>506</v>
+        <v>576</v>
       </c>
       <c r="Y72" t="s">
-        <v>507</v>
+        <v>577</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>53930</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C73" t="s">
+        <v>578</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>508</v>
+        <v>579</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>509</v>
+        <v>580</v>
       </c>
       <c r="J73" t="s">
-        <v>510</v>
+        <v>581</v>
       </c>
       <c r="K73" t="s">
-        <v>511</v>
+        <v>582</v>
       </c>
       <c r="L73" t="s">
-        <v>512</v>
+        <v>583</v>
       </c>
       <c r="M73" t="n">
         <v>3</v>
       </c>
       <c r="N73" t="s">
-        <v>490</v>
+        <v>558</v>
       </c>
       <c r="O73" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P73" t="s"/>
       <c r="Q73" t="s"/>
@@ -7206,56 +7794,60 @@
         <v>0</v>
       </c>
       <c r="W73" t="s">
-        <v>513</v>
+        <v>584</v>
       </c>
       <c r="X73" t="s">
-        <v>514</v>
+        <v>585</v>
       </c>
       <c r="Y73" t="s">
-        <v>515</v>
+        <v>586</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>53930</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C74" t="s">
+        <v>587</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>516</v>
+        <v>588</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>517</v>
+        <v>589</v>
       </c>
       <c r="J74" t="s">
-        <v>518</v>
+        <v>590</v>
       </c>
       <c r="K74" t="s">
-        <v>519</v>
+        <v>591</v>
       </c>
       <c r="L74" t="s">
-        <v>520</v>
+        <v>592</v>
       </c>
       <c r="M74" t="n">
         <v>5</v>
       </c>
       <c r="N74" t="s">
-        <v>483</v>
+        <v>550</v>
       </c>
       <c r="O74" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P74" t="n">
         <v>5</v>
@@ -7277,56 +7869,60 @@
         <v>0</v>
       </c>
       <c r="W74" t="s">
-        <v>521</v>
+        <v>593</v>
       </c>
       <c r="X74" t="s">
-        <v>522</v>
+        <v>594</v>
       </c>
       <c r="Y74" t="s">
-        <v>523</v>
+        <v>595</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>53930</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C75" t="s">
+        <v>596</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>524</v>
+        <v>597</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>525</v>
+        <v>598</v>
       </c>
       <c r="J75" t="s">
-        <v>526</v>
+        <v>599</v>
       </c>
       <c r="K75" t="s">
-        <v>527</v>
+        <v>600</v>
       </c>
       <c r="L75" t="s">
-        <v>528</v>
+        <v>601</v>
       </c>
       <c r="M75" t="n">
         <v>5</v>
       </c>
       <c r="N75" t="s">
-        <v>529</v>
+        <v>602</v>
       </c>
       <c r="O75" t="s">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="P75" t="n">
         <v>5</v>
@@ -7348,56 +7944,60 @@
         <v>0</v>
       </c>
       <c r="W75" t="s">
-        <v>521</v>
+        <v>593</v>
       </c>
       <c r="X75" t="s">
-        <v>522</v>
+        <v>594</v>
       </c>
       <c r="Y75" t="s">
-        <v>530</v>
+        <v>603</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>53930</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C76" t="s">
+        <v>604</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>531</v>
+        <v>605</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>532</v>
+        <v>606</v>
       </c>
       <c r="J76" t="s">
-        <v>526</v>
+        <v>599</v>
       </c>
       <c r="K76" t="s">
-        <v>533</v>
+        <v>607</v>
       </c>
       <c r="L76" t="s">
-        <v>534</v>
+        <v>608</v>
       </c>
       <c r="M76" t="n">
         <v>5</v>
       </c>
       <c r="N76" t="s">
-        <v>529</v>
+        <v>602</v>
       </c>
       <c r="O76" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P76" t="n">
         <v>5</v>
@@ -7419,56 +8019,60 @@
         <v>0</v>
       </c>
       <c r="W76" t="s">
-        <v>521</v>
+        <v>593</v>
       </c>
       <c r="X76" t="s">
-        <v>522</v>
+        <v>594</v>
       </c>
       <c r="Y76" t="s">
-        <v>535</v>
+        <v>609</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>53930</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C77" t="s">
+        <v>610</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>536</v>
+        <v>611</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>537</v>
+        <v>612</v>
       </c>
       <c r="J77" t="s">
-        <v>538</v>
+        <v>613</v>
       </c>
       <c r="K77" t="s">
-        <v>539</v>
+        <v>614</v>
       </c>
       <c r="L77" t="s">
-        <v>540</v>
+        <v>615</v>
       </c>
       <c r="M77" t="n">
         <v>5</v>
       </c>
       <c r="N77" t="s">
-        <v>541</v>
+        <v>616</v>
       </c>
       <c r="O77" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P77" t="n">
         <v>5</v>
@@ -7490,56 +8094,60 @@
         <v>0</v>
       </c>
       <c r="W77" t="s">
-        <v>542</v>
+        <v>617</v>
       </c>
       <c r="X77" t="s">
-        <v>543</v>
+        <v>618</v>
       </c>
       <c r="Y77" t="s">
-        <v>544</v>
+        <v>619</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>53930</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C78" t="s">
+        <v>620</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>545</v>
+        <v>621</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>546</v>
+        <v>622</v>
       </c>
       <c r="J78" t="s">
-        <v>547</v>
+        <v>623</v>
       </c>
       <c r="K78" t="s">
-        <v>548</v>
+        <v>624</v>
       </c>
       <c r="L78" t="s">
-        <v>549</v>
+        <v>625</v>
       </c>
       <c r="M78" t="n">
         <v>4</v>
       </c>
       <c r="N78" t="s">
-        <v>550</v>
+        <v>626</v>
       </c>
       <c r="O78" t="s">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="P78" t="n">
         <v>4</v>
@@ -7561,56 +8169,60 @@
         <v>0</v>
       </c>
       <c r="W78" t="s">
-        <v>542</v>
+        <v>617</v>
       </c>
       <c r="X78" t="s">
-        <v>543</v>
+        <v>618</v>
       </c>
       <c r="Y78" t="s">
-        <v>551</v>
+        <v>627</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>53930</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C79" t="s">
+        <v>628</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>552</v>
+        <v>629</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>553</v>
+        <v>630</v>
       </c>
       <c r="J79" t="s">
-        <v>554</v>
+        <v>631</v>
       </c>
       <c r="K79" t="s">
-        <v>555</v>
+        <v>632</v>
       </c>
       <c r="L79" t="s">
-        <v>556</v>
+        <v>633</v>
       </c>
       <c r="M79" t="n">
         <v>4</v>
       </c>
       <c r="N79" t="s">
-        <v>557</v>
+        <v>634</v>
       </c>
       <c r="O79" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P79" t="n">
         <v>5</v>
@@ -7632,56 +8244,60 @@
         <v>0</v>
       </c>
       <c r="W79" t="s">
-        <v>542</v>
+        <v>617</v>
       </c>
       <c r="X79" t="s">
-        <v>543</v>
+        <v>618</v>
       </c>
       <c r="Y79" t="s">
-        <v>558</v>
+        <v>635</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>53930</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C80" t="s">
+        <v>636</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>559</v>
+        <v>637</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>560</v>
+        <v>638</v>
       </c>
       <c r="J80" t="s">
-        <v>561</v>
+        <v>639</v>
       </c>
       <c r="K80" t="s">
-        <v>562</v>
+        <v>640</v>
       </c>
       <c r="L80" t="s">
-        <v>563</v>
+        <v>641</v>
       </c>
       <c r="M80" t="n">
         <v>5</v>
       </c>
       <c r="N80" t="s">
-        <v>564</v>
+        <v>642</v>
       </c>
       <c r="O80" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P80" t="n">
         <v>5</v>
@@ -7703,56 +8319,60 @@
         <v>0</v>
       </c>
       <c r="W80" t="s">
-        <v>352</v>
+        <v>402</v>
       </c>
       <c r="X80" t="s">
-        <v>353</v>
+        <v>403</v>
       </c>
       <c r="Y80" t="s">
-        <v>565</v>
+        <v>643</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>53930</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C81" t="s">
+        <v>644</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>566</v>
+        <v>645</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>567</v>
+        <v>646</v>
       </c>
       <c r="J81" t="s">
-        <v>568</v>
+        <v>647</v>
       </c>
       <c r="K81" t="s">
-        <v>569</v>
+        <v>648</v>
       </c>
       <c r="L81" t="s">
-        <v>570</v>
+        <v>649</v>
       </c>
       <c r="M81" t="n">
         <v>4</v>
       </c>
       <c r="N81" t="s">
-        <v>564</v>
+        <v>642</v>
       </c>
       <c r="O81" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P81" t="n">
         <v>5</v>
@@ -7774,56 +8394,60 @@
         <v>0</v>
       </c>
       <c r="W81" t="s">
-        <v>352</v>
+        <v>402</v>
       </c>
       <c r="X81" t="s">
-        <v>353</v>
+        <v>403</v>
       </c>
       <c r="Y81" t="s">
-        <v>571</v>
+        <v>650</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>53930</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C82" t="s">
+        <v>651</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>572</v>
+        <v>652</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>573</v>
+        <v>653</v>
       </c>
       <c r="J82" t="s">
-        <v>574</v>
+        <v>654</v>
       </c>
       <c r="K82" t="s">
-        <v>575</v>
+        <v>655</v>
       </c>
       <c r="L82" t="s">
-        <v>576</v>
+        <v>656</v>
       </c>
       <c r="M82" t="n">
         <v>5</v>
       </c>
       <c r="N82" t="s">
-        <v>577</v>
+        <v>657</v>
       </c>
       <c r="O82" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P82" t="n">
         <v>5</v>
@@ -7845,56 +8469,60 @@
         <v>0</v>
       </c>
       <c r="W82" t="s">
-        <v>352</v>
+        <v>402</v>
       </c>
       <c r="X82" t="s">
-        <v>353</v>
+        <v>403</v>
       </c>
       <c r="Y82" t="s">
-        <v>578</v>
+        <v>658</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>53930</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C83" t="s">
+        <v>659</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>579</v>
+        <v>660</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>580</v>
+        <v>661</v>
       </c>
       <c r="J83" t="s">
-        <v>581</v>
+        <v>662</v>
       </c>
       <c r="K83" t="s">
-        <v>582</v>
+        <v>663</v>
       </c>
       <c r="L83" t="s">
-        <v>409</v>
+        <v>466</v>
       </c>
       <c r="M83" t="n">
         <v>5</v>
       </c>
       <c r="N83" t="s">
-        <v>583</v>
+        <v>664</v>
       </c>
       <c r="O83" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P83" t="n">
         <v>5</v>
@@ -7916,56 +8544,60 @@
         <v>0</v>
       </c>
       <c r="W83" t="s">
-        <v>352</v>
+        <v>402</v>
       </c>
       <c r="X83" t="s">
-        <v>353</v>
+        <v>403</v>
       </c>
       <c r="Y83" t="s">
-        <v>411</v>
+        <v>468</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>53930</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C84" t="s">
+        <v>665</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>584</v>
+        <v>666</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>585</v>
+        <v>667</v>
       </c>
       <c r="J84" t="s">
-        <v>586</v>
+        <v>668</v>
       </c>
       <c r="K84" t="s">
-        <v>587</v>
+        <v>669</v>
       </c>
       <c r="L84" t="s">
-        <v>588</v>
+        <v>670</v>
       </c>
       <c r="M84" t="n">
         <v>5</v>
       </c>
       <c r="N84" t="s">
-        <v>577</v>
+        <v>657</v>
       </c>
       <c r="O84" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P84" t="n">
         <v>5</v>
@@ -7987,56 +8619,60 @@
         <v>0</v>
       </c>
       <c r="W84" t="s">
-        <v>352</v>
+        <v>402</v>
       </c>
       <c r="X84" t="s">
-        <v>353</v>
+        <v>403</v>
       </c>
       <c r="Y84" t="s">
-        <v>589</v>
+        <v>671</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>53930</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C85" t="s">
+        <v>672</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>590</v>
+        <v>673</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>591</v>
+        <v>674</v>
       </c>
       <c r="J85" t="s">
-        <v>592</v>
+        <v>675</v>
       </c>
       <c r="K85" t="s">
-        <v>593</v>
+        <v>676</v>
       </c>
       <c r="L85" t="s">
-        <v>594</v>
+        <v>677</v>
       </c>
       <c r="M85" t="n">
         <v>5</v>
       </c>
       <c r="N85" t="s">
-        <v>577</v>
+        <v>657</v>
       </c>
       <c r="O85" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P85" t="n">
         <v>5</v>
@@ -8058,56 +8694,60 @@
         <v>0</v>
       </c>
       <c r="W85" t="s">
-        <v>352</v>
+        <v>402</v>
       </c>
       <c r="X85" t="s">
-        <v>353</v>
+        <v>403</v>
       </c>
       <c r="Y85" t="s">
-        <v>595</v>
+        <v>678</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>53930</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C86" t="s">
+        <v>679</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>596</v>
+        <v>680</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I86" t="s">
-        <v>597</v>
+        <v>681</v>
       </c>
       <c r="J86" t="s">
-        <v>598</v>
+        <v>682</v>
       </c>
       <c r="K86" t="s">
-        <v>599</v>
+        <v>683</v>
       </c>
       <c r="L86" t="s">
-        <v>600</v>
+        <v>684</v>
       </c>
       <c r="M86" t="n">
         <v>5</v>
       </c>
       <c r="N86" t="s">
-        <v>601</v>
+        <v>685</v>
       </c>
       <c r="O86" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P86" t="n">
         <v>5</v>
@@ -8129,56 +8769,60 @@
         <v>0</v>
       </c>
       <c r="W86" t="s">
-        <v>352</v>
+        <v>402</v>
       </c>
       <c r="X86" t="s">
-        <v>353</v>
+        <v>403</v>
       </c>
       <c r="Y86" t="s">
-        <v>602</v>
+        <v>686</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>53930</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C87" t="s">
+        <v>687</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>603</v>
+        <v>688</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I87" t="s">
-        <v>604</v>
+        <v>689</v>
       </c>
       <c r="J87" t="s">
-        <v>605</v>
+        <v>690</v>
       </c>
       <c r="K87" t="s">
-        <v>606</v>
+        <v>691</v>
       </c>
       <c r="L87" t="s">
-        <v>607</v>
+        <v>692</v>
       </c>
       <c r="M87" t="n">
         <v>5</v>
       </c>
       <c r="N87" t="s">
-        <v>608</v>
+        <v>693</v>
       </c>
       <c r="O87" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P87" t="n">
         <v>5</v>
@@ -8200,56 +8844,60 @@
         <v>0</v>
       </c>
       <c r="W87" t="s">
-        <v>352</v>
+        <v>402</v>
       </c>
       <c r="X87" t="s">
-        <v>353</v>
+        <v>403</v>
       </c>
       <c r="Y87" t="s">
-        <v>609</v>
+        <v>694</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>53930</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C88" t="s">
+        <v>695</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F88" t="s">
-        <v>610</v>
+        <v>696</v>
       </c>
       <c r="G88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I88" t="s">
-        <v>611</v>
+        <v>697</v>
       </c>
       <c r="J88" t="s">
-        <v>612</v>
+        <v>698</v>
       </c>
       <c r="K88" t="s">
-        <v>613</v>
+        <v>699</v>
       </c>
       <c r="L88" t="s">
-        <v>614</v>
+        <v>700</v>
       </c>
       <c r="M88" t="n">
         <v>5</v>
       </c>
       <c r="N88" t="s">
-        <v>615</v>
+        <v>701</v>
       </c>
       <c r="O88" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P88" t="n">
         <v>5</v>
@@ -8271,56 +8919,60 @@
         <v>0</v>
       </c>
       <c r="W88" t="s">
-        <v>352</v>
+        <v>402</v>
       </c>
       <c r="X88" t="s">
-        <v>353</v>
+        <v>403</v>
       </c>
       <c r="Y88" t="s">
-        <v>616</v>
+        <v>702</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>53930</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C89" t="s">
+        <v>703</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F89" t="s">
-        <v>617</v>
+        <v>704</v>
       </c>
       <c r="G89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I89" t="s">
-        <v>618</v>
+        <v>705</v>
       </c>
       <c r="J89" t="s">
-        <v>619</v>
+        <v>706</v>
       </c>
       <c r="K89" t="s">
-        <v>620</v>
+        <v>707</v>
       </c>
       <c r="L89" t="s">
-        <v>621</v>
+        <v>708</v>
       </c>
       <c r="M89" t="n">
         <v>4</v>
       </c>
       <c r="N89" t="s">
-        <v>622</v>
+        <v>709</v>
       </c>
       <c r="O89" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P89" t="n">
         <v>3</v>
@@ -8340,56 +8992,60 @@
         <v>0</v>
       </c>
       <c r="W89" t="s">
-        <v>352</v>
+        <v>402</v>
       </c>
       <c r="X89" t="s">
-        <v>353</v>
+        <v>403</v>
       </c>
       <c r="Y89" t="s">
-        <v>623</v>
+        <v>710</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>53930</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C90" t="s">
+        <v>711</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F90" t="s">
-        <v>624</v>
+        <v>712</v>
       </c>
       <c r="G90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I90" t="s">
-        <v>625</v>
+        <v>713</v>
       </c>
       <c r="J90" t="s">
-        <v>626</v>
+        <v>714</v>
       </c>
       <c r="K90" t="s">
-        <v>627</v>
+        <v>715</v>
       </c>
       <c r="L90" t="s">
-        <v>628</v>
+        <v>716</v>
       </c>
       <c r="M90" t="n">
         <v>5</v>
       </c>
       <c r="N90" t="s">
-        <v>629</v>
+        <v>717</v>
       </c>
       <c r="O90" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P90" t="n">
         <v>5</v>
@@ -8407,56 +9063,60 @@
         <v>0</v>
       </c>
       <c r="W90" t="s">
-        <v>352</v>
+        <v>402</v>
       </c>
       <c r="X90" t="s">
-        <v>353</v>
+        <v>403</v>
       </c>
       <c r="Y90" t="s">
-        <v>630</v>
+        <v>718</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>53930</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C91" t="s">
+        <v>719</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F91" t="s">
-        <v>631</v>
+        <v>720</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I91" t="s">
-        <v>632</v>
+        <v>721</v>
       </c>
       <c r="J91" t="s">
-        <v>633</v>
+        <v>722</v>
       </c>
       <c r="K91" t="s">
-        <v>634</v>
+        <v>723</v>
       </c>
       <c r="L91" t="s">
-        <v>635</v>
+        <v>724</v>
       </c>
       <c r="M91" t="n">
         <v>4</v>
       </c>
       <c r="N91" t="s">
-        <v>636</v>
+        <v>725</v>
       </c>
       <c r="O91" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="P91" t="n">
         <v>3</v>
@@ -8474,56 +9134,60 @@
         <v>0</v>
       </c>
       <c r="W91" t="s">
-        <v>352</v>
+        <v>402</v>
       </c>
       <c r="X91" t="s">
-        <v>353</v>
+        <v>403</v>
       </c>
       <c r="Y91" t="s">
-        <v>637</v>
+        <v>726</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>53930</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C92" t="s">
+        <v>727</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F92" t="s">
-        <v>638</v>
+        <v>728</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I92" t="s">
-        <v>639</v>
+        <v>729</v>
       </c>
       <c r="J92" t="s">
-        <v>640</v>
+        <v>730</v>
       </c>
       <c r="K92" t="s">
-        <v>641</v>
+        <v>731</v>
       </c>
       <c r="L92" t="s">
-        <v>642</v>
+        <v>732</v>
       </c>
       <c r="M92" t="n">
         <v>5</v>
       </c>
       <c r="N92" t="s">
-        <v>643</v>
+        <v>733</v>
       </c>
       <c r="O92" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P92" t="n">
         <v>5</v>
@@ -8545,56 +9209,60 @@
         <v>0</v>
       </c>
       <c r="W92" t="s">
-        <v>352</v>
+        <v>402</v>
       </c>
       <c r="X92" t="s">
-        <v>353</v>
+        <v>403</v>
       </c>
       <c r="Y92" t="s">
-        <v>644</v>
+        <v>734</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>53930</v>
       </c>
-      <c r="B93" t="s"/>
-      <c r="C93" t="s"/>
+      <c r="B93" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C93" t="s">
+        <v>735</v>
+      </c>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F93" t="s">
-        <v>645</v>
+        <v>736</v>
       </c>
       <c r="G93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I93" t="s">
-        <v>646</v>
+        <v>737</v>
       </c>
       <c r="J93" t="s">
-        <v>647</v>
+        <v>738</v>
       </c>
       <c r="K93" t="s">
-        <v>648</v>
+        <v>739</v>
       </c>
       <c r="L93" t="s">
-        <v>649</v>
+        <v>740</v>
       </c>
       <c r="M93" t="n">
         <v>5</v>
       </c>
       <c r="N93" t="s">
-        <v>650</v>
+        <v>741</v>
       </c>
       <c r="O93" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P93" t="n">
         <v>5</v>
@@ -8616,56 +9284,60 @@
         <v>0</v>
       </c>
       <c r="W93" t="s">
-        <v>352</v>
+        <v>402</v>
       </c>
       <c r="X93" t="s">
-        <v>353</v>
+        <v>403</v>
       </c>
       <c r="Y93" t="s">
-        <v>651</v>
+        <v>742</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>53930</v>
       </c>
-      <c r="B94" t="s"/>
-      <c r="C94" t="s"/>
+      <c r="B94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C94" t="s">
+        <v>743</v>
+      </c>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F94" t="s">
-        <v>652</v>
+        <v>744</v>
       </c>
       <c r="G94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H94" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I94" t="s">
-        <v>653</v>
+        <v>745</v>
       </c>
       <c r="J94" t="s">
-        <v>654</v>
+        <v>746</v>
       </c>
       <c r="K94" t="s">
-        <v>655</v>
+        <v>747</v>
       </c>
       <c r="L94" t="s">
-        <v>656</v>
+        <v>748</v>
       </c>
       <c r="M94" t="n">
         <v>5</v>
       </c>
       <c r="N94" t="s">
-        <v>657</v>
+        <v>749</v>
       </c>
       <c r="O94" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P94" t="n">
         <v>5</v>
@@ -8687,56 +9359,60 @@
         <v>0</v>
       </c>
       <c r="W94" t="s">
-        <v>352</v>
+        <v>402</v>
       </c>
       <c r="X94" t="s">
-        <v>353</v>
+        <v>403</v>
       </c>
       <c r="Y94" t="s">
-        <v>658</v>
+        <v>750</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>53930</v>
       </c>
-      <c r="B95" t="s"/>
-      <c r="C95" t="s"/>
+      <c r="B95" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C95" t="s">
+        <v>751</v>
+      </c>
       <c r="D95" t="n">
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F95" t="s">
-        <v>659</v>
+        <v>752</v>
       </c>
       <c r="G95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H95" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I95" t="s">
-        <v>660</v>
+        <v>753</v>
       </c>
       <c r="J95" t="s">
-        <v>661</v>
+        <v>754</v>
       </c>
       <c r="K95" t="s">
-        <v>662</v>
+        <v>755</v>
       </c>
       <c r="L95" t="s">
-        <v>663</v>
+        <v>756</v>
       </c>
       <c r="M95" t="n">
         <v>5</v>
       </c>
       <c r="N95" t="s">
-        <v>664</v>
+        <v>757</v>
       </c>
       <c r="O95" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P95" t="n">
         <v>5</v>
@@ -8758,56 +9434,60 @@
         <v>0</v>
       </c>
       <c r="W95" t="s">
-        <v>352</v>
+        <v>402</v>
       </c>
       <c r="X95" t="s">
-        <v>353</v>
+        <v>403</v>
       </c>
       <c r="Y95" t="s">
-        <v>665</v>
+        <v>758</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>53930</v>
       </c>
-      <c r="B96" t="s"/>
-      <c r="C96" t="s"/>
+      <c r="B96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C96" t="s">
+        <v>759</v>
+      </c>
       <c r="D96" t="n">
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F96" t="s">
-        <v>666</v>
+        <v>760</v>
       </c>
       <c r="G96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H96" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I96" t="s">
-        <v>667</v>
+        <v>761</v>
       </c>
       <c r="J96" t="s">
-        <v>668</v>
+        <v>762</v>
       </c>
       <c r="K96" t="s">
-        <v>669</v>
+        <v>763</v>
       </c>
       <c r="L96" t="s">
-        <v>670</v>
+        <v>764</v>
       </c>
       <c r="M96" t="n">
         <v>5</v>
       </c>
       <c r="N96" t="s">
-        <v>671</v>
+        <v>765</v>
       </c>
       <c r="O96" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P96" t="n">
         <v>5</v>
@@ -8829,56 +9509,60 @@
         <v>0</v>
       </c>
       <c r="W96" t="s">
-        <v>352</v>
+        <v>402</v>
       </c>
       <c r="X96" t="s">
-        <v>353</v>
+        <v>403</v>
       </c>
       <c r="Y96" t="s">
-        <v>672</v>
+        <v>766</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>53930</v>
       </c>
-      <c r="B97" t="s"/>
-      <c r="C97" t="s"/>
+      <c r="B97" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C97" t="s">
+        <v>767</v>
+      </c>
       <c r="D97" t="n">
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F97" t="s">
-        <v>673</v>
+        <v>768</v>
       </c>
       <c r="G97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H97" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I97" t="s">
-        <v>674</v>
+        <v>769</v>
       </c>
       <c r="J97" t="s">
-        <v>675</v>
+        <v>770</v>
       </c>
       <c r="K97" t="s">
-        <v>676</v>
+        <v>771</v>
       </c>
       <c r="L97" t="s">
-        <v>677</v>
+        <v>772</v>
       </c>
       <c r="M97" t="n">
         <v>4</v>
       </c>
       <c r="N97" t="s">
-        <v>650</v>
+        <v>741</v>
       </c>
       <c r="O97" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P97" t="n">
         <v>5</v>
@@ -8900,56 +9584,60 @@
         <v>0</v>
       </c>
       <c r="W97" t="s">
-        <v>352</v>
+        <v>402</v>
       </c>
       <c r="X97" t="s">
-        <v>353</v>
+        <v>403</v>
       </c>
       <c r="Y97" t="s">
-        <v>678</v>
+        <v>773</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
         <v>53930</v>
       </c>
-      <c r="B98" t="s"/>
-      <c r="C98" t="s"/>
+      <c r="B98" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C98" t="s">
+        <v>774</v>
+      </c>
       <c r="D98" t="n">
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F98" t="s">
-        <v>679</v>
+        <v>775</v>
       </c>
       <c r="G98" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H98" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I98" t="s">
-        <v>680</v>
+        <v>776</v>
       </c>
       <c r="J98" t="s">
-        <v>681</v>
+        <v>777</v>
       </c>
       <c r="K98" t="s">
-        <v>682</v>
+        <v>778</v>
       </c>
       <c r="L98" t="s">
-        <v>683</v>
+        <v>779</v>
       </c>
       <c r="M98" t="n">
         <v>5</v>
       </c>
       <c r="N98" t="s">
-        <v>684</v>
+        <v>780</v>
       </c>
       <c r="O98" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P98" t="n">
         <v>4</v>
@@ -8971,56 +9659,60 @@
         <v>0</v>
       </c>
       <c r="W98" t="s">
-        <v>352</v>
+        <v>402</v>
       </c>
       <c r="X98" t="s">
-        <v>353</v>
+        <v>403</v>
       </c>
       <c r="Y98" t="s">
-        <v>685</v>
+        <v>781</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
         <v>53930</v>
       </c>
-      <c r="B99" t="s"/>
-      <c r="C99" t="s"/>
+      <c r="B99" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C99" t="s">
+        <v>782</v>
+      </c>
       <c r="D99" t="n">
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F99" t="s">
-        <v>686</v>
+        <v>783</v>
       </c>
       <c r="G99" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H99" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I99" t="s">
-        <v>687</v>
+        <v>784</v>
       </c>
       <c r="J99" t="s">
-        <v>688</v>
+        <v>785</v>
       </c>
       <c r="K99" t="s">
-        <v>689</v>
+        <v>786</v>
       </c>
       <c r="L99" t="s">
-        <v>690</v>
+        <v>787</v>
       </c>
       <c r="M99" t="n">
         <v>5</v>
       </c>
       <c r="N99" t="s">
-        <v>691</v>
+        <v>788</v>
       </c>
       <c r="O99" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P99" t="n">
         <v>5</v>
@@ -9042,56 +9734,60 @@
         <v>0</v>
       </c>
       <c r="W99" t="s">
-        <v>352</v>
+        <v>402</v>
       </c>
       <c r="X99" t="s">
-        <v>353</v>
+        <v>403</v>
       </c>
       <c r="Y99" t="s">
-        <v>692</v>
+        <v>789</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
         <v>53930</v>
       </c>
-      <c r="B100" t="s"/>
-      <c r="C100" t="s"/>
+      <c r="B100" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C100" t="s">
+        <v>790</v>
+      </c>
       <c r="D100" t="n">
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F100" t="s">
-        <v>693</v>
+        <v>791</v>
       </c>
       <c r="G100" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H100" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I100" t="s">
-        <v>694</v>
+        <v>792</v>
       </c>
       <c r="J100" t="s">
-        <v>695</v>
+        <v>793</v>
       </c>
       <c r="K100" t="s">
-        <v>696</v>
+        <v>794</v>
       </c>
       <c r="L100" t="s">
-        <v>697</v>
+        <v>795</v>
       </c>
       <c r="M100" t="n">
         <v>5</v>
       </c>
       <c r="N100" t="s">
-        <v>698</v>
+        <v>796</v>
       </c>
       <c r="O100" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P100" t="n">
         <v>5</v>
@@ -9113,56 +9809,60 @@
         <v>0</v>
       </c>
       <c r="W100" t="s">
-        <v>352</v>
+        <v>402</v>
       </c>
       <c r="X100" t="s">
-        <v>353</v>
+        <v>403</v>
       </c>
       <c r="Y100" t="s">
-        <v>699</v>
+        <v>797</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
         <v>53930</v>
       </c>
-      <c r="B101" t="s"/>
-      <c r="C101" t="s"/>
+      <c r="B101" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C101" t="s">
+        <v>798</v>
+      </c>
       <c r="D101" t="n">
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F101" t="s">
-        <v>700</v>
+        <v>799</v>
       </c>
       <c r="G101" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H101" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I101" t="s">
-        <v>701</v>
+        <v>800</v>
       </c>
       <c r="J101" t="s">
-        <v>702</v>
+        <v>801</v>
       </c>
       <c r="K101" t="s">
-        <v>703</v>
+        <v>802</v>
       </c>
       <c r="L101" t="s">
-        <v>704</v>
+        <v>803</v>
       </c>
       <c r="M101" t="n">
         <v>5</v>
       </c>
       <c r="N101" t="s">
-        <v>705</v>
+        <v>804</v>
       </c>
       <c r="O101" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P101" t="n">
         <v>5</v>
@@ -9184,47 +9884,51 @@
         <v>0</v>
       </c>
       <c r="W101" t="s">
-        <v>352</v>
+        <v>402</v>
       </c>
       <c r="X101" t="s">
-        <v>353</v>
+        <v>403</v>
       </c>
       <c r="Y101" t="s">
-        <v>706</v>
+        <v>805</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
         <v>53930</v>
       </c>
-      <c r="B102" t="s"/>
-      <c r="C102" t="s"/>
+      <c r="B102" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C102" t="s">
+        <v>806</v>
+      </c>
       <c r="D102" t="n">
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F102" t="s">
-        <v>707</v>
+        <v>807</v>
       </c>
       <c r="G102" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H102" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I102" t="s">
-        <v>708</v>
+        <v>808</v>
       </c>
       <c r="J102" t="s">
-        <v>709</v>
+        <v>809</v>
       </c>
       <c r="K102" t="s">
-        <v>710</v>
+        <v>810</v>
       </c>
       <c r="L102" t="s">
-        <v>711</v>
+        <v>811</v>
       </c>
       <c r="M102" t="n">
         <v>5</v>
@@ -9249,13 +9953,13 @@
         <v>0</v>
       </c>
       <c r="W102" t="s">
-        <v>352</v>
+        <v>402</v>
       </c>
       <c r="X102" t="s">
-        <v>353</v>
+        <v>403</v>
       </c>
       <c r="Y102" t="s">
-        <v>712</v>
+        <v>812</v>
       </c>
     </row>
   </sheetData>
